--- a/Example D20 XML/D20M++/FE D20 M++ QC Doc Rev 3.xlsx
+++ b/Example D20 XML/D20M++/FE D20 M++ QC Doc Rev 3.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName localSheetId="1" name="_xlnm.Print_Titles">'D20++ QC Doc'!$8:$8</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'D20++ QC Doc'!$B$1:$L$200</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'D20++ QC Doc'!$B$1:$L$223</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>D20 ME,  MEII and MX QC Document</t>
   </si>
@@ -63,9 +63,6 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>this is</t>
-  </si>
-  <si>
     <t>First Energy D20++ QC Checklist</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Number of REAL Device Points</t>
   </si>
   <si>
-    <t>DCA Object Types</t>
-  </si>
-  <si>
     <t>Binary Input</t>
   </si>
   <si>
@@ -303,6 +297,9 @@
     <t>SOE BUFFER SIZE</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>SOE LOCATION</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
     <t>Standard UTC Offset</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>DST Offset</t>
   </si>
   <si>
@@ -330,6 +330,9 @@
     <t>USER NAME</t>
   </si>
   <si>
+    <t>Please refer to the SGConfig.</t>
+  </si>
+  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -348,9 +351,66 @@
     <t>NEW LOGIN</t>
   </si>
   <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>PLEASANT VALLEY SUBSTATION     SAB0605/03</t>
+  </si>
+  <si>
     <t>Insert new device welcome screen text in Cell C76</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Port 1 - DNP3.0 SEL3530 RTAC2, 9600 baud</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Port 2 - DNP DPA WCC, MPLS 9600 Baud</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Port 3 - Spare</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Port 4 - DNP3.0 DPA SAM-900 HMI, 9600 baud</t>
+  </si>
+  <si>
+    <t>Port 5 - DNP3.0 SEL3530 RTAC1, 9600 baud</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Port 6 - DNP3.0 Q-22 ION Meter, 9600 baud</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Port 7 - Spare</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>NEW LOGIN:</t>
+  </si>
+  <si>
     <t>BRIDGEMAN</t>
   </si>
   <si>
@@ -363,6 +423,96 @@
     <t>Number of RX Buffers</t>
   </si>
   <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>Application Address</t>
+  </si>
+  <si>
+    <t>Data Link Channel</t>
+  </si>
+  <si>
+    <t>LAN Address (Hex)</t>
+  </si>
+  <si>
+    <t>Corresponding COM Port</t>
+  </si>
+  <si>
+    <t>COM5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>COM6</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>COM2</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1F5</t>
+  </si>
+  <si>
+    <t>COM4</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>COM1</t>
+  </si>
+  <si>
+    <t>REMOTE</t>
+  </si>
+  <si>
+    <t>Data Link channel</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>1F4</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Comm Watchdog</t>
+  </si>
+  <si>
+    <t>A026_CFG</t>
+  </si>
+  <si>
+    <t>*****  See Examples below *****</t>
+  </si>
+  <si>
     <t>Record Point</t>
   </si>
   <si>
@@ -378,7 +528,7 @@
     <t>Normal State</t>
   </si>
   <si>
-    <t>**Not all values. If you need them all, please refer to the SGConfig**</t>
+    <t>**May not contain all values. If you need them all, please refer to the SGConfig**</t>
   </si>
   <si>
     <t>Digital Input</t>
@@ -399,54 +549,36 @@
     <t>(000146) D20 S2 Comm Watchdog On/Off Line</t>
   </si>
   <si>
-    <t>Corresponding COM</t>
-  </si>
-  <si>
     <t>(000001) Spare 1</t>
   </si>
   <si>
     <t>(000147) D20 A1 Comm Watchdog On/Off Line</t>
   </si>
   <si>
-    <t>COM5</t>
-  </si>
-  <si>
     <t>(000033) Q-3-PV-BUS KV</t>
   </si>
   <si>
     <t>(000148) D20 A2 Comm Watchdog On/Off Line</t>
   </si>
   <si>
-    <t>COM6</t>
-  </si>
-  <si>
     <t>Digital Output</t>
   </si>
   <si>
     <t>(000149) D20 K1 Comm Watchdog On/Off Line</t>
   </si>
   <si>
-    <t>COM2</t>
-  </si>
-  <si>
     <t>(000129) Status pt. # 129</t>
   </si>
   <si>
     <t>(000150) D20 C1 Comm Watchdog On/Off Line</t>
   </si>
   <si>
-    <t>COM4</t>
-  </si>
-  <si>
     <t>(000130) BITRONICS Q-1-FW-PV RTAC2 P12 Ph A Volts</t>
   </si>
   <si>
     <t>(000151) Q-1 Bitronics Comm Watchdog</t>
   </si>
   <si>
-    <t>COM1</t>
-  </si>
-  <si>
     <t>(000134) SATEC Q-3-FW-PV RTAC2 P12  Ph A Volts</t>
   </si>
   <si>
@@ -459,165 +591,231 @@
     <t>(000153) RTAC1 Comm Watchdog</t>
   </si>
   <si>
-    <t>REMOTE</t>
+    <t>(000096) Total MW</t>
+  </si>
+  <si>
+    <t>(000154) Q-22 ION8600C Comm Watchdog</t>
+  </si>
+  <si>
+    <t>(000138) SATEC Q-4-FW-PV RTAC2 P12 Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000156) Q-4-FW-PV Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000114) SATEC#3 Q-1-JR-PV RTAC2 P11 Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000157) Q-1-JR-PV Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000122) SATEC#4 Q-3-JR-PV RTAC2 P11 Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000158) Q-3-JR-PV Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000118) SATEC#5 Q-4-JR-PV RTAC2 P11 Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000159) Q-4-JR-PV Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000126) SATEC#6 PV-WAkron Q22 RTAC2 P11 PhA Volt</t>
+  </si>
+  <si>
+    <t>(000160) Q-22-PV-WAK Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000161) SEL421 PR/WAK RTAC COM32 WD</t>
+  </si>
+  <si>
+    <t>(000083) Q-21-PV-HP RTAC1 COM20 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000162) Q-21-PV-HP RTAC1 COM20 WD</t>
+  </si>
+  <si>
+    <t>(000081) Q-3-FW-PV RTAC1 COM5 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000163) Q-3-FW-PV SEL421 RTAC1 COM5 WD</t>
+  </si>
+  <si>
+    <t>(000082) Q-4-FW-PV RTAC1 COM7 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000164) Q-4-FW-PV SEL421 RTAC1 COM7 WD</t>
+  </si>
+  <si>
+    <t>(000084) Q-1-JR-PV RTAC1 COM22 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000165) Q-1-JR-PV SEL421 RTAC1 COM22 WD</t>
+  </si>
+  <si>
+    <t>(000085) Q-3-JR-PV RTAC1 COM26 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000166) Q-3-JR-PV SEL421 RTAC1 COM26 WD</t>
+  </si>
+  <si>
+    <t>(000086) Q-4-JR-PV RTAC1 COM29 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000167) Q-4-JR-PV SEL421 RTAC1 COM29 WD</t>
+  </si>
+  <si>
+    <t>(000150) SATEC Q-2-FW-PV Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000168) Fowles - PV Q2 Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000142) SATEC HARDNG-PV Q12 RTAC2 P13 Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000169) Harding - PV Q12 Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000146) SATEC HARDNG-PV Q13 RTAC2 P13 Ph A Volts</t>
+  </si>
+  <si>
+    <t>(000170) Harding - PV Q13 Satec Meter Comm WD</t>
+  </si>
+  <si>
+    <t>(000088) Fowles-PV Q2 RTAC1 COM11 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000171) Q-2-FW-PV SEL421 RTAC1 COM11 WD</t>
+  </si>
+  <si>
+    <t>(000090) Hardng-PV Q12 RTAC1 COM11 Ph B Amps</t>
+  </si>
+  <si>
+    <t>(000172) Q-12-HD-PV SEL421 RTAC1 COM12 WD</t>
+  </si>
+  <si>
+    <t>(000113) Harding - PV Q13 Ph B Amps RTAC2 P7</t>
+  </si>
+  <si>
+    <t>(000173) Q-13-HD-PV SEL421 RTAC2 COM7 WD</t>
+  </si>
+  <si>
+    <t>(000174) SEL3530 RTAC2 COMM WD</t>
+  </si>
+  <si>
+    <t>COMMUNICATION WD</t>
+  </si>
+  <si>
+    <t>A026DCA</t>
+  </si>
+  <si>
+    <t>SOE ENABLE</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Application Address</t>
-  </si>
-  <si>
-    <t>Data Link channel</t>
-  </si>
-  <si>
-    <t>LAN Address (Hex)</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1F4</t>
-  </si>
-  <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Comm Watchdog</t>
-  </si>
-  <si>
-    <t>A026_CFG</t>
-  </si>
-  <si>
-    <t>*****  See Examples below *****</t>
+    <t>COS ENABLE</t>
+  </si>
+  <si>
+    <t>SATEC Meter Comm</t>
+  </si>
+  <si>
+    <t>DNP Datalink</t>
+  </si>
+  <si>
+    <t>B013_CFG</t>
+  </si>
+  <si>
+    <t>Port Configuration</t>
+  </si>
+  <si>
+    <t>Baud Rate</t>
+  </si>
+  <si>
+    <t>Please refer to the SGConfig for the Baud Rate.</t>
+  </si>
+  <si>
+    <t>ACCUM. FREEZE</t>
+  </si>
+  <si>
+    <t>A030CFG</t>
+  </si>
+  <si>
+    <t>DTA MISC PARAMETERS</t>
+  </si>
+  <si>
+    <t>TIME SYNC WAIT</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>STATUS/ACC FREEZE</t>
+  </si>
+  <si>
+    <t>ALL COLUMNS</t>
+  </si>
+  <si>
+    <t>Empty (No Values)</t>
+  </si>
+  <si>
+    <t>There are no STATUS/ACC FREEZE values.</t>
+  </si>
+  <si>
+    <t>ACC FREEZE/CONTROLS</t>
+  </si>
+  <si>
+    <t>There are no ACC FREEZE/CONTROLS values.</t>
+  </si>
+  <si>
+    <t>DNP DPA</t>
+  </si>
+  <si>
+    <t>B021CFG</t>
+  </si>
+  <si>
+    <t>DPA CONFIGURATION</t>
+  </si>
+  <si>
+    <t>DATALINK CONFIRM</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Unsolicited Responses</t>
+  </si>
+  <si>
+    <t>Idle Report Period</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>HARRIS DPA</t>
+  </si>
+  <si>
+    <t>A003MT01</t>
+  </si>
+  <si>
+    <t>DIGITAL INPUT MAP</t>
+  </si>
+  <si>
+    <t>SOE</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Application A003 is disabled for this site.</t>
   </si>
   <si>
-    <t>COMMUNICATION WD</t>
-  </si>
-  <si>
-    <t>A026DCA</t>
-  </si>
-  <si>
-    <t>SOE ENABLE</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>COS ENABLE</t>
-  </si>
-  <si>
-    <t>SATEC Meter Comm</t>
-  </si>
-  <si>
-    <t>DNP Datalink</t>
-  </si>
-  <si>
-    <t>B013_CFG</t>
-  </si>
-  <si>
-    <t>Port Configuration</t>
-  </si>
-  <si>
-    <t>Baud Rate</t>
-  </si>
-  <si>
-    <t>ACCUM. FREEZE</t>
-  </si>
-  <si>
-    <t>A030CFG</t>
-  </si>
-  <si>
-    <t>DTA MISC PARAMETERS</t>
-  </si>
-  <si>
-    <t>TIME SYNC WAIT</t>
-  </si>
-  <si>
-    <t>STATUS/ACC FREEZE</t>
-  </si>
-  <si>
-    <t>ALL COLUMNS</t>
-  </si>
-  <si>
-    <t>Empty (No Values)</t>
-  </si>
-  <si>
-    <t>ACC FREEZE/CONTROLS</t>
-  </si>
-  <si>
-    <t>DNP DPA</t>
-  </si>
-  <si>
-    <t>B021CFG</t>
-  </si>
-  <si>
-    <t>DPA CONFIGURATION</t>
-  </si>
-  <si>
-    <t>DATALINK CONFIRM</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>Unsolicited Responses</t>
-  </si>
-  <si>
-    <t>Idle Report Period</t>
-  </si>
-  <si>
-    <t>HARRIS DPA</t>
-  </si>
-  <si>
-    <t>A003MT01</t>
-  </si>
-  <si>
-    <t>DIGITAL INPUT MAP</t>
-  </si>
-  <si>
-    <t>SOE</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>A003_LRU</t>
   </si>
   <si>
@@ -645,6 +843,9 @@
     <t xml:space="preserve">Check Scaling for the Harris analog points. Fault Distance and TR Winding Temp should be as shown above. All other scaling factors should be as the Volts are shown in the above graphic. </t>
   </si>
   <si>
+    <t>User Check</t>
+  </si>
+  <si>
     <t>Revenue Meter Settings</t>
   </si>
   <si>
@@ -663,6 +864,9 @@
     <t>250</t>
   </si>
   <si>
+    <t>Refer to the SGConfig for TX DELAY TO APPL. values.</t>
+  </si>
+  <si>
     <t>DCD, RTS, &amp; CTS</t>
   </si>
   <si>
@@ -834,25 +1038,16 @@
     <t>CLEAR COMM STATISTIC</t>
   </si>
   <si>
-    <t>Please refer to the SGConfig.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>1F5</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1237,17 +1432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1259,14 +1443,180 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1283,102 +1633,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1389,7 +1646,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1402,10 +1659,45 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1416,7 +1708,7 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1434,6 +1726,9 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,6 +1738,9 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,19 +1756,10 @@
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1514,6 +1803,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="18" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1536,9 +1828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1552,6 +1841,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1615,94 +1907,12 @@
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="26" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -1714,18 +1924,165 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1740,7 +2097,26 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1749,55 +2125,65 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1805,7 +2191,67 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="167">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3727,104 +4173,104 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <sheetData>
-    <row customHeight="1" ht="21" r="7" s="117" spans="1:10" thickBot="1">
-      <c r="B7" s="118" t="s">
+    <row customHeight="1" ht="21" r="7" s="140" spans="1:10" thickBot="1">
+      <c r="B7" s="141" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="11" s="117" spans="1:10" thickBot="1">
-      <c r="D11" s="119" t="s">
+    <row customHeight="1" ht="18.75" r="11" s="140" spans="1:10" thickBot="1">
+      <c r="D11" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="13" s="117" spans="1:10">
+    <row customHeight="1" ht="12.75" r="13" s="140" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="143" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="14" s="117" spans="1:10">
+    <row customHeight="1" ht="32.25" r="14" s="140" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="24" t="n">
         <v>42494</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="139" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="15" s="117" spans="1:10">
-      <c r="A15" s="24" t="n">
+    <row customHeight="1" ht="32.25" r="15" s="140" spans="1:10">
+      <c r="A15" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="24" t="n">
         <v>42821</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="51.75" r="16" s="117" spans="1:10">
-      <c r="A16" s="24" t="n">
+    <row customHeight="1" ht="51.75" r="16" s="140" spans="1:10">
+      <c r="A16" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="24" t="n">
         <v>42838</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="139" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="17" s="117" spans="1:10">
-      <c r="A17" s="24" t="n">
+    <row customHeight="1" ht="48" r="17" s="140" spans="1:10">
+      <c r="A17" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="24" t="n">
         <v>42935</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="18" s="117" spans="1:10">
-      <c r="A18" s="24" t="n"/>
-      <c r="B18" s="25" t="n"/>
-      <c r="C18" s="116" t="n"/>
-      <c r="J18" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="32.25" r="19" s="117" spans="1:10">
-      <c r="A19" s="24" t="n"/>
-      <c r="B19" s="25" t="n"/>
-      <c r="C19" s="116" t="n"/>
-      <c r="J19" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="42" r="20" s="117" spans="1:10">
-      <c r="A20" s="24" t="n"/>
-      <c r="B20" s="25" t="n"/>
-      <c r="C20" s="116" t="n"/>
-      <c r="J20" s="26" t="n"/>
+    <row customHeight="1" ht="32.25" r="18" s="140" spans="1:10">
+      <c r="A18" s="23" t="n"/>
+      <c r="B18" s="24" t="n"/>
+      <c r="C18" s="139" t="n"/>
+      <c r="J18" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="32.25" r="19" s="140" spans="1:10">
+      <c r="A19" s="23" t="n"/>
+      <c r="B19" s="24" t="n"/>
+      <c r="C19" s="139" t="n"/>
+      <c r="J19" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="42" r="20" s="140" spans="1:10">
+      <c r="A20" s="23" t="n"/>
+      <c r="B20" s="24" t="n"/>
+      <c r="C20" s="139" t="n"/>
+      <c r="J20" s="25" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3850,782 +4296,814 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V206"/>
+  <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A64" ySplit="8"/>
-      <selection activeCell="C76" pane="bottomLeft" sqref="C76:E76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A39" ySplit="8"/>
+      <selection activeCell="L17" pane="bottomLeft" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="122" width="19.5546875"/>
-    <col customWidth="1" max="3" min="3" style="122" width="18"/>
-    <col customWidth="1" max="4" min="4" style="122" width="48.5546875"/>
-    <col customWidth="1" max="5" min="5" style="123" width="43.88671875"/>
-    <col customWidth="1" max="6" min="6" style="123" width="31.109375"/>
-    <col customWidth="1" max="7" min="7" style="123" width="1.33203125"/>
-    <col customWidth="1" max="9" min="9" style="117" width="2.33203125"/>
-    <col customWidth="1" max="11" min="11" style="117" width="3.109375"/>
-    <col customWidth="1" max="12" min="12" style="117" width="57.77734375"/>
+    <col customWidth="1" max="2" min="2" style="152" width="22"/>
+    <col customWidth="1" max="3" min="3" style="152" width="18"/>
+    <col customWidth="1" max="4" min="4" style="152" width="39.33203125"/>
+    <col customWidth="1" max="5" min="5" style="153" width="41.21875"/>
+    <col customWidth="1" max="6" min="6" style="153" width="31.109375"/>
+    <col customWidth="1" max="7" min="7" style="153" width="1.33203125"/>
+    <col customWidth="1" max="9" min="9" style="140" width="2.33203125"/>
+    <col customWidth="1" max="12" min="12" style="140" width="71.109375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="33.6" r="1" s="117" spans="1:22">
-      <c r="A1" t="s">
+    <row customHeight="1" ht="33.6" r="1" s="140" spans="1:22">
+      <c r="D1" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="137" t="s">
+    </row>
+    <row customHeight="1" ht="19.2" r="2" s="140" spans="1:22">
+      <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="19.2" r="2" s="117" spans="1:22">
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="27" t="n"/>
+    </row>
+    <row customHeight="1" ht="29.4" r="3" s="140" spans="1:22">
+      <c r="B3" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="29.4" r="3" s="117" spans="1:22">
-      <c r="B3" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="138">
+      <c r="C3" s="157">
         <f>IF(LEN(B3)&lt;8, "Insert Substation Name in Cell B3", "" )</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28" t="n"/>
-      <c r="D5" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.95" r="6" s="117" spans="1:22">
-      <c r="B6" s="98" t="n"/>
-      <c r="C6" s="130">
+    </row>
+    <row customHeight="1" ht="49.95" r="6" s="140" spans="1:22">
+      <c r="B6" s="128" t="n"/>
+      <c r="C6" s="82">
         <f>IF(LEN(B6)&gt;8, "Config Name Greater Than 8 Characters", "Insert Config Name In Cell B6" )</f>
         <v/>
       </c>
-      <c r="D6" s="47" t="n"/>
-      <c r="E6" s="130">
+      <c r="D6" s="46" t="n"/>
+      <c r="E6" s="82">
         <f>IF(LEN(D6)&lt;8, "Paste Config Properties Revision Text in Cell D6", "" )</f>
         <v/>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="128" t="n"/>
+      <c r="I6" s="128" t="n"/>
+      <c r="J6" s="128" t="n"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="H7" s="153" t="n"/>
+      <c r="I7" s="153" t="n"/>
+      <c r="J7" s="153" t="n"/>
+    </row>
+    <row customFormat="1" r="8" s="80" spans="1:22">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="98" t="n"/>
-      <c r="I6" s="98" t="n"/>
-      <c r="J6" s="98" t="n"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="H7" s="123" t="n"/>
-      <c r="I7" s="123" t="n"/>
-      <c r="J7" s="123" t="n"/>
-    </row>
-    <row customFormat="1" r="8" s="127" spans="1:22">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="129" t="s">
+      <c r="I8" s="158" t="n"/>
+      <c r="J8" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="129" t="n"/>
-      <c r="J8" s="129" t="s">
+      <c r="L8" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="127" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="9" s="127" spans="1:22" thickBot="1">
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="9" s="80" spans="1:22" thickBot="1">
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
-      <c r="F9" s="73" t="n"/>
+      <c r="F9" s="105" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="129" t="n"/>
-      <c r="I9" s="129" t="n"/>
-      <c r="J9" s="129" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="10" s="127" spans="1:22" thickBot="1">
-      <c r="B10" s="87" t="n"/>
-      <c r="C10" s="87" t="n"/>
-      <c r="D10" s="87" t="n"/>
-      <c r="E10" s="124" t="s">
+      <c r="H9" s="158" t="n"/>
+      <c r="I9" s="158" t="n"/>
+      <c r="J9" s="158" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="10" s="80" spans="1:22">
+      <c r="B10" s="91" t="n"/>
+      <c r="C10" s="91" t="n"/>
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="154" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="30" t="n"/>
+      <c r="H10" s="47" t="n"/>
+      <c r="I10" s="47" t="n"/>
+      <c r="J10" s="47" t="n"/>
+    </row>
+    <row customFormat="1" r="11" s="147" spans="1:22">
+      <c r="B11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="31" t="n"/>
-      <c r="H10" s="48" t="n"/>
-      <c r="I10" s="48" t="n"/>
-      <c r="J10" s="48" t="n"/>
-    </row>
-    <row customFormat="1" r="11" s="125" spans="1:22">
-      <c r="B11" s="87" t="s">
+      <c r="C11" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="D11" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="E11" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="87" t="n"/>
-      <c r="H11" s="98" t="n"/>
-      <c r="I11" s="98" t="n"/>
-      <c r="J11" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="12" s="125" spans="1:22">
+      <c r="G11" s="91" t="n"/>
+      <c r="H11" s="128" t="n"/>
+      <c r="I11" s="128" t="n"/>
+      <c r="J11" s="128" t="n"/>
+    </row>
+    <row customFormat="1" r="12" s="147" spans="1:22">
       <c r="E12" s="67" t="n"/>
       <c r="F12" s="68" t="n"/>
-      <c r="H12" s="98" t="n"/>
-      <c r="I12" s="98" t="n"/>
-      <c r="J12" s="98" t="n"/>
-      <c r="L12" s="103" t="s">
+      <c r="H12" s="128" t="n"/>
+      <c r="I12" s="128" t="n"/>
+      <c r="J12" s="128" t="n"/>
+      <c r="V12" s="147" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="13" s="147" spans="1:22">
+      <c r="D13" s="150" t="s">
         <v>35</v>
-      </c>
-      <c r="V12" s="125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="13" s="125" spans="1:22">
-      <c r="D13" s="126" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="67" t="n"/>
       <c r="F13" s="68" t="n"/>
-      <c r="H13" s="98" t="n"/>
-      <c r="I13" s="98" t="n"/>
-      <c r="J13" s="98" t="n"/>
-      <c r="L13" s="104" t="s">
+      <c r="H13" s="128" t="n"/>
+      <c r="I13" s="128" t="n"/>
+      <c r="J13" s="128" t="n"/>
+      <c r="L13" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="125" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" s="125" spans="1:22">
+    </row>
+    <row customFormat="1" r="14" s="147" spans="1:22">
       <c r="E14" s="67" t="n"/>
       <c r="F14" s="68" t="n"/>
-      <c r="H14" s="98" t="n"/>
-      <c r="I14" s="98" t="n"/>
-      <c r="J14" s="98" t="n"/>
-      <c r="L14" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="125" spans="1:22">
+      <c r="H14" s="128" t="n"/>
+      <c r="I14" s="128" t="n"/>
+      <c r="J14" s="128" t="n"/>
+      <c r="L14" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="147" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="147" spans="1:22">
       <c r="E15" s="67" t="n"/>
       <c r="F15" s="68" t="n"/>
-      <c r="H15" s="98" t="n"/>
-      <c r="I15" s="98" t="n"/>
-      <c r="J15" s="98" t="n"/>
-      <c r="L15" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="125" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="125" spans="1:22">
+      <c r="H15" s="128" t="n"/>
+      <c r="I15" s="128" t="n"/>
+      <c r="J15" s="128" t="n"/>
+      <c r="L15" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="147" spans="1:22">
       <c r="E16" s="67" t="n"/>
       <c r="F16" s="68" t="n"/>
-      <c r="H16" s="98" t="n"/>
-      <c r="I16" s="98" t="n"/>
-      <c r="J16" s="98" t="n"/>
-      <c r="L16" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="125" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" s="125" spans="1:22">
+      <c r="H16" s="128" t="n"/>
+      <c r="I16" s="128" t="n"/>
+      <c r="J16" s="128" t="n"/>
+      <c r="L16" s="147" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" s="147" spans="1:22">
       <c r="E17" s="67" t="n"/>
       <c r="F17" s="68" t="n"/>
-      <c r="H17" s="98" t="n"/>
-      <c r="I17" s="98" t="n"/>
-      <c r="J17" s="98" t="n"/>
-      <c r="L17" s="105" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="125" spans="1:22">
+      <c r="H17" s="128" t="n"/>
+      <c r="I17" s="128" t="n"/>
+      <c r="J17" s="128" t="n"/>
+      <c r="L17" s="147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="147" spans="1:22">
       <c r="E18" s="67" t="n"/>
       <c r="F18" s="68" t="n"/>
-      <c r="H18" s="98" t="n"/>
-      <c r="I18" s="98" t="n"/>
-      <c r="J18" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="19" s="125" spans="1:22" thickBot="1">
+      <c r="H18" s="128" t="n"/>
+      <c r="I18" s="128" t="n"/>
+      <c r="J18" s="128" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="19" s="147" spans="1:22" thickBot="1">
       <c r="E19" s="71" t="n"/>
       <c r="F19" s="69" t="n"/>
-      <c r="H19" s="98" t="n"/>
-      <c r="I19" s="98" t="n"/>
-      <c r="J19" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="20" s="125" spans="1:22" thickBot="1">
-      <c r="F20" s="74" t="n"/>
-      <c r="H20" s="98" t="n"/>
-      <c r="I20" s="98" t="n"/>
-      <c r="J20" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="21" s="125" spans="1:22" thickBot="1">
-      <c r="E21" s="124" t="s">
+      <c r="H19" s="128" t="n"/>
+      <c r="I19" s="128" t="n"/>
+      <c r="J19" s="128" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="20" s="147" spans="1:22" thickBot="1">
+      <c r="F20" s="112" t="n"/>
+      <c r="H20" s="128" t="n"/>
+      <c r="I20" s="128" t="n"/>
+      <c r="J20" s="128" t="n"/>
+      <c r="L20" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="21" s="147" spans="1:22">
+      <c r="E21" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="106" t="n"/>
+      <c r="H21" s="128" t="n"/>
+      <c r="I21" s="128" t="n"/>
+      <c r="J21" s="128" t="n"/>
+      <c r="L21" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="22" s="147" spans="1:22">
+      <c r="B22" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="91" t="n"/>
+      <c r="H22" s="128" t="n"/>
+      <c r="I22" s="128" t="n"/>
+      <c r="J22" s="128" t="n"/>
+      <c r="L22" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="23" s="147" spans="1:22">
+      <c r="E23" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="128" t="n"/>
+      <c r="I23" s="128" t="n"/>
+      <c r="J23" s="128" t="n"/>
+      <c r="L23" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="24" s="147" spans="1:22">
+      <c r="D24" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="89" t="n"/>
-      <c r="H21" s="98" t="n"/>
-      <c r="I21" s="98" t="n"/>
-      <c r="J21" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="22" s="125" spans="1:22">
-      <c r="B22" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="87" t="n"/>
-      <c r="H22" s="98" t="n"/>
-      <c r="I22" s="98" t="n"/>
-      <c r="J22" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="23" s="125" spans="1:22">
-      <c r="E23" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="68" t="s">
+      <c r="H24" s="128" t="n"/>
+      <c r="I24" s="128" t="n"/>
+      <c r="J24" s="128" t="n"/>
+      <c r="L24" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="25" s="147" spans="1:22">
+      <c r="E25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="98" t="n"/>
-      <c r="I23" s="98" t="n"/>
-      <c r="J23" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="24" s="125" spans="1:22">
-      <c r="D24" s="126" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="68" t="s">
+      <c r="H25" s="128" t="n"/>
+      <c r="I25" s="128" t="n"/>
+      <c r="J25" s="128" t="n"/>
+      <c r="L25" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="26" s="147" spans="1:22">
+      <c r="E26" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="98" t="n"/>
-      <c r="I24" s="98" t="n"/>
-      <c r="J24" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="25" s="125" spans="1:22">
-      <c r="E25" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="98" t="n"/>
-      <c r="I25" s="98" t="n"/>
-      <c r="J25" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="26" s="125" spans="1:22">
-      <c r="E26" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="98" t="n"/>
-      <c r="I26" s="98" t="n"/>
-      <c r="J26" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="27" s="125" spans="1:22">
+      <c r="H26" s="128" t="n"/>
+      <c r="I26" s="128" t="n"/>
+      <c r="J26" s="128" t="n"/>
+      <c r="L26" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="27" s="147" spans="1:22">
       <c r="E27" s="67" t="n"/>
       <c r="F27" s="68" t="n"/>
-      <c r="H27" s="98" t="n"/>
-      <c r="I27" s="98" t="n"/>
-      <c r="J27" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="28" s="125" spans="1:22">
+      <c r="H27" s="128" t="n"/>
+      <c r="I27" s="128" t="n"/>
+      <c r="J27" s="128" t="n"/>
+      <c r="L27" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="28" s="147" spans="1:22">
       <c r="E28" s="67" t="n"/>
       <c r="F28" s="68" t="n"/>
-      <c r="H28" s="98" t="n"/>
-      <c r="I28" s="98" t="n"/>
-      <c r="J28" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="29" s="125" spans="1:22">
+      <c r="H28" s="128" t="n"/>
+      <c r="I28" s="128" t="n"/>
+      <c r="J28" s="128" t="n"/>
+      <c r="L28" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="29" s="147" spans="1:22">
       <c r="E29" s="67" t="n"/>
       <c r="F29" s="68" t="n"/>
-      <c r="H29" s="98" t="n"/>
-      <c r="I29" s="98" t="n"/>
-      <c r="J29" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="30" s="125" spans="1:22" thickBot="1">
+      <c r="H29" s="128" t="n"/>
+      <c r="I29" s="128" t="n"/>
+      <c r="J29" s="128" t="n"/>
+      <c r="L29" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="30" s="147" spans="1:22" thickBot="1">
       <c r="E30" s="71" t="n"/>
       <c r="F30" s="69" t="n"/>
-      <c r="H30" s="98" t="n"/>
-      <c r="I30" s="98" t="n"/>
-      <c r="J30" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="31" s="125" spans="1:22">
-      <c r="B31" s="87" t="n"/>
-      <c r="C31" s="87" t="n"/>
-      <c r="D31" s="87" t="n"/>
-      <c r="E31" s="87" t="n"/>
-      <c r="F31" s="87" t="n"/>
-      <c r="G31" s="87" t="n"/>
-      <c r="H31" s="127" t="n"/>
-      <c r="I31" s="127" t="n"/>
-      <c r="J31" s="127" t="n"/>
-      <c r="K31" s="127" t="n"/>
-      <c r="L31" s="127" t="n"/>
-      <c r="M31" s="127" t="n"/>
-    </row>
-    <row customFormat="1" r="32" s="125" spans="1:22"/>
-    <row customFormat="1" r="33" s="125" spans="1:22">
-      <c r="B33" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="88" t="s">
+      <c r="H30" s="128" t="n"/>
+      <c r="I30" s="128" t="n"/>
+      <c r="J30" s="128" t="n"/>
+      <c r="L30" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="31" s="147" spans="1:22">
+      <c r="B31" s="91" t="n"/>
+      <c r="C31" s="91" t="n"/>
+      <c r="D31" s="91" t="n"/>
+      <c r="E31" s="91" t="n"/>
+      <c r="F31" s="91" t="n"/>
+      <c r="G31" s="91" t="n"/>
+      <c r="H31" s="80" t="n"/>
+      <c r="I31" s="80" t="n"/>
+      <c r="J31" s="80" t="n"/>
+      <c r="K31" s="80" t="n"/>
+      <c r="L31" s="138" t="n"/>
+      <c r="M31" s="80" t="n"/>
+    </row>
+    <row customFormat="1" r="32" s="147" spans="1:22">
+      <c r="L32" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="33" s="147" spans="1:22">
+      <c r="B33" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="F33" s="91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="91" t="n"/>
+      <c r="H33" s="128" t="n"/>
+      <c r="I33" s="128" t="n"/>
+      <c r="J33" s="128" t="n"/>
+      <c r="L33" s="173" t="n"/>
+    </row>
+    <row customFormat="1" r="34" s="147" spans="1:22">
+      <c r="B34" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="D34" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="G33" s="87" t="n"/>
-      <c r="H33" s="98" t="n"/>
-      <c r="I33" s="98" t="n"/>
-      <c r="J33" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="34" s="125" spans="1:22">
-      <c r="B34" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="87" t="s">
+      <c r="F34" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="87" t="s">
+      <c r="G34" s="91" t="n"/>
+      <c r="H34" s="128" t="n"/>
+      <c r="I34" s="128" t="n"/>
+      <c r="J34" s="128" t="n"/>
+      <c r="L34" s="173" t="n"/>
+    </row>
+    <row customFormat="1" r="35" s="147" spans="1:22">
+      <c r="B35" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F35" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="91" t="n"/>
+      <c r="H35" s="128" t="n"/>
+      <c r="I35" s="128" t="n"/>
+      <c r="J35" s="128" t="n"/>
+      <c r="L35" s="173" t="n"/>
+    </row>
+    <row customFormat="1" r="36" s="147" spans="1:22">
+      <c r="B36" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="87" t="n"/>
-      <c r="H34" s="98" t="n"/>
-      <c r="I34" s="98" t="n"/>
-      <c r="J34" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="35" s="125" spans="1:22">
-      <c r="B35" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="87" t="s">
+      <c r="F36" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="87" t="n"/>
-      <c r="H35" s="98" t="n"/>
-      <c r="I35" s="98" t="n"/>
-      <c r="J35" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="36" s="125" spans="1:22">
-      <c r="B36" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="87" t="s">
+      <c r="G36" s="91" t="n"/>
+      <c r="H36" s="128" t="n"/>
+      <c r="I36" s="128" t="n"/>
+      <c r="J36" s="128" t="n"/>
+      <c r="L36" s="173" t="n"/>
+    </row>
+    <row customFormat="1" r="37" s="147" spans="1:22">
+      <c r="B37" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F37" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="87" t="n"/>
-      <c r="H36" s="98" t="n"/>
-      <c r="I36" s="98" t="n"/>
-      <c r="J36" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="37" s="125" spans="1:22">
-      <c r="B37" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="87" t="s">
+      <c r="G37" s="91" t="n"/>
+      <c r="H37" s="128" t="n"/>
+      <c r="I37" s="128" t="n"/>
+      <c r="J37" s="128" t="n"/>
+      <c r="L37" s="173" t="n"/>
+    </row>
+    <row customFormat="1" r="38" s="147" spans="1:22">
+      <c r="B38" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F38" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="87" t="n"/>
-      <c r="H37" s="98" t="n"/>
-      <c r="I37" s="98" t="n"/>
-      <c r="J37" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="38" s="125" spans="1:22">
-      <c r="B38" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="87" t="s">
+      <c r="G38" s="91" t="n"/>
+      <c r="H38" s="128" t="n"/>
+      <c r="I38" s="128" t="n"/>
+      <c r="J38" s="128" t="n"/>
+      <c r="L38" s="173" t="n"/>
+    </row>
+    <row customFormat="1" r="39" s="147" spans="1:22">
+      <c r="B39" s="91" t="n"/>
+      <c r="C39" s="91" t="n"/>
+      <c r="D39" s="91" t="n"/>
+      <c r="E39" s="91" t="n"/>
+      <c r="F39" s="91" t="n"/>
+      <c r="G39" s="91" t="n"/>
+      <c r="H39" s="128" t="n"/>
+      <c r="I39" s="128" t="n"/>
+      <c r="J39" s="128" t="n"/>
+      <c r="L39" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="40" s="147" spans="1:22">
+      <c r="B40" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="C40" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="87" t="n"/>
-      <c r="H38" s="98" t="n"/>
-      <c r="I38" s="98" t="n"/>
-      <c r="J38" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="39" s="125" spans="1:22">
-      <c r="B39" s="87" t="n"/>
-      <c r="C39" s="87" t="n"/>
-      <c r="D39" s="87" t="n"/>
-      <c r="E39" s="87" t="n"/>
-      <c r="F39" s="87" t="n"/>
-      <c r="G39" s="87" t="n"/>
-      <c r="H39" s="98" t="n"/>
-      <c r="I39" s="98" t="n"/>
-      <c r="J39" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="40" s="125" spans="1:22">
-      <c r="B40" s="87" t="s">
+      <c r="D40" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="E40" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="F40" s="91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="91" t="n"/>
+      <c r="H40" s="128" t="n"/>
+      <c r="I40" s="128" t="n"/>
+      <c r="J40" s="128" t="n"/>
+      <c r="L40" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="87" t="s">
+    </row>
+    <row customFormat="1" r="41" s="147" spans="1:22">
+      <c r="B41" s="91" t="n"/>
+      <c r="C41" s="91" t="n"/>
+      <c r="D41" s="91" t="n"/>
+      <c r="E41" s="91" t="n"/>
+      <c r="F41" s="91" t="n"/>
+      <c r="G41" s="91" t="n"/>
+      <c r="H41" s="128" t="n"/>
+      <c r="I41" s="128" t="n"/>
+      <c r="J41" s="128" t="n"/>
+      <c r="L41" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="42" s="147" spans="1:22">
+      <c r="B42" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="87" t="n"/>
-      <c r="H40" s="98" t="n"/>
-      <c r="I40" s="98" t="n"/>
-      <c r="J40" s="98" t="n"/>
-      <c r="L40" s="141" t="s">
+      <c r="C42" s="91" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row customFormat="1" r="41" s="125" spans="1:22">
-      <c r="B41" s="87" t="n"/>
-      <c r="C41" s="87" t="n"/>
-      <c r="D41" s="87" t="n"/>
-      <c r="E41" s="87" t="n"/>
-      <c r="F41" s="87" t="n"/>
-      <c r="G41" s="87" t="n"/>
-      <c r="H41" s="98" t="n"/>
-      <c r="I41" s="98" t="n"/>
-      <c r="J41" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="42" s="125" spans="1:22">
-      <c r="B42" s="87" t="s">
+      <c r="D42" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="E42" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="F42" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="G42" s="91" t="n"/>
+      <c r="H42" s="128" t="n"/>
+      <c r="I42" s="128" t="n"/>
+      <c r="J42" s="128" t="n"/>
+      <c r="L42" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="87" t="s">
+    </row>
+    <row customFormat="1" r="43" s="147" spans="1:22">
+      <c r="B43" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="87" t="n"/>
-      <c r="H42" s="98" t="n"/>
-      <c r="I42" s="98" t="n"/>
-      <c r="J42" s="98" t="n"/>
-      <c r="L42" s="141" t="s">
+      <c r="D43" s="91" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row customFormat="1" r="43" s="125" spans="1:22">
-      <c r="B43" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="87" t="s">
+      <c r="E43" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="F43" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="G43" s="91" t="n"/>
+      <c r="H43" s="128" t="n"/>
+      <c r="I43" s="128" t="n"/>
+      <c r="J43" s="128" t="n"/>
+      <c r="L43" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="44" s="147" spans="1:22" thickBot="1">
+      <c r="B44" s="91" t="n"/>
+      <c r="C44" s="91" t="n"/>
+      <c r="D44" s="91" t="n"/>
+      <c r="E44" s="32" t="n"/>
+      <c r="F44" s="91" t="n"/>
+      <c r="G44" s="91" t="n"/>
+      <c r="H44" s="128" t="n"/>
+      <c r="I44" s="128" t="n"/>
+      <c r="J44" s="128" t="n"/>
+      <c r="L44" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="45" s="147" spans="1:22">
+      <c r="B45" s="28" t="n"/>
+      <c r="C45" s="29" t="n"/>
+      <c r="D45" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F45" s="16" t="n"/>
+      <c r="G45" s="91" t="n"/>
+      <c r="H45" s="128" t="n"/>
+      <c r="I45" s="128" t="n"/>
+      <c r="J45" s="128" t="n"/>
+      <c r="L45" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="46" s="147" spans="1:22">
+      <c r="B46" s="30" t="n"/>
+      <c r="C46" s="91" t="n"/>
+      <c r="D46" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="87" t="n"/>
-      <c r="H43" s="98" t="n"/>
-      <c r="I43" s="98" t="n"/>
-      <c r="J43" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="44" s="125" spans="1:22" thickBot="1">
-      <c r="B44" s="87" t="n"/>
-      <c r="C44" s="87" t="n"/>
-      <c r="D44" s="33" t="n"/>
-      <c r="E44" s="33" t="n"/>
-      <c r="F44" s="87" t="n"/>
-      <c r="G44" s="87" t="n"/>
-      <c r="H44" s="98" t="n"/>
-      <c r="I44" s="98" t="n"/>
-      <c r="J44" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="45" s="125" spans="1:22">
-      <c r="B45" s="29" t="n"/>
-      <c r="C45" s="30" t="n"/>
-      <c r="D45" s="129" t="s">
+      <c r="F46" s="66" t="n"/>
+      <c r="G46" s="91" t="n"/>
+      <c r="H46" s="128" t="n"/>
+      <c r="I46" s="128" t="n"/>
+      <c r="J46" s="128" t="n"/>
+      <c r="L46" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="47" s="147" spans="1:22">
+      <c r="A47" s="110" t="n"/>
+      <c r="B47" s="91" t="n"/>
+      <c r="C47" s="91" t="n"/>
+      <c r="D47" s="91" t="n"/>
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="66" t="n"/>
+      <c r="G47" s="91" t="n"/>
+      <c r="H47" s="128" t="n"/>
+      <c r="I47" s="128" t="n"/>
+      <c r="J47" s="128" t="n"/>
+      <c r="L47" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="48" s="147" spans="1:22">
+      <c r="A48" s="110" t="n"/>
+      <c r="B48" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="14" t="n"/>
-      <c r="G45" s="87" t="n"/>
-      <c r="H45" s="98" t="n"/>
-      <c r="I45" s="98" t="n"/>
-      <c r="J45" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="46" s="125" spans="1:22">
-      <c r="B46" s="31" t="n"/>
-      <c r="C46" s="87" t="n"/>
-      <c r="D46" s="138" t="s">
+      <c r="C48" s="91" t="n"/>
+      <c r="D48" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="66" t="n"/>
-      <c r="G46" s="87" t="n"/>
-      <c r="H46" s="98" t="n"/>
-      <c r="I46" s="98" t="n"/>
-      <c r="J46" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="47" s="125" spans="1:22">
-      <c r="B47" s="31" t="n"/>
-      <c r="C47" s="87" t="n"/>
-      <c r="D47" s="87" t="n"/>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="66" t="n"/>
-      <c r="G47" s="87" t="n"/>
-      <c r="H47" s="98" t="n"/>
-      <c r="I47" s="98" t="n"/>
-      <c r="J47" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="48" s="125" spans="1:22">
-      <c r="B48" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="87" t="n"/>
-      <c r="D48" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <f>C65</f>
         <v/>
       </c>
-      <c r="F48" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="87" t="n"/>
-      <c r="H48" s="98" t="n"/>
-      <c r="I48" s="98" t="n"/>
-      <c r="J48" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="49" s="125" spans="1:22">
-      <c r="A49" s="91" t="n"/>
-      <c r="C49" s="87" t="n"/>
-      <c r="D49" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="9">
+      <c r="F48" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="91" t="n"/>
+      <c r="H48" s="128" t="n"/>
+      <c r="I48" s="128" t="n"/>
+      <c r="J48" s="128" t="n"/>
+      <c r="L48" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="49" s="147" spans="1:22">
+      <c r="A49" s="110" t="n"/>
+      <c r="C49" s="91" t="n"/>
+      <c r="D49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="10">
         <f>D65</f>
         <v/>
       </c>
-      <c r="G49" s="31" t="n"/>
-      <c r="H49" s="98" t="n"/>
-      <c r="I49" s="98" t="n"/>
-      <c r="J49" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="50" s="125" spans="1:22">
-      <c r="A50" s="91" t="n"/>
-      <c r="C50" s="87" t="n"/>
-      <c r="D50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="G49" s="30" t="n"/>
+      <c r="H49" s="128" t="n"/>
+      <c r="I49" s="128" t="n"/>
+      <c r="J49" s="128" t="n"/>
+      <c r="L49" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="50" s="147" spans="1:22">
+      <c r="A50" s="110" t="n"/>
+      <c r="C50" s="91" t="n"/>
+      <c r="D50" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="10">
         <f>B65</f>
         <v/>
       </c>
-      <c r="G50" s="31" t="n"/>
-      <c r="H50" s="98" t="n"/>
-      <c r="I50" s="98" t="n"/>
-      <c r="J50" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="51" s="125" spans="1:22">
-      <c r="A51" s="91" t="n"/>
-      <c r="C51" s="87" t="n"/>
-      <c r="D51" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="G50" s="30" t="n"/>
+      <c r="H50" s="128" t="n"/>
+      <c r="I50" s="128" t="n"/>
+      <c r="J50" s="128" t="n"/>
+      <c r="L50" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="51" s="147" spans="1:22">
+      <c r="A51" s="110" t="n"/>
+      <c r="C51" s="91" t="n"/>
+      <c r="D51" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="10">
         <f>F65</f>
         <v/>
       </c>
-      <c r="G51" s="31" t="n"/>
-      <c r="H51" s="98" t="n"/>
-      <c r="I51" s="98" t="n"/>
-      <c r="J51" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="52" s="125" spans="1:22">
-      <c r="B52" s="31" t="n"/>
-      <c r="C52" s="87" t="n"/>
-      <c r="D52" s="90" t="n"/>
-      <c r="E52" s="123" t="n"/>
-      <c r="F52" s="15" t="n"/>
-      <c r="G52" s="87" t="n"/>
-      <c r="H52" s="98" t="n"/>
-      <c r="I52" s="98" t="n"/>
-      <c r="J52" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="53" s="125" spans="1:22">
-      <c r="B53" s="131" t="s">
+      <c r="G51" s="30" t="n"/>
+      <c r="H51" s="128" t="n"/>
+      <c r="I51" s="128" t="n"/>
+      <c r="J51" s="128" t="n"/>
+      <c r="L51" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="52" s="147" spans="1:22">
+      <c r="A52" s="110" t="n"/>
+      <c r="B52" s="91" t="n"/>
+      <c r="C52" s="91" t="n"/>
+      <c r="D52" s="11" t="n"/>
+      <c r="E52" s="153" t="n"/>
+      <c r="F52" s="150" t="n"/>
+      <c r="G52" s="30" t="n"/>
+      <c r="H52" s="128" t="n"/>
+      <c r="I52" s="128" t="n"/>
+      <c r="J52" s="128" t="n"/>
+      <c r="L52" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="53" s="147" spans="1:22">
+      <c r="B53" s="161" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="30" t="n"/>
+      <c r="H53" s="128" t="n"/>
+      <c r="I53" s="128" t="n"/>
+      <c r="J53" s="128" t="n"/>
+      <c r="L53" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="54" s="147" spans="1:22">
+      <c r="B54" s="30" t="n"/>
+      <c r="C54" s="91" t="n"/>
+      <c r="D54" s="91" t="n"/>
+      <c r="E54" s="91" t="n"/>
+      <c r="F54" s="91" t="n"/>
+      <c r="G54" s="30" t="n"/>
+      <c r="H54" s="128" t="n"/>
+      <c r="I54" s="128" t="n"/>
+      <c r="J54" s="128" t="n"/>
+      <c r="L54" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="55" s="147" spans="1:22">
+      <c r="B55" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="31" t="n"/>
-      <c r="H53" s="98" t="n"/>
-      <c r="I53" s="98" t="n"/>
-      <c r="J53" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="54" s="125" spans="1:22">
-      <c r="B54" s="31" t="n"/>
-      <c r="C54" s="87" t="n"/>
-      <c r="D54" s="87" t="n"/>
-      <c r="E54" s="87" t="n"/>
-      <c r="F54" s="66" t="n"/>
-      <c r="G54" s="87" t="n"/>
-      <c r="H54" s="98" t="n"/>
-      <c r="I54" s="98" t="n"/>
-      <c r="J54" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="55" s="125" spans="1:22">
-      <c r="B55" s="16" t="s">
+      <c r="D55" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="F55" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="87" t="n"/>
-      <c r="H55" s="98" t="n"/>
-      <c r="I55" s="98" t="n"/>
-      <c r="J55" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="56" s="125" spans="1:22">
+      <c r="G55" s="30" t="n"/>
+      <c r="H55" s="128" t="n"/>
+      <c r="I55" s="128" t="n"/>
+      <c r="J55" s="128" t="n"/>
+      <c r="L55" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="56" s="147" spans="1:22">
       <c r="B56" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="C56" s="10" t="n">
+      <c r="C56" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="E56" s="10" t="n"/>
-      <c r="F56" s="19" t="n">
+      <c r="E56" s="12" t="n"/>
+      <c r="F56" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="87" t="n"/>
-      <c r="H56" s="98" t="n"/>
-      <c r="I56" s="98" t="n"/>
-      <c r="J56" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="57" s="125" spans="1:22">
+      <c r="G56" s="30" t="n"/>
+      <c r="H56" s="128" t="n"/>
+      <c r="I56" s="128" t="n"/>
+      <c r="J56" s="128" t="n"/>
+      <c r="L56" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="57" s="147" spans="1:22">
       <c r="B57" s="58" t="n"/>
-      <c r="C57" s="98" t="n"/>
-      <c r="D57" s="98" t="n"/>
-      <c r="E57" s="98" t="n"/>
+      <c r="C57" s="128" t="n"/>
+      <c r="D57" s="128" t="n"/>
+      <c r="E57" s="128" t="n"/>
       <c r="F57" s="51" t="n"/>
-      <c r="G57" s="87" t="n"/>
-      <c r="H57" s="98" t="n"/>
-      <c r="I57" s="98" t="n"/>
-      <c r="J57" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="58" s="125" spans="1:22">
+      <c r="G57" s="91" t="n"/>
+      <c r="H57" s="128" t="n"/>
+      <c r="I57" s="128" t="n"/>
+      <c r="J57" s="128" t="n"/>
+      <c r="L57" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="58" s="147" spans="1:22">
       <c r="B58" s="59">
         <f>(F57*5)</f>
         <v/>
@@ -4640,23 +5118,25 @@
       </c>
       <c r="E58" s="60" t="n"/>
       <c r="F58" s="61" t="n"/>
-      <c r="G58" s="87" t="n"/>
-      <c r="H58" s="98" t="n"/>
-      <c r="I58" s="98" t="n"/>
-      <c r="J58" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="59" s="125" spans="1:22">
+      <c r="G58" s="91" t="n"/>
+      <c r="H58" s="128" t="n"/>
+      <c r="I58" s="128" t="n"/>
+      <c r="J58" s="128" t="n"/>
+      <c r="L58" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="59" s="147" spans="1:22">
       <c r="B59" s="58" t="n"/>
-      <c r="C59" s="98" t="n"/>
-      <c r="D59" s="98" t="n"/>
-      <c r="E59" s="98" t="n"/>
+      <c r="C59" s="128" t="n"/>
+      <c r="D59" s="128" t="n"/>
+      <c r="E59" s="128" t="n"/>
       <c r="F59" s="51" t="n"/>
-      <c r="G59" s="87" t="n"/>
-      <c r="H59" s="98" t="n"/>
-      <c r="I59" s="98" t="n"/>
-      <c r="J59" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="60" s="125" spans="1:22">
+      <c r="G59" s="91" t="n"/>
+      <c r="H59" s="128" t="n"/>
+      <c r="I59" s="128" t="n"/>
+      <c r="J59" s="128" t="n"/>
+      <c r="L59" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="60" s="147" spans="1:22">
       <c r="B60" s="59">
         <f>(F59*5)</f>
         <v/>
@@ -4671,23 +5151,25 @@
       </c>
       <c r="E60" s="60" t="n"/>
       <c r="F60" s="61" t="n"/>
-      <c r="G60" s="87" t="n"/>
-      <c r="H60" s="98" t="n"/>
-      <c r="I60" s="98" t="n"/>
-      <c r="J60" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="61" s="125" spans="1:22">
+      <c r="G60" s="91" t="n"/>
+      <c r="H60" s="128" t="n"/>
+      <c r="I60" s="128" t="n"/>
+      <c r="J60" s="128" t="n"/>
+      <c r="L60" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="61" s="147" spans="1:22">
       <c r="B61" s="58" t="n"/>
-      <c r="C61" s="98" t="n"/>
-      <c r="D61" s="98" t="n"/>
-      <c r="E61" s="98" t="n"/>
+      <c r="C61" s="128" t="n"/>
+      <c r="D61" s="128" t="n"/>
+      <c r="E61" s="128" t="n"/>
       <c r="F61" s="51" t="n"/>
-      <c r="G61" s="87" t="n"/>
-      <c r="H61" s="98" t="n"/>
-      <c r="I61" s="98" t="n"/>
-      <c r="J61" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="125" spans="1:22">
+      <c r="G61" s="91" t="n"/>
+      <c r="H61" s="128" t="n"/>
+      <c r="I61" s="128" t="n"/>
+      <c r="J61" s="128" t="n"/>
+      <c r="L61" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="62" s="147" spans="1:22">
       <c r="B62" s="59">
         <f>(F61*5)</f>
         <v/>
@@ -4702,2432 +5184,3038 @@
       </c>
       <c r="E62" s="60" t="n"/>
       <c r="F62" s="61" t="n"/>
-      <c r="G62" s="87" t="n"/>
-      <c r="H62" s="98" t="n"/>
-      <c r="I62" s="98" t="n"/>
-      <c r="J62" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="125" spans="1:22">
+      <c r="G62" s="91" t="n"/>
+      <c r="H62" s="128" t="n"/>
+      <c r="I62" s="128" t="n"/>
+      <c r="J62" s="128" t="n"/>
+      <c r="L62" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="63" s="147" spans="1:22">
       <c r="B63" s="58" t="n"/>
-      <c r="C63" s="98" t="n"/>
-      <c r="D63" s="98" t="n"/>
-      <c r="E63" s="98" t="n"/>
+      <c r="C63" s="128" t="n"/>
+      <c r="D63" s="128" t="n"/>
+      <c r="E63" s="128" t="n"/>
       <c r="F63" s="51" t="n"/>
-      <c r="G63" s="87" t="n"/>
-      <c r="H63" s="98" t="n"/>
-      <c r="I63" s="98" t="n"/>
-      <c r="J63" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="125" spans="1:22">
+      <c r="G63" s="91" t="n"/>
+      <c r="H63" s="128" t="n"/>
+      <c r="I63" s="128" t="n"/>
+      <c r="J63" s="128" t="n"/>
+      <c r="L63" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="64" s="147" spans="1:22">
       <c r="B64" s="18">
         <f>(F63*5)</f>
         <v/>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="12">
         <f>(F63*13)</f>
         <v/>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="12">
         <f>(F63*10)</f>
         <v/>
       </c>
-      <c r="E64" s="10" t="n"/>
-      <c r="F64" s="20" t="n"/>
-      <c r="G64" s="87" t="n"/>
-      <c r="H64" s="98" t="n"/>
-      <c r="I64" s="98" t="n"/>
-      <c r="J64" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="65" s="125" spans="1:22" thickBot="1">
-      <c r="B65" s="21">
+      <c r="E64" s="12" t="n"/>
+      <c r="F64" s="19" t="n"/>
+      <c r="G64" s="91" t="n"/>
+      <c r="H64" s="128" t="n"/>
+      <c r="I64" s="128" t="n"/>
+      <c r="J64" s="128" t="n"/>
+      <c r="L64" s="137" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="65" s="147" spans="1:22" thickBot="1">
+      <c r="B65" s="20">
         <f>SUM(B56:B64)</f>
         <v/>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="21">
         <f>SUM(C56:C64)</f>
         <v/>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <f>SUM(D56:D64)</f>
         <v/>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="21">
         <f>SUM(E56:E64)</f>
         <v/>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <f>SUM(F56:F64)</f>
         <v/>
       </c>
-      <c r="G65" s="87" t="n"/>
-      <c r="H65" s="98" t="n"/>
-      <c r="I65" s="98" t="n"/>
-      <c r="J65" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="66" s="125" spans="1:22">
-      <c r="B66" s="87" t="n"/>
-      <c r="C66" s="87" t="n"/>
-      <c r="D66" s="87" t="n"/>
-      <c r="E66" s="87" t="n"/>
-      <c r="F66" s="87" t="n"/>
-      <c r="G66" s="87" t="n"/>
-      <c r="H66" s="98" t="n"/>
-      <c r="I66" s="98" t="n"/>
-      <c r="J66" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="67" s="125" spans="1:22">
-      <c r="B67" s="87" t="s">
+      <c r="G65" s="91" t="n"/>
+      <c r="H65" s="128" t="n"/>
+      <c r="I65" s="128" t="n"/>
+      <c r="J65" s="128" t="n"/>
+      <c r="L65" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="66" s="147" spans="1:22">
+      <c r="B66" s="91" t="n"/>
+      <c r="C66" s="91" t="n"/>
+      <c r="D66" s="91" t="n"/>
+      <c r="E66" s="91" t="n"/>
+      <c r="F66" s="91" t="n"/>
+      <c r="G66" s="91" t="n"/>
+      <c r="H66" s="128" t="n"/>
+      <c r="I66" s="128" t="n"/>
+      <c r="J66" s="128" t="n"/>
+      <c r="L66" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="67" s="147" spans="1:22">
+      <c r="B67" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="E67" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="F67" s="91" t="n">
+        <v>500</v>
+      </c>
+      <c r="G67" s="91" t="n"/>
+      <c r="H67" s="128" t="n"/>
+      <c r="I67" s="128" t="n"/>
+      <c r="J67" s="128" t="n"/>
+      <c r="L67" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="87" t="s">
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.2" r="68" s="147" spans="1:22">
+      <c r="B68" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="87" t="n">
-        <v>500</v>
-      </c>
-      <c r="G67" s="87" t="n"/>
-      <c r="H67" s="98" t="n"/>
-      <c r="I67" s="98" t="n"/>
-      <c r="J67" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.2" r="68" s="125" spans="1:22">
-      <c r="B68" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="87" t="s">
+      <c r="F68" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="87" t="s">
+      <c r="G68" s="91" t="n"/>
+      <c r="H68" s="128" t="n"/>
+      <c r="I68" s="128" t="n"/>
+      <c r="J68" s="128" t="n"/>
+      <c r="L68" s="173" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customFormat="1" r="69" s="147" spans="1:22">
+      <c r="B69" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="G68" s="87" t="n"/>
-      <c r="H68" s="98" t="n"/>
-      <c r="I68" s="98" t="n"/>
-      <c r="J68" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="69" s="125" spans="1:22">
-      <c r="B69" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="87" t="s">
+      <c r="D69" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="87" t="s">
+      <c r="E69" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="87" t="s">
+      <c r="F69" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="91" t="n"/>
+      <c r="H69" s="128" t="n"/>
+      <c r="I69" s="128" t="n"/>
+      <c r="J69" s="128" t="n"/>
+      <c r="L69" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="F69" s="87" t="n">
+    </row>
+    <row customFormat="1" r="70" s="147" spans="1:22">
+      <c r="B70" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="87" t="n"/>
-      <c r="H69" s="98" t="n"/>
-      <c r="I69" s="98" t="n"/>
-      <c r="J69" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="70" s="125" spans="1:22">
-      <c r="B70" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="87" t="n"/>
-      <c r="H70" s="98" t="n"/>
-      <c r="I70" s="98" t="n"/>
-      <c r="J70" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="71" s="125" spans="1:22">
-      <c r="B71" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="87" t="s">
+      <c r="G70" s="91" t="n"/>
+      <c r="H70" s="128" t="n"/>
+      <c r="I70" s="128" t="n"/>
+      <c r="J70" s="128" t="n"/>
+      <c r="L70" s="173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row customFormat="1" r="71" s="147" spans="1:22">
+      <c r="B71" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="87" t="s">
+      <c r="D71" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E71" s="87" t="s">
+      <c r="E71" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="87" t="n"/>
-      <c r="G71" s="87" t="n"/>
-      <c r="H71" s="98" t="n"/>
-      <c r="I71" s="98" t="n"/>
-      <c r="J71" s="98" t="n"/>
-      <c r="L71" s="141" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row customFormat="1" r="72" s="125" spans="1:22">
-      <c r="B72" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="87" t="s">
+      <c r="F71" s="91" t="n"/>
+      <c r="G71" s="91" t="n"/>
+      <c r="H71" s="128" t="n"/>
+      <c r="I71" s="128" t="n"/>
+      <c r="J71" s="128" t="n"/>
+      <c r="L71" s="173" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" r="72" s="147" spans="1:22">
+      <c r="B72" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="87" t="s">
+      <c r="D72" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="87" t="n"/>
-      <c r="G72" s="87" t="n"/>
-      <c r="H72" s="98" t="n"/>
-      <c r="I72" s="98" t="n"/>
-      <c r="J72" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="73" s="125" spans="1:22">
-      <c r="B73" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="87" t="s">
+      <c r="E72" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="91" t="n"/>
+      <c r="G72" s="91" t="n"/>
+      <c r="H72" s="128" t="n"/>
+      <c r="I72" s="128" t="n"/>
+      <c r="J72" s="128" t="n"/>
+    </row>
+    <row customFormat="1" r="73" s="147" spans="1:22">
+      <c r="B73" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="87" t="s">
+      <c r="D73" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="87" t="n"/>
-      <c r="G73" s="87" t="n"/>
-      <c r="H73" s="98" t="n"/>
-      <c r="I73" s="98" t="n"/>
-      <c r="J73" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="74" s="125" spans="1:22">
-      <c r="B74" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="87" t="s">
+      <c r="E73" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="87" t="s">
+      <c r="F73" s="91" t="n"/>
+      <c r="G73" s="91" t="n"/>
+      <c r="H73" s="128" t="n"/>
+      <c r="I73" s="128" t="n"/>
+      <c r="J73" s="128" t="n"/>
+    </row>
+    <row customFormat="1" r="74" s="147" spans="1:22">
+      <c r="B74" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="87" t="s">
+      <c r="D74" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="87" t="s">
+      <c r="E74" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="G74" s="87" t="n"/>
-      <c r="H74" s="98" t="n"/>
-      <c r="I74" s="98" t="n"/>
-      <c r="J74" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="75" s="125" spans="1:22">
-      <c r="B75" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="87" t="s">
+      <c r="F74" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" s="91" t="n"/>
+      <c r="H74" s="128" t="n"/>
+      <c r="I74" s="128" t="n"/>
+      <c r="J74" s="128" t="n"/>
+      <c r="L74" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="75" s="147" spans="1:22">
+      <c r="B75" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="G75" s="87" t="n"/>
-    </row>
-    <row customFormat="1" r="76" s="125" spans="1:22">
-      <c r="B76" s="87" t="n"/>
-      <c r="C76" s="140" t="n"/>
-      <c r="F76" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" s="87" t="n"/>
-      <c r="H76" s="98" t="n"/>
-      <c r="I76" s="98" t="n"/>
-      <c r="J76" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="77" s="125" spans="1:22">
-      <c r="B77" s="87" t="n"/>
-      <c r="C77" s="140" t="n"/>
-      <c r="G77" s="87" t="n"/>
-      <c r="I77" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="78" s="125" spans="1:22">
-      <c r="B78" s="87" t="n"/>
-      <c r="C78" s="140" t="n"/>
-      <c r="G78" s="87" t="n"/>
-      <c r="I78" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="79" s="125" spans="1:22">
-      <c r="B79" s="87" t="n"/>
-      <c r="C79" s="140" t="n"/>
-      <c r="G79" s="87" t="n"/>
-      <c r="I79" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="80" s="125" spans="1:22">
-      <c r="B80" s="87" t="n"/>
-      <c r="C80" s="140" t="n"/>
-      <c r="G80" s="87" t="n"/>
-      <c r="I80" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="81" s="125" spans="1:22">
-      <c r="B81" s="87" t="n"/>
-      <c r="C81" s="140" t="n"/>
-      <c r="G81" s="87" t="n"/>
-      <c r="I81" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="82" s="125" spans="1:22">
-      <c r="B82" s="87" t="n"/>
-      <c r="C82" s="140" t="n"/>
-      <c r="G82" s="87" t="n"/>
-      <c r="I82" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="83" s="125" spans="1:22">
-      <c r="B83" s="87" t="n"/>
-      <c r="C83" s="140" t="n"/>
-      <c r="G83" s="87" t="n"/>
-      <c r="I83" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="84" s="125" spans="1:22">
-      <c r="B84" s="87" t="n"/>
-      <c r="C84" s="140" t="n"/>
-      <c r="G84" s="87" t="n"/>
-      <c r="I84" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="85" s="125" spans="1:22">
-      <c r="B85" s="87" t="n"/>
-      <c r="C85" s="140" t="n"/>
-      <c r="G85" s="87" t="n"/>
-      <c r="I85" s="98" t="n"/>
-      <c r="L85" t="s">
+      <c r="D75" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="91" t="n"/>
+      <c r="L75" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="76" s="147" spans="1:22">
+      <c r="B76" s="91" t="n"/>
+      <c r="C76" s="91" t="n"/>
+      <c r="D76" s="91" t="n"/>
+      <c r="E76" s="117" t="n"/>
+      <c r="G76" s="91" t="n"/>
+      <c r="L76" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="77" s="147" spans="1:22">
+      <c r="B77" s="91" t="n"/>
+      <c r="C77" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="160" t="n"/>
+      <c r="G77" s="91" t="n"/>
+      <c r="L77" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="78" s="147" spans="1:22">
+      <c r="B78" s="91" t="n"/>
+      <c r="C78" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" s="91" t="n"/>
+      <c r="H78" s="128" t="n"/>
+      <c r="I78" s="128" t="n"/>
+      <c r="J78" s="128" t="n"/>
+      <c r="L78" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="79" s="147" spans="1:22">
+      <c r="B79" s="91" t="n"/>
+      <c r="C79" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="169" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" s="91" t="n"/>
+      <c r="I79" s="128" t="n"/>
+      <c r="L79" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="80" s="147" spans="1:22">
+      <c r="B80" s="91" t="n"/>
+      <c r="C80" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="169" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" s="91" t="n"/>
+      <c r="I80" s="128" t="n"/>
+      <c r="L80" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="81" s="147" spans="1:22">
+      <c r="B81" s="91" t="n"/>
+      <c r="C81" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="91" t="n"/>
+      <c r="I81" s="128" t="n"/>
+      <c r="L81" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="82" s="147" spans="1:22">
+      <c r="B82" s="91" t="n"/>
+      <c r="C82" s="133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="160" t="n"/>
+      <c r="G82" s="91" t="n"/>
+      <c r="I82" s="128" t="n"/>
+      <c r="L82" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="83" s="147" spans="1:22">
+      <c r="B83" s="91" t="n"/>
+      <c r="C83" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="160" t="n"/>
+      <c r="G83" s="91" t="n"/>
+      <c r="I83" s="128" t="n"/>
+      <c r="L83" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="84" s="147" spans="1:22">
+      <c r="B84" s="91" t="n"/>
+      <c r="C84" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="169" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="160" t="n"/>
+      <c r="G84" s="91" t="n"/>
+      <c r="I84" s="128" t="n"/>
+      <c r="L84" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="85" s="147" spans="1:22">
+      <c r="B85" s="91" t="n"/>
+      <c r="C85" s="133" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row customFormat="1" r="86" s="125" spans="1:22">
-      <c r="B86" s="87" t="n"/>
-      <c r="C86" s="140" t="n"/>
-      <c r="D86" t="s">
-        <v>272</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D85" s="169" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" s="160" t="n"/>
+      <c r="G85" s="91" t="n"/>
+      <c r="I85" s="128" t="n"/>
+      <c r="L85" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="86" s="147" spans="1:22">
+      <c r="B86" s="91" t="n"/>
+      <c r="C86" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="169" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="160" t="n"/>
+      <c r="G86" s="91" t="n"/>
+      <c r="I86" s="128" t="n"/>
+      <c r="L86" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="87" s="147" spans="1:22">
+      <c r="B87" s="91" t="n"/>
+      <c r="C87" s="133" t="n"/>
+      <c r="D87" s="169" t="n"/>
+      <c r="F87" s="160" t="n"/>
+      <c r="G87" s="91" t="n"/>
+      <c r="I87" s="128" t="n"/>
+      <c r="L87" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="88" s="147" spans="1:22">
+      <c r="B88" s="91" t="n"/>
+      <c r="C88" s="133" t="n"/>
+      <c r="D88" s="169" t="n"/>
+      <c r="F88" s="160" t="n"/>
+      <c r="G88" s="91" t="n"/>
+      <c r="I88" s="128" t="n"/>
+      <c r="L88" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="89" s="147" spans="1:22">
+      <c r="B89" s="91" t="n"/>
+      <c r="C89" s="133" t="n"/>
+      <c r="D89" s="169" t="n"/>
+      <c r="F89" s="160" t="n"/>
+      <c r="G89" s="91" t="n"/>
+      <c r="I89" s="128" t="n"/>
+      <c r="L89" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="90" s="147" spans="1:22">
+      <c r="B90" s="91" t="n"/>
+      <c r="C90" s="133" t="n"/>
+      <c r="D90" s="169" t="n"/>
+      <c r="F90" s="160" t="n"/>
+      <c r="G90" s="91" t="n"/>
+      <c r="I90" s="128" t="n"/>
+      <c r="L90" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="91" s="147" spans="1:22">
+      <c r="B91" s="91" t="n"/>
+      <c r="C91" s="133" t="n"/>
+      <c r="D91" s="169" t="n"/>
+      <c r="F91" s="160" t="n"/>
+      <c r="G91" s="91" t="n"/>
+      <c r="I91" s="128" t="n"/>
+      <c r="L91" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="92" s="147" spans="1:22">
+      <c r="B92" s="91" t="n"/>
+      <c r="C92" s="133" t="n"/>
+      <c r="D92" s="169" t="n"/>
+      <c r="F92" s="160" t="n"/>
+      <c r="G92" s="91" t="n"/>
+      <c r="I92" s="128" t="n"/>
+      <c r="L92" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="93" s="147" spans="1:22">
+      <c r="B93" s="91" t="n"/>
+      <c r="C93" s="133" t="n"/>
+      <c r="D93" s="169" t="n"/>
+      <c r="F93" s="160" t="n"/>
+      <c r="G93" s="91" t="n"/>
+      <c r="I93" s="128" t="n"/>
+      <c r="L93" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="94" s="147" spans="1:22">
+      <c r="B94" s="91" t="n"/>
+      <c r="C94" s="133" t="n"/>
+      <c r="D94" s="169" t="n"/>
+      <c r="F94" s="160" t="n"/>
+      <c r="G94" s="91" t="n"/>
+      <c r="I94" s="128" t="n"/>
+      <c r="L94" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="95" s="147" spans="1:22">
+      <c r="B95" s="91" t="n"/>
+      <c r="C95" s="133" t="n"/>
+      <c r="D95" s="169" t="n"/>
+      <c r="F95" s="160" t="n"/>
+      <c r="G95" s="91" t="n"/>
+      <c r="I95" s="128" t="n"/>
+      <c r="L95" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="96" s="147" spans="1:22">
+      <c r="B96" s="91" t="n"/>
+      <c r="C96" s="133" t="n"/>
+      <c r="D96" s="169" t="n"/>
+      <c r="F96" s="160" t="n"/>
+      <c r="G96" s="91" t="n"/>
+      <c r="I96" s="128" t="n"/>
+      <c r="L96" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="97" s="147" spans="1:22">
+      <c r="B97" s="91" t="n"/>
+      <c r="C97" s="133" t="n"/>
+      <c r="D97" s="169" t="n"/>
+      <c r="F97" s="160" t="n"/>
+      <c r="G97" s="91" t="n"/>
+      <c r="I97" s="128" t="n"/>
+      <c r="L97" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="98" s="147" spans="1:22">
+      <c r="B98" s="91" t="n"/>
+      <c r="C98" s="133" t="n"/>
+      <c r="D98" s="169" t="n"/>
+      <c r="F98" s="160" t="n"/>
+      <c r="G98" s="91" t="n"/>
+      <c r="I98" s="128" t="n"/>
+      <c r="L98" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="99" s="147" spans="1:22">
+      <c r="B99" s="91" t="n"/>
+      <c r="C99" s="133" t="n"/>
+      <c r="D99" s="169" t="n"/>
+      <c r="F99" s="160" t="n"/>
+      <c r="G99" s="91" t="n"/>
+      <c r="I99" s="128" t="n"/>
+      <c r="L99" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="100" s="147" spans="1:22">
+      <c r="B100" s="91" t="n"/>
+      <c r="C100" s="133" t="n"/>
+      <c r="D100" s="169" t="n"/>
+      <c r="F100" s="160" t="n"/>
+      <c r="G100" s="91" t="n"/>
+      <c r="I100" s="128" t="n"/>
+      <c r="L100" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="101" s="147" spans="1:22">
+      <c r="B101" s="91" t="n"/>
+      <c r="C101" s="133" t="n"/>
+      <c r="D101" s="169" t="n"/>
+      <c r="F101" s="160" t="n"/>
+      <c r="G101" s="91" t="n"/>
+      <c r="I101" s="128" t="n"/>
+      <c r="L101" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="102" s="147" spans="1:22">
+      <c r="B102" s="91" t="n"/>
+      <c r="C102" s="133" t="n"/>
+      <c r="D102" s="169" t="n"/>
+      <c r="F102" s="160" t="n"/>
+      <c r="G102" s="91" t="n"/>
+      <c r="I102" s="128" t="n"/>
+      <c r="L102" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="103" s="147" spans="1:22">
+      <c r="B103" s="91" t="n"/>
+      <c r="C103" s="133" t="n"/>
+      <c r="D103" s="169" t="n"/>
+      <c r="F103" s="160" t="n"/>
+      <c r="G103" s="91" t="n"/>
+      <c r="I103" s="128" t="n"/>
+      <c r="L103" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="104" s="147" spans="1:22">
+      <c r="B104" s="91" t="n"/>
+      <c r="C104" s="133" t="n"/>
+      <c r="D104" s="169" t="n"/>
+      <c r="F104" s="160" t="n"/>
+      <c r="G104" s="91" t="n"/>
+      <c r="I104" s="128" t="n"/>
+      <c r="L104" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="105" s="147" spans="1:22">
+      <c r="B105" s="91" t="n"/>
+      <c r="C105" s="133" t="n"/>
+      <c r="D105" s="169" t="n"/>
+      <c r="F105" s="160" t="n"/>
+      <c r="G105" s="91" t="n"/>
+      <c r="I105" s="128" t="n"/>
+      <c r="L105" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="106" s="147" spans="1:22">
+      <c r="B106" s="91" t="n"/>
+      <c r="C106" s="133" t="n"/>
+      <c r="D106" s="169" t="n"/>
+      <c r="F106" s="160" t="n"/>
+      <c r="G106" s="91" t="n"/>
+      <c r="I106" s="128" t="n"/>
+      <c r="L106" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="107" s="147" spans="1:22">
+      <c r="B107" s="91" t="n"/>
+      <c r="C107" s="133" t="n"/>
+      <c r="D107" s="169" t="n"/>
+      <c r="F107" s="114" t="n"/>
+      <c r="G107" s="91" t="n"/>
+      <c r="H107" s="128" t="n"/>
+      <c r="I107" s="128" t="n"/>
+      <c r="J107" s="128" t="n"/>
+      <c r="K107" s="65" t="n"/>
+      <c r="L107" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="108" s="147" spans="1:22">
+      <c r="B108" s="91" t="n"/>
+      <c r="C108" s="134" t="n"/>
+      <c r="D108" s="171" t="n"/>
+      <c r="F108" s="114" t="n"/>
+      <c r="G108" s="91" t="n"/>
+      <c r="H108" s="128" t="n"/>
+      <c r="I108" s="128" t="n"/>
+      <c r="J108" s="128" t="n"/>
+      <c r="K108" s="65" t="n"/>
+      <c r="L108" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="109" s="147" spans="1:22">
+      <c r="B109" s="91" t="n"/>
+      <c r="C109" s="115" t="n"/>
+      <c r="D109" s="91" t="n"/>
+      <c r="E109" s="115" t="n"/>
+      <c r="F109" s="91" t="n"/>
+      <c r="G109" s="91" t="n"/>
+      <c r="H109" s="128" t="n"/>
+      <c r="I109" s="128" t="n"/>
+      <c r="J109" s="128" t="n"/>
+      <c r="L109" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="110" s="147" spans="1:22">
+      <c r="B110" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F110" s="72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" s="72" t="n"/>
+      <c r="H110" s="128" t="n"/>
+      <c r="I110" s="128" t="n"/>
+      <c r="J110" s="128" t="n"/>
+      <c r="L110" s="173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customFormat="1" r="111" s="147" spans="1:22">
+      <c r="B111" s="91" t="n"/>
+      <c r="C111" s="91" t="n"/>
+      <c r="D111" s="91" t="n"/>
+      <c r="E111" s="72" t="n"/>
+      <c r="F111" s="72" t="n"/>
+      <c r="G111" s="72" t="n"/>
+      <c r="H111" s="128" t="n"/>
+      <c r="I111" s="128" t="n"/>
+      <c r="J111" s="128" t="n"/>
+      <c r="L111" s="137" t="n"/>
+    </row>
+    <row customFormat="1" r="112" s="147" spans="1:22">
+      <c r="B112" s="91" t="n"/>
+      <c r="C112" s="91" t="n"/>
+      <c r="D112" s="158" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="158" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112" s="158" t="s">
+        <v>134</v>
+      </c>
+      <c r="G112" s="72" t="n"/>
+      <c r="H112" s="128" t="n"/>
+      <c r="I112" s="128" t="n"/>
+      <c r="J112" s="128" t="n"/>
+    </row>
+    <row customFormat="1" r="113" s="147" spans="1:22">
+      <c r="B113" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="158" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="G113" s="72" t="n"/>
+      <c r="H113" s="128" t="n"/>
+      <c r="I113" s="128" t="n"/>
+      <c r="J113" s="128" t="n"/>
+      <c r="L113" s="90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row customFormat="1" r="114" s="147" spans="1:22">
+      <c r="B114" s="91" t="n"/>
+      <c r="C114" s="91" t="n"/>
+      <c r="D114" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="72" t="n"/>
+      <c r="H114" s="128" t="n"/>
+      <c r="I114" s="128" t="n"/>
+      <c r="J114" s="128" t="n"/>
+      <c r="L114" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row customFormat="1" r="115" s="147" spans="1:22">
+      <c r="B115" s="91" t="n"/>
+      <c r="C115" s="91" t="n"/>
+      <c r="D115" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G115" s="72" t="n"/>
+      <c r="H115" s="128" t="n"/>
+      <c r="I115" s="128" t="n"/>
+      <c r="J115" s="128" t="n"/>
+      <c r="L115" s="88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row customFormat="1" r="116" s="147" spans="1:22">
+      <c r="B116" s="91" t="n"/>
+      <c r="C116" s="91" t="n"/>
+      <c r="D116" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G116" s="72" t="n"/>
+      <c r="H116" s="128" t="n"/>
+      <c r="I116" s="128" t="n"/>
+      <c r="J116" s="128" t="n"/>
+      <c r="L116" s="88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customFormat="1" r="117" s="147" spans="1:22">
+      <c r="B117" s="91" t="n"/>
+      <c r="C117" s="91" t="n"/>
+      <c r="D117" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G117" s="72" t="n"/>
+      <c r="H117" s="128" t="n"/>
+      <c r="I117" s="128" t="n"/>
+      <c r="J117" s="128" t="n"/>
+      <c r="K117" s="65" t="n"/>
+      <c r="L117" s="88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row customFormat="1" r="118" s="147" spans="1:22">
+      <c r="B118" s="91" t="n"/>
+      <c r="C118" s="91" t="n"/>
+      <c r="D118" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G118" s="72" t="n"/>
+      <c r="H118" s="128" t="n"/>
+      <c r="I118" s="128" t="n"/>
+      <c r="J118" s="128" t="n"/>
+      <c r="K118" s="65" t="n"/>
+      <c r="L118" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="F86" t="s">
-        <v>272</v>
-      </c>
-      <c r="G86" s="87" t="n"/>
-      <c r="I86" s="98" t="n"/>
-      <c r="L86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customFormat="1" r="87" s="125" spans="1:22">
-      <c r="B87" s="87" t="n"/>
-      <c r="C87" s="140" t="n"/>
-      <c r="D87" t="s">
-        <v>273</v>
-      </c>
-      <c r="E87" t="s">
+    </row>
+    <row r="119" spans="1:22">
+      <c r="B119" s="91" t="n"/>
+      <c r="C119" s="91" t="n"/>
+      <c r="D119" s="62" t="n"/>
+      <c r="E119" s="62" t="n"/>
+      <c r="F119" s="43">
+        <f>DEC2HEX(D119)</f>
+        <v/>
+      </c>
+      <c r="G119" s="72" t="n"/>
+      <c r="H119" s="128" t="n"/>
+      <c r="I119" s="128" t="n"/>
+      <c r="J119" s="128" t="n"/>
+      <c r="K119" s="147" t="n"/>
+      <c r="L119" s="88" t="n"/>
+      <c r="M119" s="147" t="n"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="B120" s="91" t="n"/>
+      <c r="C120" s="91" t="n"/>
+      <c r="D120" s="62" t="n"/>
+      <c r="E120" s="62" t="n"/>
+      <c r="F120" s="43">
+        <f>DEC2HEX(D120)</f>
+        <v/>
+      </c>
+      <c r="G120" s="72" t="n"/>
+      <c r="H120" s="128" t="n"/>
+      <c r="I120" s="128" t="n"/>
+      <c r="J120" s="128" t="n"/>
+      <c r="K120" s="147" t="n"/>
+      <c r="L120" s="89" t="n"/>
+      <c r="M120" s="147" t="n"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="B121" s="91" t="n"/>
+      <c r="C121" s="91" t="n"/>
+      <c r="D121" s="91" t="n"/>
+      <c r="E121" s="91" t="n"/>
+      <c r="F121" s="91" t="n"/>
+      <c r="G121" s="91" t="n"/>
+      <c r="H121" s="128" t="n"/>
+      <c r="I121" s="128" t="n"/>
+      <c r="J121" s="128" t="n"/>
+      <c r="K121" s="147" t="n"/>
+      <c r="L121" s="147" t="n"/>
+      <c r="M121" s="147" t="n"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="B122" s="91" t="n"/>
+      <c r="C122" s="91" t="n"/>
+      <c r="D122" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="G122" s="72" t="n"/>
+      <c r="H122" s="128" t="n"/>
+      <c r="I122" s="128" t="n"/>
+      <c r="J122" s="128" t="n"/>
+      <c r="K122" s="147" t="n"/>
+      <c r="L122" s="147" t="n"/>
+      <c r="M122" s="147" t="n"/>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="B123" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="F123" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G123" s="72" t="n"/>
+      <c r="H123" s="128" t="n"/>
+      <c r="I123" s="128" t="n"/>
+      <c r="J123" s="128" t="n"/>
+      <c r="K123" s="147" t="n"/>
+      <c r="L123" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="M123" s="147" t="n"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="B124" s="91" t="n"/>
+      <c r="C124" s="91" t="n"/>
+      <c r="D124" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="F87" t="s">
-        <v>273</v>
-      </c>
-      <c r="G87" s="87" t="n"/>
-      <c r="I87" s="98" t="n"/>
-      <c r="L87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row customFormat="1" r="88" s="125" spans="1:22">
-      <c r="B88" s="87" t="n"/>
-      <c r="C88" s="140" t="n"/>
-      <c r="D88" t="s">
-        <v>274</v>
-      </c>
-      <c r="E88" t="s">
-        <v>158</v>
-      </c>
-      <c r="F88" t="s">
-        <v>275</v>
-      </c>
-      <c r="G88" s="87" t="n"/>
-      <c r="I88" s="98" t="n"/>
-      <c r="L88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row customFormat="1" r="89" s="125" spans="1:22">
-      <c r="B89" s="87" t="n"/>
-      <c r="C89" s="140" t="n"/>
-      <c r="D89" t="s">
-        <v>276</v>
-      </c>
-      <c r="E89" t="s">
-        <v>161</v>
-      </c>
-      <c r="F89" t="s">
-        <v>277</v>
-      </c>
-      <c r="G89" s="87" t="n"/>
-      <c r="I89" s="98" t="n"/>
-      <c r="L89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row customFormat="1" r="90" s="125" spans="1:22">
-      <c r="B90" s="87" t="n"/>
-      <c r="C90" s="140" t="n"/>
-      <c r="D90" t="s">
-        <v>157</v>
-      </c>
-      <c r="E90" t="s">
-        <v>46</v>
-      </c>
-      <c r="F90" t="s">
-        <v>159</v>
-      </c>
-      <c r="G90" s="87" t="n"/>
-      <c r="I90" s="98" t="n"/>
-      <c r="L90" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row customFormat="1" r="91" s="125" spans="1:22">
-      <c r="B91" s="87" t="n"/>
-      <c r="C91" s="140" t="n"/>
-      <c r="G91" s="87" t="n"/>
-      <c r="I91" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="92" s="125" spans="1:22">
-      <c r="B92" s="87" t="n"/>
-      <c r="C92" s="140" t="n"/>
-      <c r="G92" s="87" t="n"/>
-      <c r="I92" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="93" s="125" spans="1:22">
-      <c r="B93" s="87" t="n"/>
-      <c r="C93" s="140" t="n"/>
-      <c r="G93" s="87" t="n"/>
-      <c r="I93" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="94" s="125" spans="1:22">
-      <c r="B94" s="87" t="n"/>
-      <c r="C94" s="140" t="n"/>
-      <c r="G94" s="87" t="n"/>
-      <c r="I94" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="95" s="125" spans="1:22">
-      <c r="B95" s="87" t="n"/>
-      <c r="C95" s="140" t="n"/>
-      <c r="G95" s="87" t="n"/>
-      <c r="I95" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="96" s="125" spans="1:22">
-      <c r="B96" s="87" t="n"/>
-      <c r="C96" s="140" t="n"/>
-      <c r="D96" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" t="s">
-        <v>152</v>
-      </c>
-      <c r="F96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="87" t="n"/>
-      <c r="I96" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="97" s="125" spans="1:22">
-      <c r="B97" s="87" t="n"/>
-      <c r="C97" s="140" t="n"/>
-      <c r="D97" t="s">
-        <v>154</v>
-      </c>
-      <c r="E97" t="s">
-        <v>155</v>
-      </c>
-      <c r="F97" t="s">
-        <v>156</v>
-      </c>
-      <c r="G97" s="87" t="n"/>
-      <c r="I97" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="98" s="125" spans="1:22">
-      <c r="B98" s="87" t="n"/>
-      <c r="C98" s="140" t="n"/>
-      <c r="D98" t="s">
-        <v>157</v>
-      </c>
-      <c r="E98" t="s">
-        <v>158</v>
-      </c>
-      <c r="F98" t="s">
-        <v>159</v>
-      </c>
-      <c r="G98" s="87" t="n"/>
-      <c r="I98" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="99" s="125" spans="1:22">
-      <c r="B99" s="87" t="n"/>
-      <c r="C99" s="140" t="n"/>
-      <c r="D99" t="s">
-        <v>160</v>
-      </c>
-      <c r="E99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99" t="s">
-        <v>162</v>
-      </c>
-      <c r="G99" s="87" t="n"/>
-      <c r="I99" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="100" s="125" spans="1:22">
-      <c r="B100" s="87" t="n"/>
-      <c r="C100" s="140" t="n"/>
-      <c r="D100" t="s">
-        <v>45</v>
-      </c>
-      <c r="E100" t="s">
-        <v>46</v>
-      </c>
-      <c r="F100" t="s">
-        <v>164</v>
-      </c>
-      <c r="G100" s="87" t="n"/>
-      <c r="I100" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="101" s="125" spans="1:22">
-      <c r="B101" s="87" t="n"/>
-      <c r="C101" s="140" t="n"/>
-      <c r="F101" s="87" t="n"/>
-      <c r="G101" s="87" t="n"/>
-      <c r="H101" s="98" t="n"/>
-      <c r="I101" s="98" t="n"/>
-      <c r="J101" s="98" t="n"/>
-      <c r="K101" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="102" s="125" spans="1:22">
-      <c r="B102" s="87" t="n"/>
-      <c r="C102" s="140" t="n"/>
-      <c r="F102" s="87" t="n"/>
-      <c r="G102" s="87" t="n"/>
-      <c r="H102" s="98" t="n"/>
-      <c r="I102" s="98" t="n"/>
-      <c r="J102" s="98" t="n"/>
-      <c r="K102" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="103" s="125" spans="1:22">
-      <c r="B103" s="87" t="n"/>
-      <c r="C103" s="140" t="n"/>
-      <c r="F103" s="87" t="n"/>
-      <c r="G103" s="87" t="n"/>
-      <c r="H103" s="98" t="n"/>
-      <c r="I103" s="98" t="n"/>
-      <c r="J103" s="98" t="n"/>
-      <c r="K103" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="104" s="125" spans="1:22">
-      <c r="B104" s="87" t="n"/>
-      <c r="C104" s="140" t="n"/>
-      <c r="F104" s="87" t="n"/>
-      <c r="G104" s="87" t="n"/>
-      <c r="H104" s="98" t="n"/>
-      <c r="I104" s="98" t="n"/>
-      <c r="J104" s="98" t="n"/>
-      <c r="K104" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="105" s="125" spans="1:22">
-      <c r="B105" s="87" t="n"/>
-      <c r="C105" s="140" t="n"/>
-      <c r="F105" s="87" t="n"/>
-      <c r="G105" s="87" t="n"/>
-      <c r="H105" s="98" t="n"/>
-      <c r="I105" s="98" t="n"/>
-      <c r="J105" s="98" t="n"/>
-      <c r="K105" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="106" s="125" spans="1:22">
-      <c r="B106" s="87" t="n"/>
-      <c r="C106" s="140" t="n"/>
-      <c r="F106" s="87" t="n"/>
-      <c r="G106" s="87" t="n"/>
-      <c r="H106" s="98" t="n"/>
-      <c r="I106" s="98" t="n"/>
-      <c r="J106" s="98" t="n"/>
-      <c r="K106" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="107" s="125" spans="1:22">
-      <c r="B107" s="87" t="n"/>
-      <c r="C107" s="140" t="n"/>
-      <c r="F107" s="87" t="n"/>
-      <c r="G107" s="87" t="n"/>
-      <c r="H107" s="98" t="n"/>
-      <c r="I107" s="98" t="n"/>
-      <c r="J107" s="98" t="n"/>
-      <c r="K107" s="65" t="n"/>
-    </row>
-    <row customFormat="1" r="108" s="125" spans="1:22">
-      <c r="B108" s="87" t="n"/>
-      <c r="C108" s="87" t="n"/>
-      <c r="D108" s="87" t="n"/>
-      <c r="E108" s="87" t="n"/>
-      <c r="F108" s="87" t="n"/>
-      <c r="G108" s="87" t="n"/>
-      <c r="H108" s="98" t="n"/>
-      <c r="I108" s="98" t="n"/>
-      <c r="J108" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="109" s="125" spans="1:22">
-      <c r="B109" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="F109" s="88" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" s="88" t="n"/>
-      <c r="H109" s="98" t="n"/>
-      <c r="I109" s="98" t="n"/>
-      <c r="J109" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="110" s="125" spans="1:22">
-      <c r="B110" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="D110" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="E110" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="F110" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" s="88" t="n"/>
-      <c r="H110" s="98" t="n"/>
-      <c r="I110" s="98" t="n"/>
-      <c r="J110" s="98" t="n"/>
-      <c r="L110" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="111" s="125" spans="1:22" thickBot="1">
-      <c r="B111" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D111" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="E111" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="F111" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="G111" s="88" t="n"/>
-      <c r="H111" s="98" t="n"/>
-      <c r="I111" s="98" t="n"/>
-      <c r="J111" s="98" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.8" r="112" s="125" spans="1:22" thickBot="1">
-      <c r="B112" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D112" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="F112" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="G112" s="88" t="n"/>
-      <c r="H112" s="98" t="n"/>
-      <c r="I112" s="98" t="n"/>
-      <c r="J112" s="98" t="n"/>
-      <c r="L112" s="97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row customFormat="1" r="113" s="125" spans="1:22">
-      <c r="B113" s="87" t="n">
-        <v>2</v>
-      </c>
-      <c r="C113" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="F113" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" s="88" t="n"/>
-      <c r="H113" s="98" t="n"/>
-      <c r="I113" s="98" t="n"/>
-      <c r="J113" s="98" t="n"/>
-      <c r="L113" s="92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customFormat="1" r="114" s="125" spans="1:22">
-      <c r="B114" s="87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C114" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D114" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E114" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F114" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G114" s="88" t="n"/>
-      <c r="H114" s="98" t="n"/>
-      <c r="I114" s="98" t="n"/>
-      <c r="J114" s="98" t="n"/>
-      <c r="L114" s="92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row customFormat="1" r="115" s="125" spans="1:22">
-      <c r="B115" s="87" t="n">
-        <v>4</v>
-      </c>
-      <c r="C115" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="D115" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E115" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="F115" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G115" s="88" t="n"/>
-      <c r="H115" s="98" t="n"/>
-      <c r="I115" s="98" t="n"/>
-      <c r="J115" s="98" t="n"/>
-      <c r="L115" s="92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row customFormat="1" r="116" s="125" spans="1:22">
-      <c r="B116" s="87" t="n">
-        <v>5</v>
-      </c>
-      <c r="C116" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D116" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="F116" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G116" s="88" t="n"/>
-      <c r="H116" s="98" t="n"/>
-      <c r="I116" s="98" t="n"/>
-      <c r="J116" s="98" t="n"/>
-      <c r="K116" s="65" t="n"/>
-      <c r="L116" s="92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row customFormat="1" r="117" s="125" spans="1:22">
-      <c r="B117" s="87" t="n">
-        <v>6</v>
-      </c>
-      <c r="C117" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D117" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E117" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="F117" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" s="88" t="n"/>
-      <c r="H117" s="98" t="n"/>
-      <c r="I117" s="98" t="n"/>
-      <c r="J117" s="98" t="n"/>
-      <c r="K117" s="65" t="n"/>
-      <c r="L117" s="92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22">
-      <c r="B118" s="87" t="n">
-        <v>7</v>
-      </c>
-      <c r="C118" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="E118" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="F118" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G118" s="88" t="n"/>
-      <c r="H118" s="98" t="n"/>
-      <c r="I118" s="98" t="n"/>
-      <c r="J118" s="98" t="n"/>
-      <c r="K118" s="125" t="n"/>
-      <c r="L118" s="92" t="n"/>
-      <c r="M118" s="125" t="n"/>
-    </row>
-    <row r="119" spans="1:22">
-      <c r="B119" s="87" t="n">
-        <v>8</v>
-      </c>
-      <c r="C119" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="E119" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G119" s="88" t="n"/>
-      <c r="H119" s="98" t="n"/>
-      <c r="I119" s="98" t="n"/>
-      <c r="J119" s="98" t="n"/>
-      <c r="K119" s="125" t="n"/>
-      <c r="L119" s="93" t="n"/>
-      <c r="M119" s="125" t="n"/>
-    </row>
-    <row r="120" spans="1:22">
-      <c r="B120" s="87" t="n"/>
-      <c r="C120" s="87" t="n"/>
-      <c r="D120" s="87" t="n"/>
-      <c r="E120" s="87" t="n"/>
-      <c r="F120" s="87" t="n"/>
-      <c r="G120" s="87" t="n"/>
-      <c r="H120" s="98" t="n"/>
-      <c r="I120" s="98" t="n"/>
-      <c r="J120" s="98" t="n"/>
-      <c r="K120" s="125" t="n"/>
-      <c r="L120" s="125" t="n"/>
-      <c r="M120" s="125" t="n"/>
-    </row>
-    <row r="121" spans="1:22">
-      <c r="B121" s="87" t="n"/>
-      <c r="C121" s="87" t="n"/>
-      <c r="D121" s="129" t="s">
-        <v>146</v>
-      </c>
-      <c r="E121" s="129" t="s">
-        <v>146</v>
-      </c>
-      <c r="F121" s="129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G121" s="88" t="n"/>
-      <c r="H121" s="98" t="n"/>
-      <c r="I121" s="98" t="n"/>
-      <c r="J121" s="98" t="n"/>
-      <c r="K121" s="125" t="n"/>
-      <c r="L121" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="M121" s="125" t="n"/>
-    </row>
-    <row r="122" spans="1:22">
-      <c r="B122" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="D122" s="129" t="s">
-        <v>148</v>
-      </c>
-      <c r="E122" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="F122" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="G122" s="88" t="n"/>
-      <c r="H122" s="98" t="n"/>
-      <c r="I122" s="98" t="n"/>
-      <c r="J122" s="98" t="n"/>
-      <c r="K122" s="125" t="n"/>
-      <c r="L122" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="M122" s="125" t="n"/>
-    </row>
-    <row r="123" spans="1:22">
-      <c r="B123" s="87" t="n"/>
-      <c r="C123" s="87" t="n"/>
-      <c r="D123" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E123" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="F123" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" s="88" t="n"/>
-      <c r="H123" s="98" t="n"/>
-      <c r="I123" s="98" t="n"/>
-      <c r="J123" s="98" t="n"/>
-      <c r="K123" s="125" t="n"/>
-      <c r="L123" s="125" t="n"/>
-      <c r="M123" s="125" t="n"/>
-    </row>
-    <row customFormat="1" r="124" s="125" spans="1:22">
-      <c r="B124" s="87" t="n"/>
-      <c r="C124" s="87" t="n"/>
-      <c r="D124" s="62" t="s">
-        <v>154</v>
-      </c>
       <c r="E124" s="62" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="F124" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="G124" s="88" t="n"/>
-      <c r="H124" s="98" t="n"/>
-      <c r="I124" s="98" t="n"/>
-      <c r="J124" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="125" s="125" spans="1:22">
-      <c r="B125" s="87" t="n"/>
-      <c r="C125" s="87" t="n"/>
+      <c r="G124" s="72" t="n"/>
+      <c r="H124" s="128" t="n"/>
+      <c r="I124" s="128" t="n"/>
+      <c r="J124" s="128" t="n"/>
+      <c r="K124" s="147" t="n"/>
+      <c r="L124" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="M124" s="147" t="n"/>
+    </row>
+    <row customFormat="1" r="125" s="147" spans="1:22">
+      <c r="B125" s="91" t="n"/>
+      <c r="C125" s="91" t="n"/>
       <c r="D125" s="62" t="s">
         <v>157</v>
       </c>
       <c r="E125" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F125" s="43" t="s">
+      <c r="G125" s="72" t="n"/>
+      <c r="H125" s="128" t="n"/>
+      <c r="I125" s="128" t="n"/>
+      <c r="J125" s="128" t="n"/>
+      <c r="L125" s="88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row customFormat="1" r="126" s="147" spans="1:22">
+      <c r="B126" s="91" t="n"/>
+      <c r="C126" s="91" t="n"/>
+      <c r="D126" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F126" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G126" s="72" t="n"/>
+      <c r="H126" s="128" t="n"/>
+      <c r="I126" s="128" t="n"/>
+      <c r="J126" s="128" t="n"/>
+      <c r="L126" s="88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customFormat="1" r="127" s="147" spans="1:22">
+      <c r="B127" s="91" t="n"/>
+      <c r="C127" s="91" t="n"/>
+      <c r="D127" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G125" s="88" t="n"/>
-      <c r="H125" s="98" t="n"/>
-      <c r="I125" s="98" t="n"/>
-      <c r="J125" s="98" t="n"/>
-    </row>
-    <row customFormat="1" r="126" s="125" spans="1:22">
-      <c r="B126" s="87" t="n"/>
-      <c r="C126" s="87" t="n"/>
-      <c r="D126" s="62" t="s">
+      <c r="G127" s="72" t="n"/>
+      <c r="H127" s="128" t="n"/>
+      <c r="I127" s="128" t="n"/>
+      <c r="J127" s="128" t="n"/>
+      <c r="L127" s="88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row customFormat="1" r="128" s="147" spans="1:22">
+      <c r="B128" s="91" t="n"/>
+      <c r="C128" s="91" t="n"/>
+      <c r="D128" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E126" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="F126" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="G126" s="88" t="n"/>
-      <c r="H126" s="98" t="n"/>
-      <c r="I126" s="98" t="n"/>
-      <c r="J126" s="98" t="n"/>
-      <c r="L126" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row customFormat="1" r="127" s="125" spans="1:22">
-      <c r="B127" s="87" t="n"/>
-      <c r="C127" s="87" t="n"/>
-      <c r="D127" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E127" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="F127" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="G127" s="88" t="n"/>
-      <c r="H127" s="98" t="n"/>
-      <c r="I127" s="98" t="n"/>
-      <c r="J127" s="98" t="n"/>
-    </row>
-    <row r="128" spans="1:22">
-      <c r="B128" s="87" t="n"/>
-      <c r="C128" s="87" t="n"/>
-      <c r="D128" s="62" t="n"/>
-      <c r="E128" s="62" t="n"/>
-      <c r="F128" s="43">
-        <f>DEC2HEX(D128)</f>
-        <v/>
-      </c>
-      <c r="G128" s="88" t="n"/>
-      <c r="H128" s="98" t="n"/>
-      <c r="I128" s="98" t="n"/>
-      <c r="J128" s="98" t="n"/>
-      <c r="K128" s="125" t="n"/>
-      <c r="L128" s="125" t="n"/>
-      <c r="M128" s="125" t="n"/>
+      <c r="G128" s="72" t="n"/>
+      <c r="H128" s="128" t="n"/>
+      <c r="I128" s="128" t="n"/>
+      <c r="J128" s="128" t="n"/>
+      <c r="L128" s="88" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="B129" s="87" t="n"/>
-      <c r="C129" s="87" t="n"/>
+      <c r="B129" s="91" t="n"/>
+      <c r="C129" s="91" t="n"/>
       <c r="D129" s="62" t="n"/>
       <c r="E129" s="62" t="n"/>
       <c r="F129" s="43">
         <f>DEC2HEX(D129)</f>
         <v/>
       </c>
-      <c r="G129" s="88" t="n"/>
-      <c r="H129" s="98" t="n"/>
-      <c r="I129" s="98" t="n"/>
-      <c r="J129" s="98" t="n"/>
-      <c r="K129" s="125" t="n"/>
-      <c r="L129" s="125" t="n"/>
-      <c r="M129" s="125" t="n"/>
+      <c r="G129" s="72" t="n"/>
+      <c r="H129" s="128" t="n"/>
+      <c r="I129" s="128" t="n"/>
+      <c r="J129" s="128" t="n"/>
+      <c r="K129" s="147" t="n"/>
+      <c r="L129" s="88" t="n"/>
+      <c r="M129" s="147" t="n"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="B130" s="87" t="n"/>
-      <c r="C130" s="87" t="n"/>
+      <c r="B130" s="91" t="n"/>
+      <c r="C130" s="91" t="n"/>
       <c r="D130" s="62" t="n"/>
       <c r="E130" s="62" t="n"/>
       <c r="F130" s="43">
         <f>DEC2HEX(D130)</f>
         <v/>
       </c>
-      <c r="G130" s="88" t="n"/>
-      <c r="H130" s="98" t="n"/>
-      <c r="I130" s="98" t="n"/>
-      <c r="J130" s="98" t="n"/>
-      <c r="K130" s="125" t="n"/>
-      <c r="L130" s="125" t="n"/>
-      <c r="M130" s="125" t="n"/>
+      <c r="G130" s="72" t="n"/>
+      <c r="H130" s="128" t="n"/>
+      <c r="I130" s="128" t="n"/>
+      <c r="J130" s="128" t="n"/>
+      <c r="K130" s="147" t="n"/>
+      <c r="L130" s="88" t="n"/>
+      <c r="M130" s="147" t="n"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="B131" s="87" t="n"/>
-      <c r="C131" s="87" t="n"/>
+      <c r="B131" s="91" t="n"/>
+      <c r="C131" s="91" t="n"/>
       <c r="D131" s="62" t="n"/>
       <c r="E131" s="62" t="n"/>
       <c r="F131" s="43">
         <f>DEC2HEX(D131)</f>
         <v/>
       </c>
-      <c r="G131" s="88" t="n"/>
-      <c r="H131" s="98" t="n"/>
-      <c r="I131" s="98" t="n"/>
-      <c r="J131" s="98" t="n"/>
-      <c r="K131" s="125" t="n"/>
-      <c r="L131" s="125" t="n"/>
-      <c r="M131" s="125" t="n"/>
+      <c r="G131" s="72" t="n"/>
+      <c r="H131" s="128" t="n"/>
+      <c r="I131" s="128" t="n"/>
+      <c r="J131" s="128" t="n"/>
+      <c r="K131" s="147" t="n"/>
+      <c r="L131" s="88" t="n"/>
+      <c r="M131" s="147" t="n"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="B132" s="87" t="n"/>
-      <c r="C132" s="87" t="n"/>
+      <c r="B132" s="91" t="n"/>
+      <c r="C132" s="91" t="n"/>
       <c r="D132" s="62" t="n"/>
       <c r="E132" s="62" t="n"/>
       <c r="F132" s="43">
         <f>DEC2HEX(D132)</f>
         <v/>
       </c>
-      <c r="G132" s="88" t="n"/>
-      <c r="H132" s="98" t="n"/>
-      <c r="I132" s="98" t="n"/>
-      <c r="J132" s="98" t="n"/>
-      <c r="K132" s="125" t="n"/>
-      <c r="L132" s="125" t="n"/>
-      <c r="M132" s="125" t="n"/>
+      <c r="G132" s="72" t="n"/>
+      <c r="H132" s="128" t="n"/>
+      <c r="I132" s="128" t="n"/>
+      <c r="J132" s="128" t="n"/>
+      <c r="K132" s="147" t="n"/>
+      <c r="L132" s="88" t="n"/>
+      <c r="M132" s="147" t="n"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="B133" s="87" t="n"/>
-      <c r="C133" s="87" t="n"/>
+      <c r="B133" s="91" t="n"/>
+      <c r="C133" s="91" t="n"/>
       <c r="D133" s="62" t="n"/>
       <c r="E133" s="62" t="n"/>
       <c r="F133" s="43">
         <f>DEC2HEX(D133)</f>
         <v/>
       </c>
-      <c r="G133" s="88" t="n"/>
-      <c r="H133" s="98" t="n"/>
-      <c r="I133" s="98" t="n"/>
-      <c r="J133" s="98" t="n"/>
-      <c r="K133" s="125" t="n"/>
-      <c r="L133" s="125" t="n"/>
-      <c r="M133" s="125" t="n"/>
+      <c r="G133" s="72" t="n"/>
+      <c r="H133" s="128" t="n"/>
+      <c r="I133" s="128" t="n"/>
+      <c r="J133" s="128" t="n"/>
+      <c r="K133" s="147" t="n"/>
+      <c r="L133" s="88" t="n"/>
+      <c r="M133" s="147" t="n"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="B134" s="87" t="n"/>
-      <c r="C134" s="87" t="n"/>
-      <c r="D134" s="87" t="n"/>
-      <c r="E134" s="87" t="n"/>
-      <c r="F134" s="87" t="n"/>
-      <c r="G134" s="87" t="n"/>
-      <c r="H134" s="98" t="n"/>
-      <c r="I134" s="98" t="n"/>
-      <c r="J134" s="98" t="n"/>
-      <c r="K134" s="125" t="n"/>
-      <c r="L134" s="125" t="n"/>
-      <c r="M134" s="125" t="n"/>
+      <c r="B134" s="91" t="n"/>
+      <c r="C134" s="91" t="n"/>
+      <c r="D134" s="62" t="n"/>
+      <c r="E134" s="62" t="n"/>
+      <c r="F134" s="43">
+        <f>DEC2HEX(D134)</f>
+        <v/>
+      </c>
+      <c r="G134" s="72" t="n"/>
+      <c r="H134" s="128" t="n"/>
+      <c r="I134" s="128" t="n"/>
+      <c r="J134" s="128" t="n"/>
+      <c r="K134" s="147" t="n"/>
+      <c r="L134" s="89" t="n"/>
+      <c r="M134" s="147" t="n"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="B135" s="87" t="s">
+      <c r="B135" s="91" t="n"/>
+      <c r="C135" s="91" t="n"/>
+      <c r="D135" s="91" t="n"/>
+      <c r="E135" s="91" t="n"/>
+      <c r="F135" s="91" t="n"/>
+      <c r="G135" s="91" t="n"/>
+      <c r="H135" s="128" t="n"/>
+      <c r="I135" s="128" t="n"/>
+      <c r="J135" s="128" t="n"/>
+      <c r="K135" s="147" t="n"/>
+      <c r="L135" s="147" t="n"/>
+      <c r="M135" s="147" t="n"/>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="B136" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="G136" s="158" t="n"/>
+      <c r="H136" s="128" t="n"/>
+      <c r="I136" s="128" t="n"/>
+      <c r="J136" s="128" t="n"/>
+      <c r="K136" s="147" t="n"/>
+      <c r="L136" s="137" t="n"/>
+      <c r="M136" s="147" t="n"/>
+    </row>
+    <row r="137" spans="1:22">
+      <c r="B137" s="91" t="n"/>
+      <c r="C137" s="91" t="n"/>
+      <c r="D137" s="91" t="n"/>
+      <c r="E137" s="91" t="n"/>
+      <c r="F137" s="91" t="n"/>
+      <c r="G137" s="91" t="n"/>
+      <c r="H137" s="128" t="n"/>
+      <c r="I137" s="128" t="n"/>
+      <c r="J137" s="128" t="n"/>
+      <c r="K137" s="147" t="n"/>
+      <c r="L137" s="137" t="n"/>
+      <c r="M137" s="147" t="n"/>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="B138" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C135" s="87" t="s">
+      <c r="D138" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="D135" s="129" t="s">
+      <c r="E138" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="G135" s="129" t="n"/>
-      <c r="H135" s="98" t="n"/>
-      <c r="I135" s="98" t="n"/>
-      <c r="J135" s="98" t="n"/>
-      <c r="K135" s="125" t="n"/>
-      <c r="L135" s="125" t="n"/>
-      <c r="M135" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="136" s="117" spans="1:22" thickBot="1">
-      <c r="B136" s="87" t="n"/>
-      <c r="C136" s="87" t="n"/>
-      <c r="D136" s="87" t="n"/>
-      <c r="E136" s="87" t="n"/>
-      <c r="F136" s="87" t="n"/>
-      <c r="G136" s="87" t="n"/>
-      <c r="H136" s="98" t="n"/>
-      <c r="I136" s="98" t="n"/>
-      <c r="J136" s="98" t="n"/>
-      <c r="K136" s="125" t="n"/>
-      <c r="L136" s="125" t="s">
+      <c r="F138" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="M136" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="137" s="117" spans="1:22" thickBot="1">
-      <c r="B137" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C137" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D137" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E137" s="75" t="s">
+      <c r="G138" s="91" t="n"/>
+      <c r="H138" s="128" t="n"/>
+      <c r="I138" s="128" t="n"/>
+      <c r="J138" s="128" t="n"/>
+      <c r="K138" s="147" t="n"/>
+      <c r="L138" s="173" t="s">
+        <v>169</v>
+      </c>
+      <c r="M138" s="147" t="n"/>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="B139" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="E139" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G139" s="91" t="n"/>
+      <c r="H139" s="128" t="n"/>
+      <c r="I139" s="128" t="n"/>
+      <c r="J139" s="128" t="n"/>
+      <c r="K139" s="147" t="n"/>
+      <c r="L139" s="137" t="n"/>
+      <c r="M139" s="147" t="n"/>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="B140" s="100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D140" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="F140" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G140" s="91" t="n"/>
+      <c r="H140" s="128" t="n"/>
+      <c r="I140" s="128" t="n"/>
+      <c r="J140" s="128" t="n"/>
+      <c r="K140" s="147" t="n"/>
+      <c r="L140" s="137" t="n"/>
+      <c r="M140" s="147" t="n"/>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="B141" s="100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F141" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G141" s="91" t="n"/>
+      <c r="H141" s="128" t="n"/>
+      <c r="I141" s="128" t="n"/>
+      <c r="J141" s="128" t="n"/>
+      <c r="K141" s="147" t="n"/>
+      <c r="L141" s="137" t="n"/>
+      <c r="M141" s="147" t="n"/>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="B142" s="100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="F142" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G142" s="91" t="n"/>
+      <c r="H142" s="128" t="n"/>
+      <c r="I142" s="128" t="n"/>
+      <c r="J142" s="128" t="n"/>
+      <c r="K142" s="147" t="n"/>
+      <c r="L142" s="137" t="n"/>
+      <c r="M142" s="147" t="n"/>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="B143" s="100" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="F143" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G143" s="91" t="n"/>
+      <c r="H143" s="128" t="n"/>
+      <c r="I143" s="128" t="n"/>
+      <c r="J143" s="128" t="n"/>
+      <c r="K143" s="147" t="n"/>
+      <c r="L143" s="137" t="n"/>
+      <c r="M143" s="147" t="n"/>
+    </row>
+    <row r="144" spans="1:22">
+      <c r="B144" s="100" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E144" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="F144" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G144" s="91" t="n"/>
+      <c r="H144" s="128" t="n"/>
+      <c r="I144" s="128" t="n"/>
+      <c r="J144" s="128" t="n"/>
+      <c r="K144" s="147" t="n"/>
+      <c r="L144" s="137" t="n"/>
+      <c r="M144" s="147" t="n"/>
+    </row>
+    <row r="145" spans="1:22">
+      <c r="B145" s="100" t="n">
+        <v>6</v>
+      </c>
+      <c r="C145" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="E145" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="F145" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G145" s="91" t="n"/>
+      <c r="H145" s="128" t="n"/>
+      <c r="I145" s="128" t="n"/>
+      <c r="J145" s="128" t="n"/>
+      <c r="K145" s="147" t="n"/>
+      <c r="L145" s="137" t="n"/>
+      <c r="M145" s="147" t="n"/>
+    </row>
+    <row r="146" s="140" spans="1:22">
+      <c r="B146" s="100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C146" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="F146" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" s="91" t="n"/>
+      <c r="H146" s="128" t="n"/>
+      <c r="I146" s="128" t="n"/>
+      <c r="J146" s="128" t="n"/>
+      <c r="K146" s="147" t="n"/>
+      <c r="L146" s="137" t="n"/>
+      <c r="M146" s="147" t="n"/>
+    </row>
+    <row r="147" s="140" spans="1:22">
+      <c r="B147" s="100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C147" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="F147" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G147" s="91" t="n"/>
+      <c r="H147" s="128" t="n"/>
+      <c r="I147" s="128" t="n"/>
+      <c r="J147" s="128" t="n"/>
+      <c r="K147" s="147" t="n"/>
+      <c r="L147" s="137" t="n"/>
+      <c r="M147" s="147" t="n"/>
+    </row>
+    <row r="148" s="140" spans="1:22">
+      <c r="B148" s="100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="F148" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" s="91" t="n"/>
+      <c r="H148" s="128" t="n"/>
+      <c r="I148" s="128" t="n"/>
+      <c r="J148" s="128" t="n"/>
+      <c r="K148" s="147" t="n"/>
+      <c r="L148" s="137" t="n"/>
+      <c r="M148" s="147" t="n"/>
+    </row>
+    <row r="149" s="140" spans="1:22">
+      <c r="B149" s="100" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="E149" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="F149" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" s="91" t="n"/>
+      <c r="H149" s="128" t="n"/>
+      <c r="I149" s="128" t="n"/>
+      <c r="J149" s="128" t="n"/>
+      <c r="K149" s="147" t="n"/>
+      <c r="L149" s="137" t="n"/>
+      <c r="M149" s="147" t="n"/>
+    </row>
+    <row r="150" s="140" spans="1:22">
+      <c r="B150" s="100" t="n">
+        <v>11</v>
+      </c>
+      <c r="C150" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="E150" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="F150" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G150" s="91" t="n"/>
+      <c r="H150" s="128" t="n"/>
+      <c r="I150" s="128" t="n"/>
+      <c r="J150" s="128" t="n"/>
+      <c r="K150" s="147" t="n"/>
+      <c r="L150" s="137" t="n"/>
+      <c r="M150" s="147" t="n"/>
+    </row>
+    <row r="151" s="140" spans="1:22">
+      <c r="B151" s="100" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="F151" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G151" s="91" t="n"/>
+      <c r="H151" s="128" t="n"/>
+      <c r="I151" s="128" t="n"/>
+      <c r="J151" s="128" t="n"/>
+      <c r="K151" s="147" t="n"/>
+      <c r="L151" s="137" t="n"/>
+      <c r="M151" s="147" t="n"/>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="B152" s="100" t="n">
+        <v>13</v>
+      </c>
+      <c r="C152" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E152" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F152" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G152" s="91" t="n"/>
+      <c r="H152" s="128" t="n"/>
+      <c r="I152" s="128" t="n"/>
+      <c r="J152" s="128" t="n"/>
+      <c r="K152" s="147" t="n"/>
+      <c r="L152" s="137" t="n"/>
+      <c r="M152" s="147" t="n"/>
+    </row>
+    <row r="153" s="140" spans="1:22">
+      <c r="B153" s="100" t="n">
+        <v>14</v>
+      </c>
+      <c r="C153" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E153" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="F153" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G153" s="91" t="n"/>
+      <c r="H153" s="128" t="n"/>
+      <c r="I153" s="128" t="n"/>
+      <c r="J153" s="128" t="n"/>
+      <c r="K153" s="147" t="n"/>
+      <c r="L153" s="137" t="n"/>
+      <c r="M153" s="147" t="n"/>
+    </row>
+    <row r="154" s="140" spans="1:22">
+      <c r="B154" s="100" t="n">
+        <v>15</v>
+      </c>
+      <c r="C154" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F154" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G154" s="91" t="n"/>
+      <c r="H154" s="128" t="n"/>
+      <c r="I154" s="128" t="n"/>
+      <c r="J154" s="128" t="n"/>
+      <c r="K154" s="147" t="n"/>
+      <c r="L154" s="137" t="n"/>
+      <c r="M154" s="147" t="n"/>
+    </row>
+    <row r="155" s="140" spans="1:22">
+      <c r="B155" s="100" t="n">
+        <v>16</v>
+      </c>
+      <c r="C155" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="E155" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F155" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G155" s="91" t="n"/>
+      <c r="H155" s="128" t="n"/>
+      <c r="I155" s="128" t="n"/>
+      <c r="J155" s="128" t="n"/>
+      <c r="K155" s="147" t="n"/>
+      <c r="L155" s="137" t="n"/>
+      <c r="M155" s="147" t="n"/>
+    </row>
+    <row r="156" s="140" spans="1:22">
+      <c r="B156" s="100" t="n">
+        <v>17</v>
+      </c>
+      <c r="C156" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="F156" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G156" s="91" t="n"/>
+      <c r="H156" s="128" t="n"/>
+      <c r="I156" s="128" t="n"/>
+      <c r="J156" s="128" t="n"/>
+      <c r="K156" s="147" t="n"/>
+      <c r="L156" s="137" t="n"/>
+      <c r="M156" s="147" t="n"/>
+    </row>
+    <row r="157" s="140" spans="1:22">
+      <c r="B157" s="100" t="n">
+        <v>18</v>
+      </c>
+      <c r="C157" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E157" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="F157" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G157" s="91" t="n"/>
+      <c r="H157" s="128" t="n"/>
+      <c r="I157" s="128" t="n"/>
+      <c r="J157" s="128" t="n"/>
+      <c r="K157" s="147" t="n"/>
+      <c r="L157" s="137" t="n"/>
+      <c r="M157" s="147" t="n"/>
+    </row>
+    <row r="158" s="140" spans="1:22">
+      <c r="B158" s="100" t="n">
+        <v>19</v>
+      </c>
+      <c r="C158" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="E158" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="F158" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G158" s="91" t="n"/>
+      <c r="H158" s="128" t="n"/>
+      <c r="I158" s="128" t="n"/>
+      <c r="J158" s="128" t="n"/>
+      <c r="K158" s="147" t="n"/>
+      <c r="L158" s="137" t="n"/>
+      <c r="M158" s="147" t="n"/>
+    </row>
+    <row r="159" s="140" spans="1:22">
+      <c r="B159" s="100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C159" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E159" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="F159" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G159" s="91" t="n"/>
+      <c r="H159" s="128" t="n"/>
+      <c r="I159" s="128" t="n"/>
+      <c r="J159" s="128" t="n"/>
+      <c r="K159" s="147" t="n"/>
+      <c r="L159" s="137" t="n"/>
+      <c r="M159" s="147" t="n"/>
+    </row>
+    <row r="160" s="140" spans="1:22">
+      <c r="B160" s="100" t="n">
+        <v>21</v>
+      </c>
+      <c r="C160" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E160" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F160" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G160" s="91" t="n"/>
+      <c r="H160" s="128" t="n"/>
+      <c r="I160" s="128" t="n"/>
+      <c r="J160" s="128" t="n"/>
+      <c r="K160" s="147" t="n"/>
+      <c r="L160" s="137" t="n"/>
+      <c r="M160" s="147" t="n"/>
+    </row>
+    <row r="161" s="140" spans="1:22">
+      <c r="B161" s="100" t="n">
+        <v>22</v>
+      </c>
+      <c r="C161" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E161" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="F161" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G161" s="91" t="n"/>
+      <c r="H161" s="128" t="n"/>
+      <c r="I161" s="128" t="n"/>
+      <c r="J161" s="128" t="n"/>
+      <c r="K161" s="147" t="n"/>
+      <c r="L161" s="137" t="n"/>
+      <c r="M161" s="147" t="n"/>
+    </row>
+    <row r="162" s="140" spans="1:22">
+      <c r="B162" s="100" t="n">
+        <v>23</v>
+      </c>
+      <c r="C162" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="E162" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="F162" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G162" s="91" t="n"/>
+      <c r="H162" s="128" t="n"/>
+      <c r="I162" s="128" t="n"/>
+      <c r="J162" s="128" t="n"/>
+      <c r="K162" s="147" t="n"/>
+      <c r="L162" s="137" t="n"/>
+      <c r="M162" s="147" t="n"/>
+    </row>
+    <row r="163" s="140" spans="1:22">
+      <c r="B163" s="100" t="n">
+        <v>24</v>
+      </c>
+      <c r="C163" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E163" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="F163" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G163" s="91" t="n"/>
+      <c r="H163" s="128" t="n"/>
+      <c r="I163" s="128" t="n"/>
+      <c r="J163" s="128" t="n"/>
+      <c r="K163" s="147" t="n"/>
+      <c r="L163" s="137" t="n"/>
+      <c r="M163" s="147" t="n"/>
+    </row>
+    <row r="164" s="140" spans="1:22">
+      <c r="B164" s="100" t="n">
+        <v>25</v>
+      </c>
+      <c r="C164" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="E164" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="F164" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G164" s="91" t="n"/>
+      <c r="H164" s="128" t="n"/>
+      <c r="I164" s="128" t="n"/>
+      <c r="J164" s="128" t="n"/>
+      <c r="K164" s="147" t="n"/>
+      <c r="L164" s="137" t="n"/>
+      <c r="M164" s="147" t="n"/>
+    </row>
+    <row r="165" s="140" spans="1:22">
+      <c r="B165" s="100" t="n">
+        <v>26</v>
+      </c>
+      <c r="C165" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="E165" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="F165" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G165" s="91" t="n"/>
+      <c r="H165" s="128" t="n"/>
+      <c r="I165" s="128" t="n"/>
+      <c r="J165" s="128" t="n"/>
+      <c r="K165" s="147" t="n"/>
+      <c r="L165" s="137" t="n"/>
+      <c r="M165" s="147" t="n"/>
+    </row>
+    <row r="166" s="140" spans="1:22">
+      <c r="B166" s="100" t="n">
+        <v>27</v>
+      </c>
+      <c r="C166" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E166" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="F166" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G166" s="91" t="n"/>
+      <c r="H166" s="128" t="n"/>
+      <c r="I166" s="128" t="n"/>
+      <c r="J166" s="128" t="n"/>
+      <c r="K166" s="147" t="n"/>
+      <c r="L166" s="137" t="n"/>
+      <c r="M166" s="147" t="n"/>
+    </row>
+    <row r="167" s="140" spans="1:22">
+      <c r="B167" s="100" t="n">
+        <v>28</v>
+      </c>
+      <c r="C167" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="F167" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G167" s="91" t="n"/>
+      <c r="H167" s="128" t="n"/>
+      <c r="I167" s="128" t="n"/>
+      <c r="J167" s="128" t="n"/>
+      <c r="K167" s="147" t="n"/>
+      <c r="L167" s="137" t="n"/>
+      <c r="M167" s="147" t="n"/>
+    </row>
+    <row r="168" s="140" spans="1:22">
+      <c r="B168" s="100" t="n"/>
+      <c r="C168" s="103" t="n"/>
+      <c r="D168" s="103" t="n"/>
+      <c r="E168" s="103" t="n"/>
+      <c r="F168" s="92" t="n"/>
+      <c r="G168" s="91" t="n"/>
+      <c r="H168" s="128" t="n"/>
+      <c r="I168" s="128" t="n"/>
+      <c r="J168" s="128" t="n"/>
+      <c r="K168" s="147" t="n"/>
+      <c r="L168" s="137" t="n"/>
+      <c r="M168" s="147" t="n"/>
+    </row>
+    <row r="169" spans="1:22">
+      <c r="B169" s="101" t="n"/>
+      <c r="C169" s="104" t="n"/>
+      <c r="D169" s="104" t="n"/>
+      <c r="E169" s="104" t="n"/>
+      <c r="F169" s="93" t="n"/>
+      <c r="G169" s="91" t="n"/>
+      <c r="H169" s="128" t="n"/>
+      <c r="I169" s="128" t="n"/>
+      <c r="J169" s="128" t="n"/>
+      <c r="K169" s="147" t="n"/>
+      <c r="L169" s="137" t="n"/>
+      <c r="M169" s="147" t="n"/>
+    </row>
+    <row r="170" spans="1:22">
+      <c r="B170" s="91" t="n"/>
+      <c r="C170" s="91" t="n"/>
+      <c r="D170" s="91" t="n"/>
+      <c r="E170" s="91" t="n"/>
+      <c r="F170" s="91" t="n"/>
+      <c r="G170" s="91" t="n"/>
+      <c r="H170" s="128" t="n"/>
+      <c r="I170" s="128" t="n"/>
+      <c r="J170" s="128" t="n"/>
+      <c r="K170" s="65" t="n"/>
+      <c r="L170" s="135" t="n"/>
+    </row>
+    <row r="171" spans="1:22">
+      <c r="B171" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C171" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D171" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F171" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="G171" s="91" t="n"/>
+      <c r="H171" s="128" t="n"/>
+      <c r="I171" s="128" t="n"/>
+      <c r="J171" s="128" t="n"/>
+      <c r="L171" s="173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="B172" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C172" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D172" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E172" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="F172" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="G172" s="91" t="n"/>
+      <c r="H172" s="128" t="n"/>
+      <c r="I172" s="128" t="n"/>
+      <c r="J172" s="128" t="n"/>
+      <c r="L172" s="173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
+      <c r="B173" s="91" t="n"/>
+      <c r="C173" s="91" t="n"/>
+      <c r="D173" s="91" t="n"/>
+      <c r="E173" s="91" t="n"/>
+      <c r="F173" s="91" t="n"/>
+      <c r="G173" s="91" t="n"/>
+      <c r="H173" s="128" t="n"/>
+      <c r="I173" s="128" t="n"/>
+      <c r="J173" s="128" t="n"/>
+      <c r="K173" s="147" t="n"/>
+      <c r="L173" s="137" t="n"/>
+      <c r="M173" s="147" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="174" s="140" spans="1:22" thickBot="1">
+      <c r="B174" s="91" t="n"/>
+      <c r="C174" s="91" t="n"/>
+      <c r="D174" s="91" t="n"/>
+      <c r="E174" s="32" t="n"/>
+      <c r="F174" s="91" t="n"/>
+      <c r="G174" s="91" t="n"/>
+      <c r="H174" s="128" t="n"/>
+      <c r="I174" s="128" t="n"/>
+      <c r="J174" s="128" t="n"/>
+      <c r="K174" s="147" t="n"/>
+      <c r="L174" s="137" t="n"/>
+      <c r="M174" s="147" t="n"/>
+    </row>
+    <row r="175" spans="1:22">
+      <c r="B175" s="42" t="n"/>
+      <c r="C175" s="166" t="n"/>
+      <c r="D175" s="166" t="s">
+        <v>234</v>
+      </c>
+      <c r="F175" s="166" t="n"/>
+      <c r="G175" s="164" t="n"/>
+      <c r="H175" s="55" t="n"/>
+      <c r="I175" s="56" t="n"/>
+      <c r="J175" s="49" t="n"/>
+      <c r="K175" s="147" t="n"/>
+      <c r="L175" s="137" t="n"/>
+      <c r="M175" s="147" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="176" s="140" spans="1:22" thickBot="1">
+      <c r="B176" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D176" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E176" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F176" s="36" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G176" s="34" t="n"/>
+      <c r="H176" s="52" t="n"/>
+      <c r="I176" s="53" t="n"/>
+      <c r="J176" s="54" t="n"/>
+      <c r="K176" s="147" t="n"/>
+      <c r="L176" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="M176" s="147" t="n"/>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="H177" s="48" t="n"/>
+      <c r="I177" s="48" t="n"/>
+      <c r="J177" s="48" t="n"/>
+      <c r="L177" s="135" t="n"/>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="B178" s="91" t="n"/>
+      <c r="C178" s="91" t="n"/>
+      <c r="D178" s="72" t="n"/>
+      <c r="E178" s="91" t="n"/>
+      <c r="F178" s="91" t="n"/>
+      <c r="G178" s="91" t="n"/>
+      <c r="H178" s="128" t="n"/>
+      <c r="I178" s="128" t="n"/>
+      <c r="J178" s="128" t="n"/>
+      <c r="L178" s="135" t="n"/>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="B179" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C179" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="D179" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="E179" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="F179" s="91" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G179" s="91" t="n"/>
+      <c r="H179" s="128" t="n"/>
+      <c r="I179" s="128" t="n"/>
+      <c r="J179" s="128" t="n"/>
+      <c r="L179" s="173" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="B180" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C180" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="E180" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="F180" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="G180" s="91" t="n"/>
+      <c r="H180" s="128" t="n"/>
+      <c r="I180" s="128" t="n"/>
+      <c r="J180" s="128" t="n"/>
+      <c r="L180" s="173" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="B181" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C181" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="D181" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="E181" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="F181" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="G181" s="91" t="n"/>
+      <c r="H181" s="128" t="n"/>
+      <c r="I181" s="128" t="n"/>
+      <c r="J181" s="128" t="n"/>
+      <c r="L181" s="173" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="B182" s="91" t="n"/>
+      <c r="C182" s="91" t="n"/>
+      <c r="D182" s="91" t="n"/>
+      <c r="E182" s="91" t="n"/>
+      <c r="F182" s="91" t="n"/>
+      <c r="G182" s="91" t="n"/>
+      <c r="H182" s="128" t="n"/>
+      <c r="I182" s="128" t="n"/>
+      <c r="J182" s="128" t="n"/>
+      <c r="L182" s="135" t="n"/>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="B183" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C183" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D183" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E183" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F183" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="G183" s="91" t="n"/>
+      <c r="H183" s="128" t="n"/>
+      <c r="I183" s="128" t="n"/>
+      <c r="J183" s="128" t="n"/>
+      <c r="L183" s="173" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="B184" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D184" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E184" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="F184" s="91" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G184" s="91" t="n"/>
+      <c r="H184" s="128" t="n"/>
+      <c r="I184" s="128" t="n"/>
+      <c r="J184" s="128" t="n"/>
+      <c r="L184" s="173" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="B185" s="91" t="n"/>
+      <c r="C185" s="91" t="n"/>
+      <c r="D185" s="91" t="n"/>
+      <c r="E185" s="91" t="n"/>
+      <c r="F185" s="91" t="n"/>
+      <c r="G185" s="91" t="n"/>
+      <c r="H185" s="48" t="n"/>
+      <c r="I185" s="48" t="n"/>
+      <c r="J185" s="48" t="n"/>
+      <c r="L185" s="135" t="n"/>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="B186" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="C186" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="D186" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="E186" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="F186" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="G186" s="91" t="n"/>
+      <c r="H186" s="128" t="n"/>
+      <c r="I186" s="128" t="n"/>
+      <c r="J186" s="128" t="n"/>
+      <c r="L186" s="173" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="B187" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="C187" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D187" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="E187" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="F187" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="G187" s="91" t="n"/>
+      <c r="H187" s="128" t="n"/>
+      <c r="I187" s="128" t="n"/>
+      <c r="J187" s="128" t="n"/>
+      <c r="L187" s="173" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="188" s="140" spans="1:22" thickBot="1">
+      <c r="B188" s="91" t="n"/>
+      <c r="C188" s="91" t="n"/>
+      <c r="D188" s="91" t="n"/>
+      <c r="E188" s="32" t="n"/>
+      <c r="F188" s="91" t="n"/>
+      <c r="L188" s="135" t="n"/>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="B189" s="28" t="n"/>
+      <c r="C189" s="29" t="n"/>
+      <c r="D189" s="149" t="s">
+        <v>269</v>
+      </c>
+      <c r="F189" s="29" t="n"/>
+      <c r="G189" s="29" t="n"/>
+      <c r="H189" s="55" t="n"/>
+      <c r="I189" s="55" t="n"/>
+      <c r="J189" s="49" t="n"/>
+      <c r="L189" s="135" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="190" s="140" spans="1:22" thickBot="1">
+      <c r="B190" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C190" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="D190" s="131" t="s">
+        <v>271</v>
+      </c>
+      <c r="E190" s="131" t="s">
+        <v>272</v>
+      </c>
+      <c r="F190" s="131" t="n">
+        <v>500</v>
+      </c>
+      <c r="G190" s="32" t="n"/>
+      <c r="H190" s="52" t="n"/>
+      <c r="I190" s="53" t="n"/>
+      <c r="J190" s="54" t="n"/>
+      <c r="L190" s="173" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="B191" s="91" t="n"/>
+      <c r="C191" s="91" t="n"/>
+      <c r="D191" s="91" t="n"/>
+      <c r="E191" s="91" t="n"/>
+      <c r="F191" s="91" t="n"/>
+      <c r="G191" s="91" t="n"/>
+      <c r="L191" s="135" t="n"/>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="B192" s="91" t="n"/>
+      <c r="C192" s="91" t="n"/>
+      <c r="D192" s="91" t="n"/>
+      <c r="E192" s="91" t="n"/>
+      <c r="F192" s="91" t="n"/>
+      <c r="G192" s="91" t="n"/>
+      <c r="H192" s="48" t="n"/>
+      <c r="I192" s="48" t="n"/>
+      <c r="J192" s="48" t="n"/>
+      <c r="L192" s="135" t="n"/>
+    </row>
+    <row r="193" spans="1:22">
+      <c r="B193" s="91" t="n"/>
+      <c r="C193" s="91" t="n"/>
+      <c r="D193" s="91" t="n"/>
+      <c r="E193" s="91" t="n"/>
+      <c r="F193" s="91" t="n"/>
+      <c r="G193" s="91" t="n"/>
+      <c r="H193" s="48" t="n"/>
+      <c r="I193" s="48" t="n"/>
+      <c r="J193" s="48" t="n"/>
+      <c r="L193" s="135" t="n"/>
+    </row>
+    <row r="194" spans="1:22">
+      <c r="B194" s="91" t="n"/>
+      <c r="C194" s="91" t="n"/>
+      <c r="D194" s="91" t="n"/>
+      <c r="E194" s="91" t="n"/>
+      <c r="F194" s="91" t="n"/>
+      <c r="G194" s="91" t="n"/>
+      <c r="H194" s="48" t="n"/>
+      <c r="I194" s="48" t="n"/>
+      <c r="J194" s="48" t="n"/>
+      <c r="L194" s="135" t="n"/>
+    </row>
+    <row r="195" spans="1:22">
+      <c r="B195" s="91" t="n"/>
+      <c r="C195" s="91" t="n"/>
+      <c r="D195" s="91" t="n"/>
+      <c r="E195" s="91" t="n"/>
+      <c r="F195" s="91" t="n"/>
+      <c r="G195" s="91" t="n"/>
+      <c r="H195" s="48" t="n"/>
+      <c r="I195" s="48" t="n"/>
+      <c r="J195" s="48" t="n"/>
+      <c r="L195" s="135" t="n"/>
+    </row>
+    <row r="196" spans="1:22">
+      <c r="B196" s="91" t="n"/>
+      <c r="C196" s="91" t="n"/>
+      <c r="D196" s="91" t="n"/>
+      <c r="E196" s="91" t="n"/>
+      <c r="F196" s="91" t="n"/>
+      <c r="G196" s="91" t="n"/>
+      <c r="H196" s="48" t="n"/>
+      <c r="I196" s="48" t="n"/>
+      <c r="J196" s="48" t="n"/>
+      <c r="L196" s="135" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="197" s="140" spans="1:22">
+      <c r="B197" s="116" t="n"/>
+      <c r="C197" s="116" t="n"/>
+      <c r="D197" s="116" t="n"/>
+      <c r="E197" s="116" t="n"/>
+      <c r="F197" s="116" t="n"/>
+      <c r="G197" s="91" t="n"/>
+      <c r="H197" s="48" t="n"/>
+      <c r="I197" s="48" t="n"/>
+      <c r="J197" s="48" t="n"/>
+      <c r="L197" s="135" t="n"/>
+    </row>
+    <row r="198" spans="1:22">
+      <c r="A198" s="120" t="n"/>
+      <c r="B198" s="165" t="s">
+        <v>273</v>
+      </c>
+      <c r="G198" s="114" t="n"/>
+      <c r="H198" s="128" t="n"/>
+      <c r="I198" s="128" t="n"/>
+      <c r="J198" s="128" t="n"/>
+      <c r="L198" s="173" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="199" s="140" spans="1:22">
+      <c r="A199" s="120" t="n"/>
+      <c r="G199" s="114" t="n"/>
+      <c r="H199" s="48" t="n"/>
+      <c r="I199" s="48" t="n"/>
+      <c r="J199" s="48" t="n"/>
+      <c r="L199" s="135" t="n"/>
+    </row>
+    <row r="200" spans="1:22">
+      <c r="B200" s="115" t="n"/>
+      <c r="C200" s="115" t="n"/>
+      <c r="D200" s="115" t="n"/>
+      <c r="E200" s="115" t="n"/>
+      <c r="F200" s="115" t="n"/>
+      <c r="G200" s="91" t="n"/>
+      <c r="H200" s="48" t="n"/>
+      <c r="I200" s="48" t="n"/>
+      <c r="J200" s="48" t="n"/>
+      <c r="L200" s="135" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="201" s="140" spans="1:22" thickBot="1">
+      <c r="B201" s="91" t="n"/>
+      <c r="C201" s="91" t="n"/>
+      <c r="D201" s="91" t="n"/>
+      <c r="E201" s="32" t="n"/>
+      <c r="F201" s="91" t="n"/>
+      <c r="G201" s="91" t="n"/>
+      <c r="H201" s="128" t="n"/>
+      <c r="I201" s="128" t="n"/>
+      <c r="J201" s="128" t="n"/>
+      <c r="L201" s="135" t="n"/>
+    </row>
+    <row r="202" spans="1:22">
+      <c r="B202" s="33" t="n"/>
+      <c r="C202" s="149" t="n"/>
+      <c r="D202" s="163" t="s">
+        <v>275</v>
+      </c>
+      <c r="F202" s="149" t="n"/>
+      <c r="G202" s="149" t="n"/>
+      <c r="H202" s="56" t="n"/>
+      <c r="I202" s="56" t="n"/>
+      <c r="J202" s="57" t="n"/>
+      <c r="L202" s="135" t="n"/>
+    </row>
+    <row r="203" spans="1:22">
+      <c r="B203" s="162" t="s">
+        <v>276</v>
+      </c>
+      <c r="G203" s="153" t="n"/>
+      <c r="H203" s="128" t="n"/>
+      <c r="I203" s="128" t="n"/>
+      <c r="J203" s="51" t="n"/>
+      <c r="L203" s="135" t="n"/>
+    </row>
+    <row r="204" spans="1:22">
+      <c r="B204" s="129" t="n"/>
+      <c r="C204" s="115" t="n"/>
+      <c r="D204" s="115" t="n"/>
+      <c r="E204" s="115" t="n"/>
+      <c r="F204" s="115" t="n"/>
+      <c r="G204" s="91" t="n"/>
+      <c r="H204" s="128" t="n"/>
+      <c r="I204" s="128" t="n"/>
+      <c r="J204" s="51" t="n"/>
+      <c r="L204" s="135" t="n"/>
+    </row>
+    <row r="205" spans="1:22">
+      <c r="B205" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C205" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="D205" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="E205" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="F205" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="G205" s="72" t="n"/>
+      <c r="H205" s="128" t="n"/>
+      <c r="I205" s="128" t="n"/>
+      <c r="J205" s="51" t="n"/>
+      <c r="L205" s="173" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
+      <c r="B206" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="E206" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="F206" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="G206" s="91" t="n"/>
+      <c r="H206" s="128" t="n"/>
+      <c r="I206" s="128" t="n"/>
+      <c r="J206" s="51" t="n"/>
+      <c r="L206" s="173" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22">
+      <c r="B207" s="30" t="n"/>
+      <c r="C207" s="91" t="n"/>
+      <c r="D207" s="91" t="n"/>
+      <c r="E207" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="F207" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" s="91" t="n"/>
+      <c r="H207" s="128" t="n"/>
+      <c r="I207" s="128" t="n"/>
+      <c r="J207" s="51" t="n"/>
+      <c r="L207" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="F137" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="G137" s="87" t="n"/>
-      <c r="H137" s="98" t="n"/>
-      <c r="I137" s="98" t="n"/>
-      <c r="J137" s="98" t="n"/>
-      <c r="K137" s="125" t="n"/>
-      <c r="L137" s="141" t="s">
-        <v>168</v>
-      </c>
-      <c r="M137" s="125" t="n"/>
-    </row>
-    <row r="138" spans="1:22">
-      <c r="B138" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D138" s="80" t="s">
+    </row>
+    <row r="208" spans="1:22">
+      <c r="B208" s="30" t="n"/>
+      <c r="C208" s="91" t="n"/>
+      <c r="D208" s="91" t="n"/>
+      <c r="E208" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="F208" s="91" t="n">
+        <v>35</v>
+      </c>
+      <c r="G208" s="91" t="n"/>
+      <c r="H208" s="128" t="n"/>
+      <c r="I208" s="128" t="n"/>
+      <c r="J208" s="51" t="n"/>
+      <c r="L208" s="173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
+      <c r="B209" s="30" t="n"/>
+      <c r="C209" s="91" t="n"/>
+      <c r="D209" s="91" t="n"/>
+      <c r="E209" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="F209" s="91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G209" s="91" t="n"/>
+      <c r="H209" s="128" t="n"/>
+      <c r="I209" s="128" t="n"/>
+      <c r="J209" s="51" t="n"/>
+      <c r="L209" s="173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
+      <c r="B210" s="30" t="n"/>
+      <c r="C210" s="91" t="n"/>
+      <c r="D210" s="91" t="n"/>
+      <c r="E210" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="F210" s="91" t="n">
+        <v>249</v>
+      </c>
+      <c r="G210" s="91" t="n"/>
+      <c r="H210" s="128" t="n"/>
+      <c r="I210" s="128" t="n"/>
+      <c r="J210" s="51" t="n"/>
+      <c r="L210" s="173" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="B211" s="30" t="n"/>
+      <c r="C211" s="91" t="n"/>
+      <c r="D211" s="91" t="n"/>
+      <c r="E211" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="F211" s="91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G211" s="91" t="n"/>
+      <c r="H211" s="128" t="n"/>
+      <c r="I211" s="128" t="n"/>
+      <c r="J211" s="51" t="n"/>
+      <c r="L211" s="173" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
+      <c r="B212" s="30" t="n"/>
+      <c r="C212" s="91" t="n"/>
+      <c r="D212" s="91" t="n"/>
+      <c r="E212" s="91" t="s">
+        <v>289</v>
+      </c>
+      <c r="F212" s="91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G212" s="91" t="n"/>
+      <c r="H212" s="128" t="n"/>
+      <c r="I212" s="128" t="n"/>
+      <c r="J212" s="51" t="n"/>
+      <c r="L212" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="E138" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F138" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="G138" s="87" t="n"/>
-      <c r="H138" s="98" t="n"/>
-      <c r="I138" s="98" t="n"/>
-      <c r="J138" s="98" t="n"/>
-      <c r="K138" s="125" t="n"/>
-      <c r="L138" s="125" t="n"/>
-      <c r="M138" s="125" t="n"/>
-    </row>
-    <row r="139" spans="1:22">
-      <c r="B139" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D139" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E139" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="F139" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G139" s="87" t="n"/>
-      <c r="H139" s="98" t="n"/>
-      <c r="I139" s="98" t="n"/>
-      <c r="J139" s="98" t="n"/>
-      <c r="K139" s="125" t="n"/>
-      <c r="L139" s="125" t="n"/>
-      <c r="M139" s="125" t="n"/>
-    </row>
-    <row r="140" spans="1:22">
-      <c r="B140" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="C140" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D140" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="F140" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G140" s="87" t="n"/>
-      <c r="H140" s="98" t="n"/>
-      <c r="I140" s="98" t="n"/>
-      <c r="J140" s="98" t="n"/>
-      <c r="K140" s="125" t="n"/>
-      <c r="L140" s="125" t="s">
-        <v>168</v>
-      </c>
-      <c r="M140" s="125" t="n"/>
-    </row>
-    <row r="141" spans="1:22">
-      <c r="B141" s="78" t="n">
-        <v>3</v>
-      </c>
-      <c r="C141" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D141" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E141" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="F141" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G141" s="87" t="n"/>
-      <c r="H141" s="98" t="n"/>
-      <c r="I141" s="98" t="n"/>
-      <c r="J141" s="98" t="n"/>
-      <c r="K141" s="125" t="n"/>
-      <c r="L141" s="125" t="n"/>
-      <c r="M141" s="125" t="n"/>
-    </row>
-    <row r="142" spans="1:22">
-      <c r="B142" s="78" t="n">
-        <v>4</v>
-      </c>
-      <c r="C142" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="D142" s="81" t="s">
+    </row>
+    <row r="213" spans="1:22">
+      <c r="B213" s="30" t="n"/>
+      <c r="C213" s="91" t="n"/>
+      <c r="D213" s="91" t="n"/>
+      <c r="E213" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="F213" s="91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G213" s="91" t="n"/>
+      <c r="H213" s="128" t="n"/>
+      <c r="I213" s="128" t="n"/>
+      <c r="J213" s="51" t="n"/>
+      <c r="L213" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="E142" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="F142" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G142" s="87" t="n"/>
-      <c r="H142" s="98" t="n"/>
-      <c r="I142" s="98" t="n"/>
-      <c r="J142" s="98" t="n"/>
-      <c r="K142" s="125" t="n"/>
-      <c r="L142" s="125" t="n"/>
-      <c r="M142" s="125" t="n"/>
-    </row>
-    <row r="143" spans="1:22">
-      <c r="B143" s="78" t="n">
-        <v>5</v>
-      </c>
-      <c r="C143" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D143" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="E143" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="F143" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G143" s="87" t="n"/>
-      <c r="H143" s="98" t="n"/>
-      <c r="I143" s="98" t="n"/>
-      <c r="J143" s="98" t="n"/>
-      <c r="K143" s="125" t="n"/>
-      <c r="L143" s="125" t="n"/>
-      <c r="M143" s="125" t="n"/>
-    </row>
-    <row r="144" spans="1:22">
-      <c r="B144" s="78" t="n">
-        <v>6</v>
-      </c>
-      <c r="C144" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D144" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E144" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F144" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G144" s="87" t="n"/>
-      <c r="H144" s="98" t="n"/>
-      <c r="I144" s="98" t="n"/>
-      <c r="J144" s="98" t="n"/>
-      <c r="K144" s="125" t="n"/>
-      <c r="L144" s="125" t="n"/>
-      <c r="M144" s="125" t="n"/>
-    </row>
-    <row r="145" spans="1:22">
-      <c r="B145" s="78" t="n">
-        <v>7</v>
-      </c>
-      <c r="C145" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D145" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="E145" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="F145" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G145" s="87" t="n"/>
-      <c r="H145" s="98" t="n"/>
-      <c r="I145" s="98" t="n"/>
-      <c r="J145" s="98" t="n"/>
-      <c r="K145" s="125" t="n"/>
-      <c r="L145" s="125" t="n"/>
-      <c r="M145" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="146" s="117" spans="1:22" thickBot="1">
-      <c r="B146" s="79" t="n">
-        <v>8</v>
-      </c>
-      <c r="C146" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="D146" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="E146" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="F146" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="G146" s="87" t="n"/>
-      <c r="H146" s="98" t="n"/>
-      <c r="I146" s="98" t="n"/>
-      <c r="J146" s="98" t="n"/>
-      <c r="K146" s="125" t="n"/>
-      <c r="L146" s="125" t="n"/>
-      <c r="M146" s="125" t="n"/>
-    </row>
-    <row r="147" spans="1:22">
-      <c r="B147" s="87" t="n"/>
-      <c r="C147" s="87" t="n"/>
-      <c r="D147" s="87" t="n"/>
-      <c r="E147" s="87" t="n"/>
-      <c r="F147" s="87" t="n"/>
-      <c r="G147" s="87" t="n"/>
-      <c r="H147" s="98" t="n"/>
-      <c r="I147" s="98" t="n"/>
-      <c r="J147" s="98" t="n"/>
-      <c r="K147" s="65" t="n"/>
-    </row>
-    <row r="148" spans="1:22">
-      <c r="B148" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="C148" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="D148" s="87" t="s">
+    </row>
+    <row r="214" spans="1:22">
+      <c r="B214" s="30" t="n"/>
+      <c r="C214" s="91" t="n"/>
+      <c r="D214" s="91" t="n"/>
+      <c r="E214" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="F214" s="91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G214" s="91" t="n"/>
+      <c r="H214" s="128" t="n"/>
+      <c r="I214" s="128" t="n"/>
+      <c r="J214" s="51" t="n"/>
+      <c r="L214" s="173" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
+      <c r="B215" s="30" t="n"/>
+      <c r="C215" s="91" t="n"/>
+      <c r="D215" s="91" t="n"/>
+      <c r="E215" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="F215" s="91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G215" s="91" t="n"/>
+      <c r="H215" s="128" t="n"/>
+      <c r="I215" s="128" t="n"/>
+      <c r="J215" s="51" t="n"/>
+      <c r="L215" s="173" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="216" s="140" spans="1:22" thickBot="1">
+      <c r="B216" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E148" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="F148" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="G148" s="87" t="n"/>
-      <c r="H148" s="98" t="n"/>
-      <c r="I148" s="98" t="n"/>
-      <c r="J148" s="98" t="n"/>
-      <c r="L148" s="141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
-      <c r="B149" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="C149" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="D149" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="E149" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F149" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="G149" s="87" t="n"/>
-      <c r="H149" s="98" t="n"/>
-      <c r="I149" s="98" t="n"/>
-      <c r="J149" s="98" t="n"/>
-      <c r="L149" s="141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22">
-      <c r="B150" s="87" t="n"/>
-      <c r="C150" s="87" t="n"/>
-      <c r="D150" s="87" t="n"/>
-      <c r="E150" s="87" t="n"/>
-      <c r="F150" s="87" t="n"/>
-      <c r="G150" s="87" t="n"/>
-      <c r="H150" s="98" t="n"/>
-      <c r="I150" s="98" t="n"/>
-      <c r="J150" s="98" t="n"/>
-      <c r="K150" s="125" t="n"/>
-      <c r="L150" s="95" t="n"/>
-      <c r="M150" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="151" s="117" spans="1:22" thickBot="1">
-      <c r="B151" s="87" t="n"/>
-      <c r="C151" s="87" t="n"/>
-      <c r="D151" s="87" t="n"/>
-      <c r="E151" s="33" t="n"/>
-      <c r="F151" s="87" t="n"/>
-      <c r="G151" s="87" t="n"/>
-      <c r="H151" s="98" t="n"/>
-      <c r="I151" s="98" t="n"/>
-      <c r="J151" s="98" t="n"/>
-      <c r="K151" s="125" t="n"/>
-      <c r="L151" s="95" t="n"/>
-      <c r="M151" s="125" t="n"/>
-    </row>
-    <row r="152" spans="1:22">
-      <c r="B152" s="42" t="n"/>
-      <c r="C152" s="136" t="n"/>
-      <c r="D152" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="F152" s="136" t="n"/>
-      <c r="G152" s="85" t="n"/>
-      <c r="H152" s="55" t="n"/>
-      <c r="I152" s="56" t="n"/>
-      <c r="J152" s="50" t="n"/>
-      <c r="K152" s="125" t="n"/>
-      <c r="L152" s="95" t="n"/>
-      <c r="M152" s="125" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="153" s="117" spans="1:22" thickBot="1">
-      <c r="B153" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C153" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D153" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E153" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F153" s="36" t="n">
-        <v>9600</v>
-      </c>
-      <c r="G153" s="86" t="n"/>
-      <c r="H153" s="52" t="n"/>
-      <c r="I153" s="53" t="n"/>
-      <c r="J153" s="54" t="n"/>
-      <c r="K153" s="125" t="n"/>
-      <c r="L153" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="M153" s="125" t="n"/>
-    </row>
-    <row r="154" spans="1:22">
-      <c r="H154" s="49" t="n"/>
-      <c r="I154" s="49" t="n"/>
-      <c r="J154" s="49" t="n"/>
-    </row>
-    <row r="155" spans="1:22">
-      <c r="B155" s="87" t="n"/>
-      <c r="C155" s="87" t="n"/>
-      <c r="D155" s="88" t="n"/>
-      <c r="E155" s="87" t="n"/>
-      <c r="F155" s="87" t="n"/>
-      <c r="G155" s="87" t="n"/>
-      <c r="H155" s="98" t="n"/>
-      <c r="I155" s="98" t="n"/>
-      <c r="J155" s="98" t="n"/>
-    </row>
-    <row r="156" spans="1:22">
-      <c r="B156" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C156" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="D156" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="E156" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="F156" s="87" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G156" s="87" t="n"/>
-      <c r="H156" s="98" t="n"/>
-      <c r="I156" s="98" t="n"/>
-      <c r="J156" s="98" t="n"/>
-    </row>
-    <row r="157" spans="1:22">
-      <c r="B157" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C157" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="D157" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="E157" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="F157" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="G157" s="87" t="n"/>
-      <c r="H157" s="98" t="n"/>
-      <c r="I157" s="98" t="n"/>
-      <c r="J157" s="98" t="n"/>
-    </row>
-    <row r="158" spans="1:22">
-      <c r="B158" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C158" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="D158" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="E158" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="F158" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="G158" s="87" t="n"/>
-      <c r="H158" s="98" t="n"/>
-      <c r="I158" s="98" t="n"/>
-      <c r="J158" s="98" t="n"/>
-    </row>
-    <row r="159" spans="1:22">
-      <c r="B159" s="87" t="n"/>
-      <c r="C159" s="87" t="n"/>
-      <c r="D159" s="87" t="n"/>
-      <c r="E159" s="87" t="n"/>
-      <c r="F159" s="87" t="n"/>
-      <c r="G159" s="87" t="n"/>
-      <c r="H159" s="98" t="n"/>
-      <c r="I159" s="98" t="n"/>
-      <c r="J159" s="98" t="n"/>
-    </row>
-    <row r="160" spans="1:22">
-      <c r="B160" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="C160" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="D160" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="E160" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="F160" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="G160" s="87" t="n"/>
-      <c r="H160" s="98" t="n"/>
-      <c r="I160" s="98" t="n"/>
-      <c r="J160" s="98" t="n"/>
-    </row>
-    <row r="161" spans="1:22">
-      <c r="B161" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="C161" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="D161" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="E161" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="F161" s="87" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G161" s="87" t="n"/>
-      <c r="H161" s="98" t="n"/>
-      <c r="I161" s="98" t="n"/>
-      <c r="J161" s="98" t="n"/>
-    </row>
-    <row r="162" spans="1:22">
-      <c r="B162" s="87" t="n"/>
-      <c r="C162" s="87" t="n"/>
-      <c r="D162" s="87" t="n"/>
-      <c r="E162" s="87" t="n"/>
-      <c r="F162" s="87" t="n"/>
-      <c r="G162" s="87" t="n"/>
-      <c r="H162" s="49" t="n"/>
-      <c r="I162" s="49" t="n"/>
-      <c r="J162" s="49" t="n"/>
-    </row>
-    <row r="163" spans="1:22">
-      <c r="B163" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C163" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="D163" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="E163" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F163" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G163" s="87" t="n"/>
-      <c r="H163" s="98" t="n"/>
-      <c r="I163" s="98" t="n"/>
-      <c r="J163" s="98" t="n"/>
-      <c r="L163" s="141" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22">
-      <c r="B164" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C164" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D164" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="E164" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F164" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="G164" s="87" t="n"/>
-      <c r="H164" s="98" t="n"/>
-      <c r="I164" s="98" t="n"/>
-      <c r="J164" s="98" t="n"/>
-      <c r="L164" s="141" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.5" r="165" s="117" spans="1:22" thickBot="1">
-      <c r="B165" s="87" t="n"/>
-      <c r="C165" s="87" t="n"/>
-      <c r="D165" s="87" t="n"/>
-      <c r="E165" s="33" t="n"/>
-      <c r="F165" s="87" t="n"/>
-    </row>
-    <row r="166" spans="1:22">
-      <c r="B166" s="99" t="n"/>
-      <c r="C166" s="100" t="n"/>
-      <c r="D166" s="132" t="s">
-        <v>203</v>
-      </c>
-      <c r="F166" s="100" t="n"/>
-      <c r="G166" s="30" t="n"/>
-      <c r="H166" s="55" t="n"/>
-      <c r="I166" s="55" t="n"/>
-      <c r="J166" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="167" s="117" spans="1:22" thickBot="1">
-      <c r="B167" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E167" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F167" s="33" t="n">
-        <v>500</v>
-      </c>
-      <c r="G167" s="33" t="n"/>
-      <c r="H167" s="52" t="n"/>
-      <c r="I167" s="53" t="n"/>
-      <c r="J167" s="54" t="n"/>
-      <c r="L167" s="102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22">
-      <c r="B168" s="87" t="n"/>
-      <c r="C168" s="87" t="n"/>
-      <c r="D168" s="87" t="n"/>
-      <c r="E168" s="87" t="n"/>
-      <c r="F168" s="87" t="n"/>
-      <c r="G168" s="87" t="n"/>
-    </row>
-    <row r="169" spans="1:22">
-      <c r="B169" s="87" t="n"/>
-      <c r="C169" s="87" t="n"/>
-      <c r="D169" s="87" t="n"/>
-      <c r="E169" s="87" t="n"/>
-      <c r="F169" s="87" t="n"/>
-      <c r="G169" s="87" t="n"/>
-      <c r="H169" s="49" t="n"/>
-      <c r="I169" s="49" t="n"/>
-      <c r="J169" s="49" t="n"/>
-    </row>
-    <row r="170" spans="1:22">
-      <c r="B170" s="87" t="n"/>
-      <c r="C170" s="87" t="n"/>
-      <c r="D170" s="87" t="n"/>
-      <c r="E170" s="87" t="n"/>
-      <c r="F170" s="87" t="n"/>
-      <c r="G170" s="87" t="n"/>
-      <c r="H170" s="49" t="n"/>
-      <c r="I170" s="49" t="n"/>
-      <c r="J170" s="49" t="n"/>
-    </row>
-    <row r="171" spans="1:22">
-      <c r="B171" s="87" t="n"/>
-      <c r="C171" s="87" t="n"/>
-      <c r="D171" s="87" t="n"/>
-      <c r="E171" s="87" t="n"/>
-      <c r="F171" s="87" t="n"/>
-      <c r="G171" s="87" t="n"/>
-      <c r="H171" s="49" t="n"/>
-      <c r="I171" s="49" t="n"/>
-      <c r="J171" s="49" t="n"/>
-    </row>
-    <row r="172" spans="1:22">
-      <c r="B172" s="87" t="n"/>
-      <c r="C172" s="87" t="n"/>
-      <c r="D172" s="87" t="n"/>
-      <c r="E172" s="87" t="n"/>
-      <c r="F172" s="87" t="n"/>
-      <c r="G172" s="87" t="n"/>
-      <c r="H172" s="49" t="n"/>
-      <c r="I172" s="49" t="n"/>
-      <c r="J172" s="49" t="n"/>
-    </row>
-    <row r="173" spans="1:22">
-      <c r="B173" s="87" t="n"/>
-      <c r="C173" s="87" t="n"/>
-      <c r="D173" s="87" t="n"/>
-      <c r="E173" s="87" t="n"/>
-      <c r="F173" s="87" t="n"/>
-      <c r="G173" s="87" t="n"/>
-      <c r="H173" s="49" t="n"/>
-      <c r="I173" s="49" t="n"/>
-      <c r="J173" s="49" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="174" s="117" spans="1:22" thickBot="1">
-      <c r="B174" s="87" t="n"/>
-      <c r="C174" s="87" t="n"/>
-      <c r="D174" s="87" t="n"/>
-      <c r="E174" s="87" t="n"/>
-      <c r="F174" s="87" t="n"/>
-      <c r="G174" s="87" t="n"/>
-      <c r="H174" s="49" t="n"/>
-      <c r="I174" s="49" t="n"/>
-      <c r="J174" s="49" t="n"/>
-    </row>
-    <row r="175" spans="1:22">
-      <c r="B175" s="135" t="s">
-        <v>207</v>
-      </c>
-      <c r="G175" s="87" t="n"/>
-      <c r="H175" s="98" t="n"/>
-      <c r="I175" s="98" t="n"/>
-      <c r="J175" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="176" s="117" spans="1:22" thickBot="1">
-      <c r="G176" s="87" t="n"/>
-      <c r="H176" s="49" t="n"/>
-      <c r="I176" s="49" t="n"/>
-      <c r="J176" s="49" t="n"/>
-    </row>
-    <row r="177" spans="1:22">
-      <c r="B177" s="87" t="n"/>
-      <c r="C177" s="87" t="n"/>
-      <c r="D177" s="87" t="n"/>
-      <c r="E177" s="87" t="n"/>
-      <c r="F177" s="87" t="n"/>
-      <c r="G177" s="87" t="n"/>
-      <c r="H177" s="49" t="n"/>
-      <c r="I177" s="49" t="n"/>
-      <c r="J177" s="49" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="178" s="117" spans="1:22" thickBot="1">
-      <c r="B178" s="87" t="n"/>
-      <c r="C178" s="87" t="n"/>
-      <c r="D178" s="87" t="n"/>
-      <c r="E178" s="33" t="n"/>
-      <c r="F178" s="87" t="n"/>
-      <c r="G178" s="87" t="n"/>
-      <c r="H178" s="98" t="n"/>
-      <c r="I178" s="98" t="n"/>
-      <c r="J178" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="179" s="117" spans="1:22" thickBot="1">
-      <c r="B179" s="34" t="n"/>
-      <c r="C179" s="101" t="n"/>
-      <c r="D179" s="134" t="s">
-        <v>208</v>
-      </c>
-      <c r="F179" s="101" t="n"/>
-      <c r="G179" s="101" t="n"/>
-      <c r="H179" s="56" t="n"/>
-      <c r="I179" s="56" t="n"/>
-      <c r="J179" s="57" t="n"/>
-    </row>
-    <row r="180" spans="1:22">
-      <c r="B180" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="H180" s="98" t="n"/>
-      <c r="I180" s="98" t="n"/>
-      <c r="J180" s="51" t="n"/>
-    </row>
-    <row r="181" spans="1:22">
-      <c r="B181" s="31" t="n"/>
-      <c r="C181" s="87" t="n"/>
-      <c r="D181" s="87" t="n"/>
-      <c r="E181" s="87" t="n"/>
-      <c r="F181" s="87" t="n"/>
-      <c r="G181" s="87" t="n"/>
-      <c r="H181" s="98" t="n"/>
-      <c r="I181" s="98" t="n"/>
-      <c r="J181" s="51" t="n"/>
-    </row>
-    <row r="182" spans="1:22">
-      <c r="B182" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C182" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="D182" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="E182" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="F182" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="G182" s="88" t="n"/>
-      <c r="H182" s="98" t="n"/>
-      <c r="I182" s="98" t="n"/>
-      <c r="J182" s="51" t="n"/>
-    </row>
-    <row r="183" spans="1:22">
-      <c r="B183" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C183" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="D183" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="E183" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="F183" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="G183" s="87" t="n"/>
-      <c r="H183" s="98" t="n"/>
-      <c r="I183" s="98" t="n"/>
-      <c r="J183" s="51" t="n"/>
-    </row>
-    <row r="184" spans="1:22">
-      <c r="B184" s="31" t="n"/>
-      <c r="C184" s="87" t="n"/>
-      <c r="D184" s="87" t="n"/>
-      <c r="E184" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="F184" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" s="87" t="n"/>
-      <c r="H184" s="98" t="n"/>
-      <c r="I184" s="98" t="n"/>
-      <c r="J184" s="51" t="n"/>
-    </row>
-    <row r="185" spans="1:22">
-      <c r="B185" s="31" t="n"/>
-      <c r="C185" s="87" t="n"/>
-      <c r="D185" s="87" t="n"/>
-      <c r="E185" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="F185" s="87" t="n">
-        <v>35</v>
-      </c>
-      <c r="G185" s="87" t="n"/>
-      <c r="H185" s="98" t="n"/>
-      <c r="I185" s="98" t="n"/>
-      <c r="J185" s="51" t="n"/>
-    </row>
-    <row r="186" spans="1:22">
-      <c r="B186" s="31" t="n"/>
-      <c r="C186" s="87" t="n"/>
-      <c r="D186" s="87" t="n"/>
-      <c r="E186" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="F186" s="87" t="n">
-        <v>15</v>
-      </c>
-      <c r="G186" s="87" t="n"/>
-      <c r="H186" s="98" t="n"/>
-      <c r="I186" s="98" t="n"/>
-      <c r="J186" s="51" t="n"/>
-    </row>
-    <row r="187" spans="1:22">
-      <c r="B187" s="31" t="n"/>
-      <c r="C187" s="87" t="n"/>
-      <c r="D187" s="87" t="n"/>
-      <c r="E187" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="F187" s="87" t="n">
-        <v>249</v>
-      </c>
-      <c r="G187" s="87" t="n"/>
-      <c r="H187" s="98" t="n"/>
-      <c r="I187" s="98" t="n"/>
-      <c r="J187" s="51" t="n"/>
-    </row>
-    <row r="188" spans="1:22">
-      <c r="B188" s="31" t="n"/>
-      <c r="C188" s="87" t="n"/>
-      <c r="D188" s="87" t="n"/>
-      <c r="E188" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="F188" s="87" t="n">
-        <v>3</v>
-      </c>
-      <c r="G188" s="87" t="n"/>
-      <c r="H188" s="98" t="n"/>
-      <c r="I188" s="98" t="n"/>
-      <c r="J188" s="51" t="n"/>
-    </row>
-    <row r="189" spans="1:22">
-      <c r="B189" s="31" t="n"/>
-      <c r="C189" s="87" t="n"/>
-      <c r="D189" s="87" t="n"/>
-      <c r="E189" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="F189" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="G189" s="87" t="n"/>
-      <c r="H189" s="98" t="n"/>
-      <c r="I189" s="98" t="n"/>
-      <c r="J189" s="51" t="n"/>
-    </row>
-    <row r="190" spans="1:22">
-      <c r="B190" s="31" t="n"/>
-      <c r="C190" s="87" t="n"/>
-      <c r="D190" s="87" t="n"/>
-      <c r="E190" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="F190" s="87" t="n">
-        <v>10</v>
-      </c>
-      <c r="G190" s="87" t="n"/>
-      <c r="H190" s="98" t="n"/>
-      <c r="I190" s="98" t="n"/>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191" spans="1:22">
-      <c r="B191" s="31" t="n"/>
-      <c r="C191" s="87" t="n"/>
-      <c r="D191" s="87" t="n"/>
-      <c r="E191" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="F191" s="87" t="n">
-        <v>400</v>
-      </c>
-      <c r="G191" s="87" t="n"/>
-      <c r="H191" s="98" t="n"/>
-      <c r="I191" s="98" t="n"/>
-      <c r="J191" s="51" t="n"/>
-    </row>
-    <row r="192" spans="1:22">
-      <c r="B192" s="31" t="n"/>
-      <c r="C192" s="87" t="n"/>
-      <c r="D192" s="87" t="n"/>
-      <c r="E192" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="F192" s="87" t="n">
-        <v>400</v>
-      </c>
-      <c r="G192" s="87" t="n"/>
-      <c r="H192" s="98" t="n"/>
-      <c r="I192" s="98" t="n"/>
-      <c r="J192" s="51" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="193" s="117" spans="1:22" thickBot="1">
-      <c r="B193" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C193" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D193" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E193" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="F193" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="G193" s="33" t="n"/>
-      <c r="H193" s="52" t="n"/>
-      <c r="I193" s="53" t="n"/>
-      <c r="J193" s="54" t="n"/>
-    </row>
-    <row r="194" spans="1:22">
-      <c r="B194" s="87" t="n"/>
-      <c r="C194" s="87" t="n"/>
-      <c r="D194" s="87" t="n"/>
-      <c r="E194" s="87" t="n"/>
-      <c r="F194" s="87" t="n"/>
-      <c r="G194" s="87" t="n"/>
-      <c r="H194" s="49" t="n"/>
-      <c r="I194" s="49" t="n"/>
-      <c r="J194" s="49" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="195" s="117" spans="1:22" thickBot="1">
-      <c r="B195" s="87" t="n"/>
-      <c r="C195" s="87" t="n"/>
-      <c r="D195" s="87" t="n"/>
-      <c r="E195" s="87" t="n"/>
-      <c r="F195" s="87" t="n"/>
-      <c r="G195" s="87" t="n"/>
-      <c r="H195" s="49" t="n"/>
-      <c r="I195" s="49" t="n"/>
-      <c r="J195" s="49" t="n"/>
-    </row>
-    <row r="196" spans="1:22">
-      <c r="B196" s="121" t="s">
-        <v>227</v>
-      </c>
-      <c r="G196" s="45" t="n"/>
-      <c r="H196" s="98" t="n"/>
-      <c r="I196" s="98" t="n"/>
-      <c r="J196" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="197" s="117" spans="1:22" thickBot="1">
-      <c r="G197" s="45" t="n"/>
-      <c r="H197" s="44" t="n"/>
-      <c r="I197" s="44" t="n"/>
-      <c r="J197" s="44" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="198" s="117" spans="1:22" thickBot="1"/>
-    <row r="199" spans="1:22">
-      <c r="B199" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="G199" s="45" t="n"/>
-      <c r="H199" s="98" t="n"/>
-      <c r="I199" s="98" t="n"/>
-      <c r="J199" s="98" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="200" s="117" spans="1:22" thickBot="1">
-      <c r="G200" s="45" t="n"/>
-      <c r="H200" s="44" t="n"/>
-      <c r="I200" s="44" t="n"/>
-      <c r="J200" s="44" t="n"/>
-    </row>
-    <row r="204" spans="1:22">
-      <c r="B204" s="2" t="n"/>
-    </row>
-    <row r="205" spans="1:22">
-      <c r="B205" s="2" t="n"/>
-    </row>
-    <row r="206" spans="1:22">
-      <c r="B206" s="2" t="n"/>
+      <c r="D216" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F216" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G216" s="32" t="n"/>
+      <c r="H216" s="52" t="n"/>
+      <c r="I216" s="53" t="n"/>
+      <c r="J216" s="54" t="n"/>
+      <c r="L216" s="173" t="n"/>
+    </row>
+    <row r="217" spans="1:22">
+      <c r="B217" s="91" t="n"/>
+      <c r="C217" s="91" t="n"/>
+      <c r="D217" s="91" t="n"/>
+      <c r="E217" s="91" t="n"/>
+      <c r="F217" s="91" t="n"/>
+      <c r="G217" s="91" t="n"/>
+      <c r="H217" s="48" t="n"/>
+      <c r="I217" s="48" t="n"/>
+      <c r="J217" s="48" t="n"/>
+      <c r="L217" s="135" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="218" s="140" spans="1:22">
+      <c r="B218" s="116" t="n"/>
+      <c r="C218" s="116" t="n"/>
+      <c r="D218" s="116" t="n"/>
+      <c r="E218" s="116" t="n"/>
+      <c r="F218" s="116" t="n"/>
+      <c r="G218" s="91" t="n"/>
+      <c r="H218" s="48" t="n"/>
+      <c r="I218" s="48" t="n"/>
+      <c r="J218" s="48" t="n"/>
+      <c r="L218" s="135" t="n"/>
+    </row>
+    <row r="219" spans="1:22">
+      <c r="A219" s="120" t="n"/>
+      <c r="B219" s="151" t="s">
+        <v>295</v>
+      </c>
+      <c r="G219" s="123" t="n"/>
+      <c r="H219" s="128" t="n"/>
+      <c r="I219" s="128" t="n"/>
+      <c r="J219" s="128" t="n"/>
+      <c r="L219" s="173" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="220" s="140" spans="1:22">
+      <c r="A220" s="120" t="n"/>
+      <c r="G220" s="123" t="n"/>
+      <c r="H220" s="44" t="n"/>
+      <c r="I220" s="44" t="n"/>
+      <c r="J220" s="44" t="n"/>
+      <c r="L220" s="135" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="221" s="140" spans="1:22">
+      <c r="B221" s="121" t="n"/>
+      <c r="C221" s="121" t="n"/>
+      <c r="D221" s="121" t="n"/>
+      <c r="E221" s="122" t="n"/>
+      <c r="F221" s="122" t="n"/>
+      <c r="L221" s="135" t="n"/>
+    </row>
+    <row r="222" spans="1:22">
+      <c r="A222" s="120" t="n"/>
+      <c r="B222" s="151" t="s">
+        <v>296</v>
+      </c>
+      <c r="G222" s="123" t="n"/>
+      <c r="H222" s="128" t="n"/>
+      <c r="I222" s="128" t="n"/>
+      <c r="J222" s="128" t="n"/>
+      <c r="L222" s="173" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="223" s="140" spans="1:22">
+      <c r="A223" s="120" t="n"/>
+      <c r="G223" s="123" t="n"/>
+      <c r="H223" s="44" t="n"/>
+      <c r="I223" s="44" t="n"/>
+      <c r="J223" s="44" t="n"/>
+      <c r="L223" s="135" t="n"/>
+    </row>
+    <row r="224" spans="1:22">
+      <c r="B224" s="124" t="n"/>
+      <c r="C224" s="124" t="n"/>
+      <c r="D224" s="124" t="n"/>
+      <c r="E224" s="125" t="n"/>
+      <c r="F224" s="125" t="n"/>
+    </row>
+    <row r="227" spans="1:22">
+      <c r="B227" s="2" t="n"/>
+    </row>
+    <row r="228" spans="1:22">
+      <c r="B228" s="2" t="n"/>
+    </row>
+    <row r="229" spans="1:22">
+      <c r="B229" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
     <mergeCell ref="L71:L73"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B222:F223"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="B219:F220"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="B198:F199"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D80:E80"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F48:F51"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="B199:F200"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="F76:F100"/>
-    <mergeCell ref="B196:F197"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="B175:F176"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3 H160:H161 J160:J161">
-    <cfRule dxfId="1" operator="lessThan" priority="228" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="250" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="B3 H183:H184 J183:J184">
+    <cfRule dxfId="1" operator="lessThan" priority="236" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="258" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:F57">
-    <cfRule dxfId="1" operator="lessThan" priority="248" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="256" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:F59">
-    <cfRule dxfId="1" operator="lessThan" priority="247" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="255" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:F61">
-    <cfRule dxfId="1" operator="lessThan" priority="246" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="254" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:F63">
-    <cfRule dxfId="1" operator="lessThan" priority="245" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="253" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule dxfId="1" operator="lessThan" priority="206" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="207" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="214" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="215" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule dxfId="1" operator="lessThan" priority="204" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="205" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="212" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="213" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule dxfId="1" operator="lessThan" priority="202" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="203" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="210" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="211" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule dxfId="1" operator="lessThan" priority="200" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="201" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="208" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="209" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J163:J164 J175">
+  <conditionalFormatting sqref="J186:J187 J198">
+    <cfRule dxfId="1" operator="lessThan" priority="124" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="125" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J205:J216">
+    <cfRule dxfId="1" operator="lessThan" priority="120" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="121" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J190">
     <cfRule dxfId="1" operator="lessThan" priority="116" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
     <cfRule dxfId="0" operator="greaterThan" priority="117" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J182:J193">
-    <cfRule dxfId="1" operator="lessThan" priority="112" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="113" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J167">
-    <cfRule dxfId="1" operator="lessThan" priority="108" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="109" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H37">
-    <cfRule dxfId="1" operator="lessThan" priority="182" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="183" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="190" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="191" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J37">
-    <cfRule dxfId="1" operator="lessThan" priority="180" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="181" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="188" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="189" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule dxfId="1" operator="lessThan" priority="178" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="179" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="186" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="187" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H43">
-    <cfRule dxfId="1" operator="lessThan" priority="176" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="177" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="184" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="185" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule dxfId="1" operator="lessThan" priority="174" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="175" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="182" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="183" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule dxfId="1" operator="lessThan" priority="172" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="173" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="180" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="181" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:J43">
-    <cfRule dxfId="1" operator="lessThan" priority="170" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="171" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="178" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="179" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule dxfId="1" operator="lessThan" priority="168" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="169" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="176" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="177" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H74 H76">
-    <cfRule dxfId="1" operator="lessThan" priority="166" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="167" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="H67:H74 H78">
+    <cfRule dxfId="1" operator="lessThan" priority="174" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="175" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:J74 J76">
-    <cfRule dxfId="1" operator="lessThan" priority="164" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="165" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="J67:J74 J78">
+    <cfRule dxfId="1" operator="lessThan" priority="172" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="173" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule dxfId="1" operator="lessThan" priority="162" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="163" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="C78">
+    <cfRule dxfId="1" operator="lessThan" priority="170" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="171" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H167">
-    <cfRule dxfId="1" operator="lessThan" priority="110" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="111" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="H190">
+    <cfRule dxfId="1" operator="lessThan" priority="118" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="119" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule dxfId="1" operator="lessThan" priority="152" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="153" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="H110">
+    <cfRule dxfId="1" operator="lessThan" priority="160" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="161" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J109">
-    <cfRule dxfId="1" operator="lessThan" priority="150" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="151" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="J110">
+    <cfRule dxfId="1" operator="lessThan" priority="158" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="159" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H119">
-    <cfRule dxfId="1" operator="lessThan" priority="148" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="149" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="H114:H120">
+    <cfRule dxfId="1" operator="lessThan" priority="156" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="157" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J113:J119">
+  <conditionalFormatting sqref="J114:J120">
+    <cfRule dxfId="1" operator="lessThan" priority="154" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="155" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J124:J134">
     <cfRule dxfId="1" operator="lessThan" priority="146" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7135,7 +8223,15 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J123:J133">
+  <conditionalFormatting sqref="H176">
+    <cfRule dxfId="1" operator="lessThan" priority="140" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="141" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J176">
     <cfRule dxfId="1" operator="lessThan" priority="138" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7143,15 +8239,15 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H153">
-    <cfRule dxfId="1" operator="lessThan" priority="132" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="133" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="H179:H181">
+    <cfRule dxfId="1" operator="lessThan" priority="136" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="137" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
+  <conditionalFormatting sqref="H186:H187 H198">
     <cfRule dxfId="1" operator="lessThan" priority="130" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7159,7 +8255,7 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H156:H158">
+  <conditionalFormatting sqref="J179:J181">
     <cfRule dxfId="1" operator="lessThan" priority="128" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7167,7 +8263,7 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H163:H164 H175">
+  <conditionalFormatting sqref="H205:H216">
     <cfRule dxfId="1" operator="lessThan" priority="122" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7175,44 +8271,60 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J156:J158">
-    <cfRule dxfId="1" operator="lessThan" priority="120" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="121" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="J219">
+    <cfRule dxfId="1" operator="lessThan" priority="112" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="113" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H182:H193">
+  <conditionalFormatting sqref="H219">
     <cfRule dxfId="1" operator="lessThan" priority="114" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
     <cfRule dxfId="0" operator="greaterThan" priority="115" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J196">
-    <cfRule dxfId="1" operator="lessThan" priority="104" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="105" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H196">
-    <cfRule dxfId="1" operator="lessThan" priority="106" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="107" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule dxfId="90" operator="containsText" priority="102" stopIfTrue="1" text="Config Name Greater Than 8 Characters" type="containsText">
+    <cfRule dxfId="96" operator="containsText" priority="110" stopIfTrue="1" text="Config Name Greater Than 8 Characters" type="containsText">
       <formula>NOT(ISERROR(SEARCH("Config Name Greater Than 8 Characters",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H148:H149">
+  <conditionalFormatting sqref="H171:H172">
+    <cfRule dxfId="1" operator="lessThan" priority="107" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="108" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J171:J172">
+    <cfRule dxfId="1" operator="lessThan" priority="105" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="106" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114:D120">
+    <cfRule dxfId="1" operator="lessThan" priority="103" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="104" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124:D134">
+    <cfRule dxfId="1" operator="lessThan" priority="101" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="102" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E120">
     <cfRule dxfId="1" operator="lessThan" priority="99" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7220,7 +8332,7 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J148:J149">
+  <conditionalFormatting sqref="E124:E134">
     <cfRule dxfId="1" operator="lessThan" priority="97" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7228,159 +8340,143 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113:D119">
+  <conditionalFormatting sqref="H124:H134">
     <cfRule dxfId="1" operator="lessThan" priority="95" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
     <cfRule dxfId="0" operator="greaterThan" priority="96" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D133">
-    <cfRule dxfId="1" operator="lessThan" priority="93" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="94" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E119">
-    <cfRule dxfId="1" operator="lessThan" priority="91" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="92" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123:E133">
-    <cfRule dxfId="1" operator="lessThan" priority="89" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="90" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H133">
-    <cfRule dxfId="1" operator="lessThan" priority="87" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="88" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule dxfId="1" operator="lessThan" priority="85" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="86" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="93" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="94" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule dxfId="1" operator="lessThan" priority="83" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="84" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="91" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="92" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J199">
-    <cfRule dxfId="1" operator="lessThan" priority="71" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="72" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="J222">
+    <cfRule dxfId="1" operator="lessThan" priority="79" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="80" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H199">
-    <cfRule dxfId="1" operator="lessThan" priority="73" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="74" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="H222">
+    <cfRule dxfId="1" operator="lessThan" priority="81" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="82" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J30">
-    <cfRule dxfId="1" operator="lessThan" priority="49" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="50" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="57" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="58" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H30">
-    <cfRule dxfId="1" operator="lessThan" priority="69" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="70" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="77" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="78" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J27">
-    <cfRule dxfId="1" operator="lessThan" priority="67" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="68" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="75" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="76" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J19">
-    <cfRule dxfId="1" operator="lessThan" priority="63" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="64" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="71" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="72" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E19">
-    <cfRule dxfId="1" operator="lessThan" priority="61" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="62" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="69" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="70" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H19">
-    <cfRule dxfId="1" operator="lessThan" priority="65" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="66" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="73" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="74" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F19">
-    <cfRule dxfId="1" operator="lessThan" priority="57" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="58" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="65" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="66" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule dxfId="1" operator="lessThan" priority="59" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="60" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="67" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="68" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30">
-    <cfRule dxfId="1" operator="lessThan" priority="55" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="56" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="63" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="64" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F30">
-    <cfRule dxfId="1" operator="lessThan" priority="51" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="52" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="59" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="60" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
+    <cfRule dxfId="1" operator="lessThan" priority="61" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="62" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136">
+    <cfRule dxfId="1" operator="lessThan" priority="55" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="56" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136">
     <cfRule dxfId="1" operator="lessThan" priority="53" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7388,7 +8484,23 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J135">
+  <conditionalFormatting sqref="C79:C108">
+    <cfRule dxfId="1" operator="lessThan" priority="51" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="52" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:D92">
+    <cfRule dxfId="1" operator="lessThan" priority="49" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="50" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93:D108">
     <cfRule dxfId="1" operator="lessThan" priority="47" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7396,7 +8508,7 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
+  <conditionalFormatting sqref="L71">
     <cfRule dxfId="1" operator="lessThan" priority="45" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
@@ -7404,174 +8516,174 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L148:L149">
-    <cfRule dxfId="1" operator="lessThan" priority="43" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="44" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L115:L120">
+    <cfRule dxfId="1" operator="lessThan" priority="41" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="42" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L125:L134">
+    <cfRule dxfId="1" operator="lessThan" priority="39" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="40" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L138">
+    <cfRule dxfId="1" operator="lessThan" priority="37" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="38" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L171:L172">
+    <cfRule dxfId="1" operator="lessThan" priority="35" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="36" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L176">
+    <cfRule dxfId="1" operator="lessThan" priority="33" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="34" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule dxfId="1" operator="lessThan" priority="31" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="32" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L186:L187">
+    <cfRule dxfId="1" operator="lessThan" priority="29" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="30" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L190">
+    <cfRule dxfId="1" operator="lessThan" priority="27" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="28" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42">
-    <cfRule dxfId="1" operator="lessThan" priority="41" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="42" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="1" operator="lessThan" priority="25" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="26" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L153">
-    <cfRule dxfId="1" operator="lessThan" priority="37" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="38" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L124">
+    <cfRule dxfId="1" operator="lessThan" priority="21" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="22" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L113:L119">
-    <cfRule dxfId="1" operator="lessThan" priority="35" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="36" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L114">
+    <cfRule dxfId="1" operator="lessThan" priority="19" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="20" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L137">
-    <cfRule dxfId="1" operator="lessThan" priority="33" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="34" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L179:L181">
+    <cfRule dxfId="1" operator="lessThan" priority="17" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="18" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L167">
-    <cfRule dxfId="1" operator="lessThan" priority="31" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="32" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L183:L184">
+    <cfRule dxfId="1" operator="lessThan" priority="15" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="16" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
-    <cfRule dxfId="1" operator="lessThan" priority="29" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="30" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L110">
+    <cfRule dxfId="1" operator="lessThan" priority="13" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="14" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L163:L164">
-    <cfRule dxfId="1" operator="lessThan" priority="27" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="28" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L67:L70">
+    <cfRule dxfId="1" operator="lessThan" priority="11" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="12" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule dxfId="1" operator="lessThan" priority="25" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="26" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L33:L38">
+    <cfRule dxfId="1" operator="lessThan" priority="9" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="10" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule dxfId="1" operator="lessThan" priority="23" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="24" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L205:L216">
+    <cfRule dxfId="1" operator="lessThan" priority="7" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="8" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule dxfId="1" operator="lessThan" priority="21" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="22" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L198">
+    <cfRule dxfId="1" operator="lessThan" priority="5" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="6" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80 C84 C88 C92 C96 C100">
-    <cfRule dxfId="1" operator="lessThan" priority="19" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="20" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L219">
+    <cfRule dxfId="1" operator="lessThan" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81 C85 C89 C93 C97 C101">
-    <cfRule dxfId="1" operator="lessThan" priority="17" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="18" stopIfTrue="1" type="cellIs">
+  <conditionalFormatting sqref="L222">
+    <cfRule dxfId="1" operator="lessThan" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>" "</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82 C86 C90 C94 C98">
-    <cfRule dxfId="1" operator="lessThan" priority="15" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="16" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83 C87 C91 C95 C99">
-    <cfRule dxfId="1" operator="lessThan" priority="13" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="14" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule dxfId="1" operator="lessThan" priority="11" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="12" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule dxfId="1" operator="lessThan" priority="9" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="10" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102 C106">
-    <cfRule dxfId="1" operator="lessThan" priority="7" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="8" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103 C107">
-    <cfRule dxfId="1" operator="lessThan" priority="5" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="6" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
-    <cfRule dxfId="1" operator="lessThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="1" disablePrompts="1">
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E12:E30" type="list">
       <formula1>$L$13:$L$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="landscape" scale="50"/>
+  <pageSetup orientation="portrait" scale="42"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12D20 CONFIGURATION SETTINGS_x000a_&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;P of &amp;N&amp;R&amp;D</oddFooter>
@@ -7602,24 +8714,24 @@
     <col customWidth="1" max="4" min="4" style="37" width="34.5546875"/>
     <col customWidth="1" max="5" min="5" style="37" width="31.5546875"/>
     <col customWidth="1" max="6" min="6" style="37" width="34.109375"/>
-    <col customWidth="1" max="22" min="7" style="37" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="23" style="37" width="8.88671875"/>
+    <col customWidth="1" max="10" min="7" style="37" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="11" style="37" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="E2" s="38" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="37" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7630,13 +8742,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7644,13 +8756,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7658,13 +8770,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7672,13 +8784,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7686,13 +8798,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7700,10 +8812,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7711,10 +8823,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7722,10 +8834,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7733,10 +8845,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7744,10 +8856,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7755,10 +8867,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7766,10 +8878,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7777,10 +8889,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7788,10 +8900,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7799,10 +8911,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7810,10 +8922,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7821,7 +8933,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7829,7 +8941,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7837,7 +8949,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:6">

--- a/Example D20 XML/D20M++/FE D20 M++ QC Doc Rev 3.xlsx
+++ b/Example D20 XML/D20M++/FE D20 M++ QC Doc Rev 3.xlsx
@@ -879,12 +879,21 @@
     <t>RTS Preamble</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>RTS Postamble</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Max Frame Size</t>
   </si>
   <si>
+    <t>249</t>
+  </si>
+  <si>
     <t>Transmit Retries</t>
   </si>
   <si>
@@ -897,6 +906,9 @@
     <t>Confirm Timeout</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>Response Timeout</t>
   </si>
   <si>
@@ -1036,18 +1048,6 @@
   </si>
   <si>
     <t>CLEAR COMM STATISTIC</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -4687,7 +4687,9 @@
       <c r="H33" s="128" t="n"/>
       <c r="I33" s="128" t="n"/>
       <c r="J33" s="128" t="n"/>
-      <c r="L33" s="173" t="n"/>
+      <c r="L33" s="173" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row customFormat="1" r="34" s="147" spans="1:22">
       <c r="B34" s="91" t="s">
@@ -7707,7 +7709,7 @@
       <c r="I208" s="128" t="n"/>
       <c r="J208" s="51" t="n"/>
       <c r="L208" s="173" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -7715,7 +7717,7 @@
       <c r="C209" s="91" t="n"/>
       <c r="D209" s="91" t="n"/>
       <c r="E209" s="91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F209" s="91" t="n">
         <v>15</v>
@@ -7725,7 +7727,7 @@
       <c r="I209" s="128" t="n"/>
       <c r="J209" s="51" t="n"/>
       <c r="L209" s="173" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -7733,7 +7735,7 @@
       <c r="C210" s="91" t="n"/>
       <c r="D210" s="91" t="n"/>
       <c r="E210" s="91" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F210" s="91" t="n">
         <v>249</v>
@@ -7743,7 +7745,7 @@
       <c r="I210" s="128" t="n"/>
       <c r="J210" s="51" t="n"/>
       <c r="L210" s="173" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -7751,7 +7753,7 @@
       <c r="C211" s="91" t="n"/>
       <c r="D211" s="91" t="n"/>
       <c r="E211" s="91" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F211" s="91" t="n">
         <v>3</v>
@@ -7769,7 +7771,7 @@
       <c r="C212" s="91" t="n"/>
       <c r="D212" s="91" t="n"/>
       <c r="E212" s="91" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F212" s="91" t="n">
         <v>10</v>
@@ -7787,7 +7789,7 @@
       <c r="C213" s="91" t="n"/>
       <c r="D213" s="91" t="n"/>
       <c r="E213" s="91" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F213" s="91" t="n">
         <v>10</v>
@@ -7805,7 +7807,7 @@
       <c r="C214" s="91" t="n"/>
       <c r="D214" s="91" t="n"/>
       <c r="E214" s="91" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F214" s="91" t="n">
         <v>400</v>
@@ -7815,7 +7817,7 @@
       <c r="I214" s="128" t="n"/>
       <c r="J214" s="51" t="n"/>
       <c r="L214" s="173" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -7823,7 +7825,7 @@
       <c r="C215" s="91" t="n"/>
       <c r="D215" s="91" t="n"/>
       <c r="E215" s="91" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F215" s="91" t="n">
         <v>400</v>
@@ -7833,7 +7835,7 @@
       <c r="I215" s="128" t="n"/>
       <c r="J215" s="51" t="n"/>
       <c r="L215" s="173" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="216" s="140" spans="1:22" thickBot="1">
@@ -7847,10 +7849,10 @@
         <v>31</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F216" s="32" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G216" s="32" t="n"/>
       <c r="H216" s="52" t="n"/>
@@ -7885,7 +7887,7 @@
     <row r="219" spans="1:22">
       <c r="A219" s="120" t="n"/>
       <c r="B219" s="151" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G219" s="123" t="n"/>
       <c r="H219" s="128" t="n"/>
@@ -7914,7 +7916,7 @@
     <row r="222" spans="1:22">
       <c r="A222" s="120" t="n"/>
       <c r="B222" s="151" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G222" s="123" t="n"/>
       <c r="H222" s="128" t="n"/>
@@ -8720,12 +8722,12 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="E2" s="38" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="37" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>170</v>
@@ -8742,13 +8744,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8756,13 +8758,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8770,13 +8772,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8784,13 +8786,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8798,13 +8800,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8812,10 +8814,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8823,10 +8825,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8834,10 +8836,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8845,10 +8847,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8856,10 +8858,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8867,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8878,10 +8880,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8889,10 +8891,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8900,10 +8902,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8911,10 +8913,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8922,10 +8924,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8933,7 +8935,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8941,7 +8943,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8949,7 +8951,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:6">

--- a/Example D20 XML/D20M++/FE D20 M++ QC Doc Rev 3.xlsx
+++ b/Example D20 XML/D20M++/FE D20 M++ QC Doc Rev 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>D20 ME,  MEII and MX QC Document</t>
   </si>
@@ -168,6 +168,9 @@
     <t>RESTART DELAY</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>B023_DEV</t>
   </si>
   <si>
@@ -177,27 +180,42 @@
     <t>5 sec</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>INTEGRITY POLL INTERVAL</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>OFFLINE AFTER FAIL</t>
   </si>
   <si>
     <t>OFFLINE AFTER CHAN. FAIL</t>
   </si>
   <si>
+    <t>Off-line after chan fail</t>
+  </si>
+  <si>
     <t>FAILURES FOR BAD CHAN.</t>
   </si>
   <si>
     <t>3 (minimum)</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>TIMESYNCING</t>
   </si>
   <si>
     <t>DISABLE</t>
   </si>
   <si>
+    <t>Disable</t>
+  </si>
+  <si>
     <t>HARRIS DCA</t>
   </si>
   <si>
@@ -315,9 +333,6 @@
     <t>Standard UTC Offset</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>DST Offset</t>
   </si>
   <si>
@@ -357,9 +372,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>PLEASANT VALLEY SUBSTATION     SAB0605/03</t>
   </si>
   <si>
@@ -384,9 +396,6 @@
     <t>Port 3 - Spare</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Port 4 - DNP3.0 DPA SAM-900 HMI, 9600 baud</t>
   </si>
   <si>
@@ -465,9 +474,6 @@
     <t>501</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>1F5</t>
   </si>
   <si>
@@ -870,9 +876,6 @@
     <t>DCD, RTS, &amp; CTS</t>
   </si>
   <si>
-    <t>Disable</t>
-  </si>
-  <si>
     <t>DCD to RX enable time</t>
   </si>
   <si>
@@ -916,6 +919,9 @@
   </si>
   <si>
     <t>Confirm Required</t>
+  </si>
+  <si>
+    <t>Confirm Not Required</t>
   </si>
   <si>
     <t xml:space="preserve">After the Config is done, go back and make sure the WinPoints in the Points List were updated to reflect the new equipment or changes and match what is in the Config File. </t>
@@ -4688,7 +4694,7 @@
       <c r="I33" s="128" t="n"/>
       <c r="J33" s="128" t="n"/>
       <c r="L33" s="173" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row customFormat="1" r="34" s="147" spans="1:22">
@@ -4696,35 +4702,37 @@
         <v>29</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="91" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G34" s="91" t="n"/>
       <c r="H34" s="128" t="n"/>
       <c r="I34" s="128" t="n"/>
       <c r="J34" s="128" t="n"/>
-      <c r="L34" s="173" t="n"/>
+      <c r="L34" s="173" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row customFormat="1" r="35" s="147" spans="1:22">
       <c r="B35" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" s="91" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F35" s="91" t="n">
         <v>0</v>
@@ -4733,73 +4741,81 @@
       <c r="H35" s="128" t="n"/>
       <c r="I35" s="128" t="n"/>
       <c r="J35" s="128" t="n"/>
-      <c r="L35" s="173" t="n"/>
+      <c r="L35" s="173" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row customFormat="1" r="36" s="147" spans="1:22">
       <c r="B36" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" s="72" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F36" s="91" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G36" s="91" t="n"/>
       <c r="H36" s="128" t="n"/>
       <c r="I36" s="128" t="n"/>
       <c r="J36" s="128" t="n"/>
-      <c r="L36" s="173" t="n"/>
+      <c r="L36" s="173" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row customFormat="1" r="37" s="147" spans="1:22">
       <c r="B37" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="91" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F37" s="91" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G37" s="91" t="n"/>
       <c r="H37" s="128" t="n"/>
       <c r="I37" s="128" t="n"/>
       <c r="J37" s="128" t="n"/>
-      <c r="L37" s="173" t="n"/>
+      <c r="L37" s="173" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row customFormat="1" r="38" s="147" spans="1:22">
       <c r="B38" s="91" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="91" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F38" s="91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G38" s="91" t="n"/>
       <c r="H38" s="128" t="n"/>
       <c r="I38" s="128" t="n"/>
       <c r="J38" s="128" t="n"/>
-      <c r="L38" s="173" t="n"/>
+      <c r="L38" s="173" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row customFormat="1" r="39" s="147" spans="1:22">
       <c r="B39" s="91" t="n"/>
@@ -4815,16 +4831,16 @@
     </row>
     <row customFormat="1" r="40" s="147" spans="1:22">
       <c r="B40" s="91" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F40" s="91" t="n">
         <v>5</v>
@@ -4834,7 +4850,7 @@
       <c r="I40" s="128" t="n"/>
       <c r="J40" s="128" t="n"/>
       <c r="L40" s="173" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row customFormat="1" r="41" s="147" spans="1:22">
@@ -4851,43 +4867,43 @@
     </row>
     <row customFormat="1" r="42" s="147" spans="1:22">
       <c r="B42" s="91" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F42" s="91" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G42" s="91" t="n"/>
       <c r="H42" s="128" t="n"/>
       <c r="I42" s="128" t="n"/>
       <c r="J42" s="128" t="n"/>
       <c r="L42" s="173" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row customFormat="1" r="43" s="147" spans="1:22">
       <c r="B43" s="91" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E43" s="91" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F43" s="91" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G43" s="91" t="n"/>
       <c r="H43" s="128" t="n"/>
@@ -4911,7 +4927,7 @@
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="29" t="n"/>
       <c r="D45" s="149" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F45" s="16" t="n"/>
       <c r="G45" s="91" t="n"/>
@@ -4924,7 +4940,7 @@
       <c r="B46" s="30" t="n"/>
       <c r="C46" s="91" t="n"/>
       <c r="D46" s="157" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F46" s="66" t="n"/>
       <c r="G46" s="91" t="n"/>
@@ -4949,18 +4965,18 @@
     <row customFormat="1" r="48" s="147" spans="1:22">
       <c r="A48" s="110" t="n"/>
       <c r="B48" s="157" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C48" s="91" t="n"/>
       <c r="D48" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E48" s="10">
         <f>C65</f>
         <v/>
       </c>
       <c r="F48" s="148" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G48" s="91" t="n"/>
       <c r="H48" s="128" t="n"/>
@@ -4972,7 +4988,7 @@
       <c r="A49" s="110" t="n"/>
       <c r="C49" s="91" t="n"/>
       <c r="D49" s="14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E49" s="10">
         <f>D65</f>
@@ -4988,7 +5004,7 @@
       <c r="A50" s="110" t="n"/>
       <c r="C50" s="91" t="n"/>
       <c r="D50" s="14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E50" s="10">
         <f>B65</f>
@@ -5004,7 +5020,7 @@
       <c r="A51" s="110" t="n"/>
       <c r="C51" s="91" t="n"/>
       <c r="D51" s="15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E51" s="10">
         <f>F65</f>
@@ -5031,7 +5047,7 @@
     </row>
     <row customFormat="1" r="53" s="147" spans="1:22">
       <c r="B53" s="161" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G53" s="30" t="n"/>
       <c r="H53" s="128" t="n"/>
@@ -5053,19 +5069,19 @@
     </row>
     <row customFormat="1" r="55" s="147" spans="1:22">
       <c r="B55" s="17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F55" s="108" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G55" s="30" t="n"/>
       <c r="H55" s="128" t="n"/>
@@ -5266,16 +5282,16 @@
     </row>
     <row customFormat="1" r="67" s="147" spans="1:22">
       <c r="B67" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C67" s="91" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E67" s="91" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F67" s="91" t="n">
         <v>500</v>
@@ -5285,45 +5301,45 @@
       <c r="I67" s="128" t="n"/>
       <c r="J67" s="128" t="n"/>
       <c r="L67" s="173" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="13.2" r="68" s="147" spans="1:22">
       <c r="B68" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E68" s="91" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F68" s="91" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G68" s="91" t="n"/>
       <c r="H68" s="128" t="n"/>
       <c r="I68" s="128" t="n"/>
       <c r="J68" s="128" t="n"/>
       <c r="L68" s="173" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row customFormat="1" r="69" s="147" spans="1:22">
       <c r="B69" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C69" s="91" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D69" s="91" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E69" s="91" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F69" s="91" t="n">
         <v>0</v>
@@ -5333,21 +5349,21 @@
       <c r="I69" s="128" t="n"/>
       <c r="J69" s="128" t="n"/>
       <c r="L69" s="173" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row customFormat="1" r="70" s="147" spans="1:22">
       <c r="B70" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C70" s="91" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E70" s="91" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F70" s="91" t="n">
         <v>0</v>
@@ -5357,21 +5373,21 @@
       <c r="I70" s="128" t="n"/>
       <c r="J70" s="128" t="n"/>
       <c r="L70" s="173" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row customFormat="1" r="71" s="147" spans="1:22">
       <c r="B71" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C71" s="91" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E71" s="91" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F71" s="91" t="n"/>
       <c r="G71" s="91" t="n"/>
@@ -5379,21 +5395,21 @@
       <c r="I71" s="128" t="n"/>
       <c r="J71" s="128" t="n"/>
       <c r="L71" s="173" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row customFormat="1" r="72" s="147" spans="1:22">
       <c r="B72" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F72" s="91" t="n"/>
       <c r="G72" s="91" t="n"/>
@@ -5403,16 +5419,16 @@
     </row>
     <row customFormat="1" r="73" s="147" spans="1:22">
       <c r="B73" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C73" s="91" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D73" s="91" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F73" s="91" t="n"/>
       <c r="G73" s="91" t="n"/>
@@ -5422,19 +5438,19 @@
     </row>
     <row customFormat="1" r="74" s="147" spans="1:22">
       <c r="B74" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F74" s="91" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G74" s="91" t="n"/>
       <c r="H74" s="128" t="n"/>
@@ -5444,13 +5460,13 @@
     </row>
     <row customFormat="1" r="75" s="147" spans="1:22">
       <c r="B75" s="91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G75" s="91" t="n"/>
       <c r="L75" s="137" t="n"/>
@@ -5466,10 +5482,10 @@
     <row customFormat="1" r="77" s="147" spans="1:22">
       <c r="B77" s="91" t="n"/>
       <c r="C77" s="87" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D77" s="167" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F77" s="160" t="n"/>
       <c r="G77" s="91" t="n"/>
@@ -5478,13 +5494,13 @@
     <row customFormat="1" r="78" s="147" spans="1:22">
       <c r="B78" s="91" t="n"/>
       <c r="C78" s="132" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D78" s="174" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F78" s="159" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G78" s="91" t="n"/>
       <c r="H78" s="128" t="n"/>
@@ -5495,10 +5511,10 @@
     <row customFormat="1" r="79" s="147" spans="1:22">
       <c r="B79" s="91" t="n"/>
       <c r="C79" s="133" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D79" s="169" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G79" s="91" t="n"/>
       <c r="I79" s="128" t="n"/>
@@ -5507,10 +5523,10 @@
     <row customFormat="1" r="80" s="147" spans="1:22">
       <c r="B80" s="91" t="n"/>
       <c r="C80" s="133" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D80" s="169" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G80" s="91" t="n"/>
       <c r="I80" s="128" t="n"/>
@@ -5519,10 +5535,10 @@
     <row customFormat="1" r="81" s="147" spans="1:22">
       <c r="B81" s="91" t="n"/>
       <c r="C81" s="133" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D81" s="169" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G81" s="91" t="n"/>
       <c r="I81" s="128" t="n"/>
@@ -5531,10 +5547,10 @@
     <row customFormat="1" r="82" s="147" spans="1:22">
       <c r="B82" s="91" t="n"/>
       <c r="C82" s="133" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D82" s="169" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F82" s="160" t="n"/>
       <c r="G82" s="91" t="n"/>
@@ -5547,7 +5563,7 @@
         <v>43</v>
       </c>
       <c r="D83" s="169" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F83" s="160" t="n"/>
       <c r="G83" s="91" t="n"/>
@@ -5557,10 +5573,10 @@
     <row customFormat="1" r="84" s="147" spans="1:22">
       <c r="B84" s="91" t="n"/>
       <c r="C84" s="133" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D84" s="169" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F84" s="160" t="n"/>
       <c r="G84" s="91" t="n"/>
@@ -5570,10 +5586,10 @@
     <row customFormat="1" r="85" s="147" spans="1:22">
       <c r="B85" s="91" t="n"/>
       <c r="C85" s="133" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D85" s="169" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F85" s="160" t="n"/>
       <c r="G85" s="91" t="n"/>
@@ -5583,10 +5599,10 @@
     <row customFormat="1" r="86" s="147" spans="1:22">
       <c r="B86" s="91" t="n"/>
       <c r="C86" s="133" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D86" s="169" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F86" s="160" t="n"/>
       <c r="G86" s="91" t="n"/>
@@ -5811,16 +5827,16 @@
     </row>
     <row customFormat="1" r="110" s="147" spans="1:22">
       <c r="B110" s="91" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C110" s="91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D110" s="91" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E110" s="72" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F110" s="72" t="n">
         <v>10</v>
@@ -5830,7 +5846,7 @@
       <c r="I110" s="128" t="n"/>
       <c r="J110" s="128" t="n"/>
       <c r="L110" s="173" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row customFormat="1" r="111" s="147" spans="1:22">
@@ -5849,13 +5865,13 @@
       <c r="B112" s="91" t="n"/>
       <c r="C112" s="91" t="n"/>
       <c r="D112" s="158" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E112" s="158" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F112" s="158" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G112" s="72" t="n"/>
       <c r="H112" s="128" t="n"/>
@@ -5864,99 +5880,99 @@
     </row>
     <row customFormat="1" r="113" s="147" spans="1:22">
       <c r="B113" s="91" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C113" s="91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D113" s="158" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E113" s="158" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F113" s="63" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G113" s="72" t="n"/>
       <c r="H113" s="128" t="n"/>
       <c r="I113" s="128" t="n"/>
       <c r="J113" s="128" t="n"/>
       <c r="L113" s="90" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row customFormat="1" r="114" s="147" spans="1:22">
       <c r="B114" s="91" t="n"/>
       <c r="C114" s="91" t="n"/>
       <c r="D114" s="64" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="E114" s="62" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F114" s="43" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="G114" s="72" t="n"/>
       <c r="H114" s="128" t="n"/>
       <c r="I114" s="128" t="n"/>
       <c r="J114" s="128" t="n"/>
       <c r="L114" s="88" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row customFormat="1" r="115" s="147" spans="1:22">
       <c r="B115" s="91" t="n"/>
       <c r="C115" s="91" t="n"/>
       <c r="D115" s="64" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E115" s="62" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G115" s="72" t="n"/>
       <c r="H115" s="128" t="n"/>
       <c r="I115" s="128" t="n"/>
       <c r="J115" s="128" t="n"/>
       <c r="L115" s="88" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row customFormat="1" r="116" s="147" spans="1:22">
       <c r="B116" s="91" t="n"/>
       <c r="C116" s="91" t="n"/>
       <c r="D116" s="62" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E116" s="62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G116" s="72" t="n"/>
       <c r="H116" s="128" t="n"/>
       <c r="I116" s="128" t="n"/>
       <c r="J116" s="128" t="n"/>
       <c r="L116" s="88" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row customFormat="1" r="117" s="147" spans="1:22">
       <c r="B117" s="91" t="n"/>
       <c r="C117" s="91" t="n"/>
       <c r="D117" s="62" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E117" s="62" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G117" s="72" t="n"/>
       <c r="H117" s="128" t="n"/>
@@ -5964,20 +5980,20 @@
       <c r="J117" s="128" t="n"/>
       <c r="K117" s="65" t="n"/>
       <c r="L117" s="88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row customFormat="1" r="118" s="147" spans="1:22">
       <c r="B118" s="91" t="n"/>
       <c r="C118" s="91" t="n"/>
       <c r="D118" s="62" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E118" s="62" t="s">
         <v>44</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G118" s="72" t="n"/>
       <c r="H118" s="128" t="n"/>
@@ -5985,7 +6001,7 @@
       <c r="J118" s="128" t="n"/>
       <c r="K118" s="65" t="n"/>
       <c r="L118" s="88" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -6040,13 +6056,13 @@
       <c r="B122" s="91" t="n"/>
       <c r="C122" s="91" t="n"/>
       <c r="D122" s="158" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="158" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F122" s="158" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G122" s="72" t="n"/>
       <c r="H122" s="128" t="n"/>
@@ -6058,19 +6074,19 @@
     </row>
     <row r="123" spans="1:22">
       <c r="B123" s="91" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C123" s="91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D123" s="158" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E123" s="158" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F123" s="72" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G123" s="72" t="n"/>
       <c r="H123" s="128" t="n"/>
@@ -6078,7 +6094,7 @@
       <c r="J123" s="128" t="n"/>
       <c r="K123" s="147" t="n"/>
       <c r="L123" s="90" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M123" s="147" t="n"/>
     </row>
@@ -6086,13 +6102,13 @@
       <c r="B124" s="91" t="n"/>
       <c r="C124" s="91" t="n"/>
       <c r="D124" s="62" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" s="62" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F124" s="43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G124" s="72" t="n"/>
       <c r="H124" s="128" t="n"/>
@@ -6100,7 +6116,7 @@
       <c r="J124" s="128" t="n"/>
       <c r="K124" s="147" t="n"/>
       <c r="L124" s="88" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M124" s="147" t="n"/>
     </row>
@@ -6108,60 +6124,60 @@
       <c r="B125" s="91" t="n"/>
       <c r="C125" s="91" t="n"/>
       <c r="D125" s="62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E125" s="62" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F125" s="43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G125" s="72" t="n"/>
       <c r="H125" s="128" t="n"/>
       <c r="I125" s="128" t="n"/>
       <c r="J125" s="128" t="n"/>
       <c r="L125" s="88" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row customFormat="1" r="126" s="147" spans="1:22">
       <c r="B126" s="91" t="n"/>
       <c r="C126" s="91" t="n"/>
       <c r="D126" s="62" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E126" s="62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G126" s="72" t="n"/>
       <c r="H126" s="128" t="n"/>
       <c r="I126" s="128" t="n"/>
       <c r="J126" s="128" t="n"/>
       <c r="L126" s="88" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row customFormat="1" r="127" s="147" spans="1:22">
       <c r="B127" s="91" t="n"/>
       <c r="C127" s="91" t="n"/>
       <c r="D127" s="62" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E127" s="62" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G127" s="72" t="n"/>
       <c r="H127" s="128" t="n"/>
       <c r="I127" s="128" t="n"/>
       <c r="J127" s="128" t="n"/>
       <c r="L127" s="88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row customFormat="1" r="128" s="147" spans="1:22">
@@ -6174,14 +6190,14 @@
         <v>44</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G128" s="72" t="n"/>
       <c r="H128" s="128" t="n"/>
       <c r="I128" s="128" t="n"/>
       <c r="J128" s="128" t="n"/>
       <c r="L128" s="88" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -6302,13 +6318,13 @@
     </row>
     <row r="136" spans="1:22">
       <c r="B136" s="91" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C136" s="91" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D136" s="158" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G136" s="158" t="n"/>
       <c r="H136" s="128" t="n"/>
@@ -6334,19 +6350,19 @@
     </row>
     <row r="138" spans="1:22">
       <c r="B138" s="94" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C138" s="97" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D138" s="95" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E138" s="96" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F138" s="98" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G138" s="91" t="n"/>
       <c r="H138" s="128" t="n"/>
@@ -6354,7 +6370,7 @@
       <c r="J138" s="128" t="n"/>
       <c r="K138" s="147" t="n"/>
       <c r="L138" s="173" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M138" s="147" t="n"/>
     </row>
@@ -6363,16 +6379,16 @@
         <v>0</v>
       </c>
       <c r="C139" s="102" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D139" s="102" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E139" s="102" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F139" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G139" s="91" t="n"/>
       <c r="H139" s="128" t="n"/>
@@ -6387,16 +6403,16 @@
         <v>1</v>
       </c>
       <c r="C140" s="103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D140" s="103" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E140" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F140" s="92" t="s">
         <v>175</v>
-      </c>
-      <c r="F140" s="92" t="s">
-        <v>173</v>
       </c>
       <c r="G140" s="91" t="n"/>
       <c r="H140" s="128" t="n"/>
@@ -6414,13 +6430,13 @@
         <v>39</v>
       </c>
       <c r="D141" s="103" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E141" s="103" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F141" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G141" s="91" t="n"/>
       <c r="H141" s="128" t="n"/>
@@ -6438,13 +6454,13 @@
         <v>39</v>
       </c>
       <c r="D142" s="103" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E142" s="103" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F142" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G142" s="91" t="n"/>
       <c r="H142" s="128" t="n"/>
@@ -6459,16 +6475,16 @@
         <v>4</v>
       </c>
       <c r="C143" s="103" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D143" s="103" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E143" s="103" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F143" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G143" s="91" t="n"/>
       <c r="H143" s="128" t="n"/>
@@ -6483,16 +6499,16 @@
         <v>5</v>
       </c>
       <c r="C144" s="103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D144" s="103" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E144" s="103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F144" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G144" s="91" t="n"/>
       <c r="H144" s="128" t="n"/>
@@ -6510,13 +6526,13 @@
         <v>39</v>
       </c>
       <c r="D145" s="103" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E145" s="103" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F145" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G145" s="91" t="n"/>
       <c r="H145" s="128" t="n"/>
@@ -6534,13 +6550,13 @@
         <v>39</v>
       </c>
       <c r="D146" s="103" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E146" s="103" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F146" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G146" s="91" t="n"/>
       <c r="H146" s="128" t="n"/>
@@ -6558,13 +6574,13 @@
         <v>39</v>
       </c>
       <c r="D147" s="103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E147" s="103" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F147" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G147" s="91" t="n"/>
       <c r="H147" s="128" t="n"/>
@@ -6582,13 +6598,13 @@
         <v>39</v>
       </c>
       <c r="D148" s="103" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E148" s="103" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F148" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G148" s="91" t="n"/>
       <c r="H148" s="128" t="n"/>
@@ -6606,13 +6622,13 @@
         <v>39</v>
       </c>
       <c r="D149" s="103" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E149" s="103" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F149" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G149" s="91" t="n"/>
       <c r="H149" s="128" t="n"/>
@@ -6630,13 +6646,13 @@
         <v>39</v>
       </c>
       <c r="D150" s="103" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E150" s="103" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F150" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G150" s="91" t="n"/>
       <c r="H150" s="128" t="n"/>
@@ -6654,13 +6670,13 @@
         <v>39</v>
       </c>
       <c r="D151" s="103" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E151" s="103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F151" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G151" s="91" t="n"/>
       <c r="H151" s="128" t="n"/>
@@ -6678,13 +6694,13 @@
         <v>39</v>
       </c>
       <c r="D152" s="103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E152" s="103" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F152" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G152" s="91" t="n"/>
       <c r="H152" s="128" t="n"/>
@@ -6702,13 +6718,13 @@
         <v>39</v>
       </c>
       <c r="D153" s="103" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E153" s="103" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F153" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G153" s="91" t="n"/>
       <c r="H153" s="128" t="n"/>
@@ -6726,13 +6742,13 @@
         <v>39</v>
       </c>
       <c r="D154" s="103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E154" s="103" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F154" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G154" s="91" t="n"/>
       <c r="H154" s="128" t="n"/>
@@ -6750,13 +6766,13 @@
         <v>39</v>
       </c>
       <c r="D155" s="103" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E155" s="103" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F155" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G155" s="91" t="n"/>
       <c r="H155" s="128" t="n"/>
@@ -6774,13 +6790,13 @@
         <v>39</v>
       </c>
       <c r="D156" s="103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E156" s="103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F156" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G156" s="91" t="n"/>
       <c r="H156" s="128" t="n"/>
@@ -6798,13 +6814,13 @@
         <v>39</v>
       </c>
       <c r="D157" s="103" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E157" s="103" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F157" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G157" s="91" t="n"/>
       <c r="H157" s="128" t="n"/>
@@ -6822,13 +6838,13 @@
         <v>39</v>
       </c>
       <c r="D158" s="103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E158" s="103" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F158" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G158" s="91" t="n"/>
       <c r="H158" s="128" t="n"/>
@@ -6846,13 +6862,13 @@
         <v>39</v>
       </c>
       <c r="D159" s="103" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E159" s="103" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F159" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G159" s="91" t="n"/>
       <c r="H159" s="128" t="n"/>
@@ -6870,13 +6886,13 @@
         <v>39</v>
       </c>
       <c r="D160" s="103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E160" s="103" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F160" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G160" s="91" t="n"/>
       <c r="H160" s="128" t="n"/>
@@ -6894,13 +6910,13 @@
         <v>39</v>
       </c>
       <c r="D161" s="103" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E161" s="103" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F161" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G161" s="91" t="n"/>
       <c r="H161" s="128" t="n"/>
@@ -6918,13 +6934,13 @@
         <v>39</v>
       </c>
       <c r="D162" s="103" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E162" s="103" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F162" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G162" s="91" t="n"/>
       <c r="H162" s="128" t="n"/>
@@ -6942,13 +6958,13 @@
         <v>39</v>
       </c>
       <c r="D163" s="103" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E163" s="103" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F163" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G163" s="91" t="n"/>
       <c r="H163" s="128" t="n"/>
@@ -6966,13 +6982,13 @@
         <v>39</v>
       </c>
       <c r="D164" s="103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E164" s="103" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F164" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G164" s="91" t="n"/>
       <c r="H164" s="128" t="n"/>
@@ -6990,13 +7006,13 @@
         <v>39</v>
       </c>
       <c r="D165" s="103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E165" s="103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F165" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G165" s="91" t="n"/>
       <c r="H165" s="128" t="n"/>
@@ -7014,13 +7030,13 @@
         <v>39</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F166" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G166" s="91" t="n"/>
       <c r="H166" s="128" t="n"/>
@@ -7038,13 +7054,13 @@
         <v>39</v>
       </c>
       <c r="D167" s="103" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E167" s="103" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F167" s="92" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G167" s="91" t="n"/>
       <c r="H167" s="128" t="n"/>
@@ -7097,50 +7113,50 @@
     </row>
     <row r="171" spans="1:22">
       <c r="B171" s="91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C171" s="91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D171" s="91" t="s">
         <v>47</v>
       </c>
       <c r="E171" s="91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F171" s="91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G171" s="91" t="n"/>
       <c r="H171" s="128" t="n"/>
       <c r="I171" s="128" t="n"/>
       <c r="J171" s="128" t="n"/>
       <c r="L171" s="173" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="1:22">
       <c r="B172" s="91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C172" s="91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D172" s="91" t="s">
         <v>47</v>
       </c>
       <c r="E172" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="F172" s="91" t="s">
         <v>233</v>
-      </c>
-      <c r="F172" s="91" t="s">
-        <v>231</v>
       </c>
       <c r="G172" s="91" t="n"/>
       <c r="H172" s="128" t="n"/>
       <c r="I172" s="128" t="n"/>
       <c r="J172" s="128" t="n"/>
       <c r="L172" s="173" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -7175,7 +7191,7 @@
       <c r="B175" s="42" t="n"/>
       <c r="C175" s="166" t="n"/>
       <c r="D175" s="166" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F175" s="166" t="n"/>
       <c r="G175" s="164" t="n"/>
@@ -7188,16 +7204,16 @@
     </row>
     <row customHeight="1" ht="13.5" r="176" s="140" spans="1:22" thickBot="1">
       <c r="B176" s="35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D176" s="36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E176" s="36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F176" s="36" t="n">
         <v>9600</v>
@@ -7208,7 +7224,7 @@
       <c r="J176" s="54" t="n"/>
       <c r="K176" s="147" t="n"/>
       <c r="L176" s="173" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M176" s="147" t="n"/>
     </row>
@@ -7232,16 +7248,16 @@
     </row>
     <row r="179" spans="1:22">
       <c r="B179" s="91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C179" s="91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D179" s="91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E179" s="91" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F179" s="91" t="n">
         <v>30000</v>
@@ -7251,55 +7267,55 @@
       <c r="I179" s="128" t="n"/>
       <c r="J179" s="128" t="n"/>
       <c r="L179" s="173" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:22">
       <c r="B180" s="91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C180" s="91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D180" s="91" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E180" s="91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F180" s="91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G180" s="91" t="n"/>
       <c r="H180" s="128" t="n"/>
       <c r="I180" s="128" t="n"/>
       <c r="J180" s="128" t="n"/>
       <c r="L180" s="173" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:22">
       <c r="B181" s="91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C181" s="91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D181" s="91" t="s">
+        <v>251</v>
+      </c>
+      <c r="E181" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="F181" s="91" t="s">
         <v>249</v>
-      </c>
-      <c r="E181" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="F181" s="91" t="s">
-        <v>247</v>
       </c>
       <c r="G181" s="91" t="n"/>
       <c r="H181" s="128" t="n"/>
       <c r="I181" s="128" t="n"/>
       <c r="J181" s="128" t="n"/>
       <c r="L181" s="173" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -7316,40 +7332,40 @@
     </row>
     <row r="183" spans="1:22">
       <c r="B183" s="91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C183" s="91" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D183" s="91" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E183" s="91" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F183" s="91" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G183" s="91" t="n"/>
       <c r="H183" s="128" t="n"/>
       <c r="I183" s="128" t="n"/>
       <c r="J183" s="128" t="n"/>
       <c r="L183" s="173" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:22">
       <c r="B184" s="91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C184" s="91" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D184" s="91" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E184" s="91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F184" s="91" t="n">
         <v>3000</v>
@@ -7359,7 +7375,7 @@
       <c r="I184" s="128" t="n"/>
       <c r="J184" s="128" t="n"/>
       <c r="L184" s="173" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -7376,50 +7392,50 @@
     </row>
     <row r="186" spans="1:22">
       <c r="B186" s="91" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C186" s="91" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D186" s="91" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E186" s="91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F186" s="91" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G186" s="91" t="n"/>
       <c r="H186" s="128" t="n"/>
       <c r="I186" s="128" t="n"/>
       <c r="J186" s="128" t="n"/>
       <c r="L186" s="173" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:22">
       <c r="B187" s="91" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C187" s="91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D187" s="91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E187" s="91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F187" s="91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G187" s="91" t="n"/>
       <c r="H187" s="128" t="n"/>
       <c r="I187" s="128" t="n"/>
       <c r="J187" s="128" t="n"/>
       <c r="L187" s="173" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="188" s="140" spans="1:22" thickBot="1">
@@ -7434,7 +7450,7 @@
       <c r="B189" s="28" t="n"/>
       <c r="C189" s="29" t="n"/>
       <c r="D189" s="149" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F189" s="29" t="n"/>
       <c r="G189" s="29" t="n"/>
@@ -7445,16 +7461,16 @@
     </row>
     <row customHeight="1" ht="13.5" r="190" s="140" spans="1:22" thickBot="1">
       <c r="B190" s="130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C190" s="131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D190" s="131" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E190" s="131" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F190" s="131" t="n">
         <v>500</v>
@@ -7464,7 +7480,7 @@
       <c r="I190" s="53" t="n"/>
       <c r="J190" s="54" t="n"/>
       <c r="L190" s="173" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -7551,14 +7567,14 @@
     <row r="198" spans="1:22">
       <c r="A198" s="120" t="n"/>
       <c r="B198" s="165" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G198" s="114" t="n"/>
       <c r="H198" s="128" t="n"/>
       <c r="I198" s="128" t="n"/>
       <c r="J198" s="128" t="n"/>
       <c r="L198" s="173" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="199" s="140" spans="1:22">
@@ -7597,7 +7613,7 @@
       <c r="B202" s="33" t="n"/>
       <c r="C202" s="149" t="n"/>
       <c r="D202" s="163" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F202" s="149" t="n"/>
       <c r="G202" s="149" t="n"/>
@@ -7608,7 +7624,7 @@
     </row>
     <row r="203" spans="1:22">
       <c r="B203" s="162" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G203" s="153" t="n"/>
       <c r="H203" s="128" t="n"/>
@@ -7630,50 +7646,50 @@
     </row>
     <row r="205" spans="1:22">
       <c r="B205" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C205" s="91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D205" s="91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E205" s="72" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F205" s="72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G205" s="72" t="n"/>
       <c r="H205" s="128" t="n"/>
       <c r="I205" s="128" t="n"/>
       <c r="J205" s="51" t="n"/>
       <c r="L205" s="173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="206" spans="1:22">
       <c r="B206" s="30" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C206" s="91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D206" s="91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E206" s="91" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F206" s="91" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="G206" s="91" t="n"/>
       <c r="H206" s="128" t="n"/>
       <c r="I206" s="128" t="n"/>
       <c r="J206" s="51" t="n"/>
       <c r="L206" s="173" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -7681,7 +7697,7 @@
       <c r="C207" s="91" t="n"/>
       <c r="D207" s="91" t="n"/>
       <c r="E207" s="91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F207" s="91" t="n">
         <v>0</v>
@@ -7691,7 +7707,7 @@
       <c r="I207" s="128" t="n"/>
       <c r="J207" s="51" t="n"/>
       <c r="L207" s="173" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -7699,7 +7715,7 @@
       <c r="C208" s="91" t="n"/>
       <c r="D208" s="91" t="n"/>
       <c r="E208" s="91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F208" s="91" t="n">
         <v>35</v>
@@ -7709,7 +7725,7 @@
       <c r="I208" s="128" t="n"/>
       <c r="J208" s="51" t="n"/>
       <c r="L208" s="173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -7717,7 +7733,7 @@
       <c r="C209" s="91" t="n"/>
       <c r="D209" s="91" t="n"/>
       <c r="E209" s="91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F209" s="91" t="n">
         <v>15</v>
@@ -7727,7 +7743,7 @@
       <c r="I209" s="128" t="n"/>
       <c r="J209" s="51" t="n"/>
       <c r="L209" s="173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -7735,7 +7751,7 @@
       <c r="C210" s="91" t="n"/>
       <c r="D210" s="91" t="n"/>
       <c r="E210" s="91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F210" s="91" t="n">
         <v>249</v>
@@ -7745,7 +7761,7 @@
       <c r="I210" s="128" t="n"/>
       <c r="J210" s="51" t="n"/>
       <c r="L210" s="173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -7753,7 +7769,7 @@
       <c r="C211" s="91" t="n"/>
       <c r="D211" s="91" t="n"/>
       <c r="E211" s="91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F211" s="91" t="n">
         <v>3</v>
@@ -7763,7 +7779,7 @@
       <c r="I211" s="128" t="n"/>
       <c r="J211" s="51" t="n"/>
       <c r="L211" s="173" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -7771,7 +7787,7 @@
       <c r="C212" s="91" t="n"/>
       <c r="D212" s="91" t="n"/>
       <c r="E212" s="91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F212" s="91" t="n">
         <v>10</v>
@@ -7781,7 +7797,7 @@
       <c r="I212" s="128" t="n"/>
       <c r="J212" s="51" t="n"/>
       <c r="L212" s="173" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -7789,7 +7805,7 @@
       <c r="C213" s="91" t="n"/>
       <c r="D213" s="91" t="n"/>
       <c r="E213" s="91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F213" s="91" t="n">
         <v>10</v>
@@ -7799,7 +7815,7 @@
       <c r="I213" s="128" t="n"/>
       <c r="J213" s="51" t="n"/>
       <c r="L213" s="173" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -7807,7 +7823,7 @@
       <c r="C214" s="91" t="n"/>
       <c r="D214" s="91" t="n"/>
       <c r="E214" s="91" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F214" s="91" t="n">
         <v>400</v>
@@ -7817,7 +7833,7 @@
       <c r="I214" s="128" t="n"/>
       <c r="J214" s="51" t="n"/>
       <c r="L214" s="173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -7825,7 +7841,7 @@
       <c r="C215" s="91" t="n"/>
       <c r="D215" s="91" t="n"/>
       <c r="E215" s="91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F215" s="91" t="n">
         <v>400</v>
@@ -7835,7 +7851,7 @@
       <c r="I215" s="128" t="n"/>
       <c r="J215" s="51" t="n"/>
       <c r="L215" s="173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="216" s="140" spans="1:22" thickBot="1">
@@ -7843,22 +7859,24 @@
         <v>29</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D216" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F216" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G216" s="32" t="n"/>
       <c r="H216" s="52" t="n"/>
       <c r="I216" s="53" t="n"/>
       <c r="J216" s="54" t="n"/>
-      <c r="L216" s="173" t="n"/>
+      <c r="L216" s="173" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="217" spans="1:22">
       <c r="B217" s="91" t="n"/>
@@ -7887,14 +7905,14 @@
     <row r="219" spans="1:22">
       <c r="A219" s="120" t="n"/>
       <c r="B219" s="151" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G219" s="123" t="n"/>
       <c r="H219" s="128" t="n"/>
       <c r="I219" s="128" t="n"/>
       <c r="J219" s="128" t="n"/>
       <c r="L219" s="173" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="220" s="140" spans="1:22">
@@ -7916,14 +7934,14 @@
     <row r="222" spans="1:22">
       <c r="A222" s="120" t="n"/>
       <c r="B222" s="151" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G222" s="123" t="n"/>
       <c r="H222" s="128" t="n"/>
       <c r="I222" s="128" t="n"/>
       <c r="J222" s="128" t="n"/>
       <c r="L222" s="173" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="223" s="140" spans="1:22">
@@ -8722,18 +8740,18 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="E2" s="38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8744,13 +8762,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8758,13 +8776,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8772,13 +8790,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8786,13 +8804,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8800,13 +8818,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8814,10 +8832,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8825,10 +8843,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8836,10 +8854,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8847,10 +8865,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8858,10 +8876,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8869,10 +8887,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8880,10 +8898,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8891,10 +8909,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8902,10 +8920,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8913,10 +8931,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8924,10 +8942,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8935,7 +8953,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8943,7 +8961,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8951,7 +8969,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:6">
